--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{54EED2A3-008E-4038-A2C4-B2BF17802EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{ADAEDEAE-A89A-46BB-8962-A201B7B4237D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -16201,54 +16201,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e218 Escape&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r218a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt; Manage to find an escape path. Move along. Click image to continue.
-&lt;LineBreak/&gt; &lt;LineBreak/&gt; 
-                        &lt;InlineUIContainer&gt;&lt;Image Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EncounterEnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Escape</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e005c Fight Amazon&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll for results:
  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/dieRoll.gif' Name='DieRoll' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
@@ -34632,7 +34584,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>' FontFamily='Courier New'  FontSize='12'&gt; &lt;/Button&gt;&lt;/InlineUIContainer&gt; or &lt;InlineUIContainer&gt;&lt;Button Content='</t>
+      <t>' FontFamily='Courier New'  FontSize='12'&gt; &lt;/Button&gt;&lt;/InlineUIContainer&gt; or &lt;InlineUIContainer&gt;&lt;Button Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Begin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Content='</t>
     </r>
     <r>
       <rPr>
@@ -34653,6 +34625,54 @@
         <scheme val="minor"/>
       </rPr>
       <t>' FontFamily='Courier New'  FontSize='12'&gt; &lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e218 Escape&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r218a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt; Managed to find an escape path. Click image to continue.
+&lt;LineBreak/&gt; &lt;LineBreak/&gt; 
+                        &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EncounterEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Escape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
 </sst>
@@ -35119,8 +35139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B564"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A489" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B491" sqref="B491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35134,7 +35154,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35142,7 +35162,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35150,7 +35170,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35158,15 +35178,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35182,7 +35202,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35190,7 +35210,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35222,7 +35242,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35230,7 +35250,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35254,7 +35274,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35262,7 +35282,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35270,7 +35290,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35278,7 +35298,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35294,7 +35314,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35302,7 +35322,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35310,7 +35330,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35318,7 +35338,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35326,7 +35346,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35334,7 +35354,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35342,7 +35362,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35350,31 +35370,31 @@
         <v>261</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35382,7 +35402,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35390,7 +35410,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35398,23 +35418,23 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35422,23 +35442,23 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35446,7 +35466,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35470,7 +35490,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35486,7 +35506,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35510,7 +35530,7 @@
         <v>729</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35518,7 +35538,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35526,7 +35546,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35534,7 +35554,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35590,7 +35610,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35598,7 +35618,7 @@
         <v>265</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35622,7 +35642,7 @@
         <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -35654,7 +35674,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -35662,7 +35682,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35678,7 +35698,7 @@
         <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35686,7 +35706,7 @@
         <v>733</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35734,7 +35754,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35742,7 +35762,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35766,7 +35786,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35806,7 +35826,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35814,7 +35834,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35822,7 +35842,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35830,7 +35850,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -35838,31 +35858,31 @@
         <v>58</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>818</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35870,15 +35890,15 @@
         <v>59</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35886,15 +35906,15 @@
         <v>60</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>807</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -35902,7 +35922,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -35910,7 +35930,7 @@
         <v>62</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35942,7 +35962,7 @@
         <v>65</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35950,7 +35970,7 @@
         <v>66</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36030,7 +36050,7 @@
         <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -36118,7 +36138,7 @@
         <v>77</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36131,10 +36151,10 @@
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>988</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36142,7 +36162,7 @@
         <v>78</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36150,7 +36170,7 @@
         <v>381</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36190,7 +36210,7 @@
         <v>80</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36198,87 +36218,87 @@
         <v>81</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>1004</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36286,7 +36306,7 @@
         <v>82</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36294,7 +36314,7 @@
         <v>83</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36334,7 +36354,7 @@
         <v>570</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36342,7 +36362,7 @@
         <v>86</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36454,7 +36474,7 @@
         <v>449</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36478,23 +36498,23 @@
         <v>90</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36526,7 +36546,7 @@
         <v>93</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -36534,7 +36554,7 @@
         <v>94</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36542,7 +36562,7 @@
         <v>95</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36550,55 +36570,55 @@
         <v>96</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>906</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36606,7 +36626,7 @@
         <v>97</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36638,7 +36658,7 @@
         <v>100</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36654,7 +36674,7 @@
         <v>103</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36662,7 +36682,7 @@
         <v>104</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36694,7 +36714,7 @@
         <v>106</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36702,7 +36722,7 @@
         <v>107</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36710,15 +36730,15 @@
         <v>165</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36726,7 +36746,7 @@
         <v>108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -36734,7 +36754,7 @@
         <v>109</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36742,7 +36762,7 @@
         <v>110</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36750,7 +36770,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36758,7 +36778,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36766,23 +36786,23 @@
         <v>168</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>921</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36830,7 +36850,7 @@
         <v>112</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36838,7 +36858,7 @@
         <v>169</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36846,7 +36866,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36854,7 +36874,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36862,7 +36882,7 @@
         <v>113</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36870,7 +36890,7 @@
         <v>114</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36878,15 +36898,15 @@
         <v>266</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36894,15 +36914,15 @@
         <v>115</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36910,15 +36930,15 @@
         <v>116</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36926,31 +36946,31 @@
         <v>117</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>776</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36958,23 +36978,23 @@
         <v>118</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36982,23 +37002,23 @@
         <v>119</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37006,7 +37026,7 @@
         <v>120</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37014,7 +37034,7 @@
         <v>172</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37022,7 +37042,7 @@
         <v>173</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37030,7 +37050,7 @@
         <v>174</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37046,15 +37066,15 @@
         <v>122</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37062,23 +37082,23 @@
         <v>123</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37086,7 +37106,7 @@
         <v>124</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37094,15 +37114,15 @@
         <v>125</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37110,7 +37130,7 @@
         <v>126</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37118,7 +37138,7 @@
         <v>127</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37126,7 +37146,7 @@
         <v>128</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37134,7 +37154,7 @@
         <v>129</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37142,7 +37162,7 @@
         <v>130</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37150,23 +37170,23 @@
         <v>131</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>978</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37174,7 +37194,7 @@
         <v>132</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37182,15 +37202,15 @@
         <v>133</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37198,23 +37218,23 @@
         <v>134</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>1034</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>1036</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37222,15 +37242,15 @@
         <v>135</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>1039</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37238,7 +37258,7 @@
         <v>136</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37262,7 +37282,7 @@
         <v>233</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37294,7 +37314,7 @@
         <v>139</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37302,7 +37322,7 @@
         <v>239</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37310,7 +37330,7 @@
         <v>240</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37318,7 +37338,7 @@
         <v>241</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37326,7 +37346,7 @@
         <v>140</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37334,7 +37354,7 @@
         <v>236</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37342,7 +37362,7 @@
         <v>237</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37350,7 +37370,7 @@
         <v>238</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37358,7 +37378,7 @@
         <v>141</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37366,7 +37386,7 @@
         <v>142</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37374,7 +37394,7 @@
         <v>143</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37382,7 +37402,7 @@
         <v>144</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37390,7 +37410,7 @@
         <v>242</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37398,7 +37418,7 @@
         <v>145</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37406,7 +37426,7 @@
         <v>146</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37414,7 +37434,7 @@
         <v>147</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37422,7 +37442,7 @@
         <v>148</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37430,31 +37450,31 @@
         <v>149</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>1112</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37462,15 +37482,15 @@
         <v>150</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -37478,7 +37498,7 @@
         <v>151</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37486,7 +37506,7 @@
         <v>243</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37494,7 +37514,7 @@
         <v>244</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37502,7 +37522,7 @@
         <v>245</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37510,7 +37530,7 @@
         <v>152</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37518,7 +37538,7 @@
         <v>153</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37526,7 +37546,7 @@
         <v>154</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37534,7 +37554,7 @@
         <v>155</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37542,7 +37562,7 @@
         <v>156</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37550,7 +37570,7 @@
         <v>157</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37558,7 +37578,7 @@
         <v>246</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37566,7 +37586,7 @@
         <v>247</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37574,7 +37594,7 @@
         <v>248</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37582,7 +37602,7 @@
         <v>158</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37590,7 +37610,7 @@
         <v>159</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37598,7 +37618,7 @@
         <v>160</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37606,7 +37626,7 @@
         <v>161</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37614,31 +37634,31 @@
         <v>162</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37646,7 +37666,7 @@
         <v>163</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37654,7 +37674,7 @@
         <v>164</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37662,7 +37682,7 @@
         <v>175</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37670,7 +37690,7 @@
         <v>176</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37678,7 +37698,7 @@
         <v>177</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -37686,7 +37706,7 @@
         <v>531</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37694,7 +37714,7 @@
         <v>532</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37702,7 +37722,7 @@
         <v>533</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -37718,7 +37738,7 @@
         <v>536</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37726,7 +37746,7 @@
         <v>537</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37734,7 +37754,7 @@
         <v>178</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -37742,7 +37762,7 @@
         <v>504</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37750,7 +37770,7 @@
         <v>566</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37758,7 +37778,7 @@
         <v>567</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -37766,7 +37786,7 @@
         <v>179</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37774,7 +37794,7 @@
         <v>249</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37782,7 +37802,7 @@
         <v>250</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37790,7 +37810,7 @@
         <v>251</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37798,7 +37818,7 @@
         <v>252</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37806,23 +37826,23 @@
         <v>253</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37830,7 +37850,7 @@
         <v>180</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37934,7 +37954,7 @@
         <v>465</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37998,7 +38018,7 @@
         <v>344</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38022,7 +38042,7 @@
         <v>196</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38030,7 +38050,7 @@
         <v>333</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38086,7 +38106,7 @@
         <v>202</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38206,7 +38226,7 @@
         <v>608</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38214,7 +38234,7 @@
         <v>609</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38222,7 +38242,7 @@
         <v>610</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38230,7 +38250,7 @@
         <v>611</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38246,7 +38266,7 @@
         <v>613</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38262,7 +38282,7 @@
         <v>207</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38286,7 +38306,7 @@
         <v>663</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38446,7 +38466,7 @@
         <v>213</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38462,7 +38482,7 @@
         <v>215</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38502,7 +38522,7 @@
         <v>220</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38534,7 +38554,7 @@
         <v>224</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38558,7 +38578,7 @@
         <v>225</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38622,7 +38642,7 @@
         <v>453</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38646,15 +38666,15 @@
         <v>602</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B441" s="3" t="s">
         <v>814</v>
-      </c>
-      <c r="B441" s="3" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38678,7 +38698,7 @@
         <v>321</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38686,15 +38706,15 @@
         <v>318</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B446" s="3" t="s">
         <v>1087</v>
-      </c>
-      <c r="B446" s="3" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38766,7 +38786,7 @@
         <v>576</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38790,7 +38810,7 @@
         <v>585</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38814,7 +38834,7 @@
         <v>588</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38838,7 +38858,7 @@
         <v>591</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38862,7 +38882,7 @@
         <v>600</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38870,7 +38890,7 @@
         <v>622</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38878,7 +38898,7 @@
         <v>640</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38886,7 +38906,7 @@
         <v>641</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38894,15 +38914,15 @@
         <v>642</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -38910,7 +38930,7 @@
         <v>683</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38958,7 +38978,7 @@
         <v>689</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38998,7 +39018,7 @@
         <v>694</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -39027,18 +39047,18 @@
     </row>
     <row r="488" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B489" s="1" t="s">
         <v>1065</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39046,7 +39066,7 @@
         <v>713</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39054,7 +39074,7 @@
         <v>749</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>765</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39070,7 +39090,7 @@
         <v>562</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39078,7 +39098,7 @@
         <v>563</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39150,7 +39170,7 @@
         <v>275</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39158,7 +39178,7 @@
         <v>276</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39166,7 +39186,7 @@
         <v>277</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39214,7 +39234,7 @@
         <v>260</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39222,7 +39242,7 @@
         <v>484</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39230,15 +39250,15 @@
         <v>485</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B514" s="3" t="s">
         <v>822</v>
-      </c>
-      <c r="B514" s="3" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39286,7 +39306,7 @@
         <v>285</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39294,7 +39314,7 @@
         <v>286</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39374,7 +39394,7 @@
         <v>296</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39414,7 +39434,7 @@
         <v>298</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39454,7 +39474,7 @@
         <v>300</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39462,7 +39482,7 @@
         <v>301</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39590,7 +39610,7 @@
         <v>307</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="375" x14ac:dyDescent="0.25">
@@ -39622,7 +39642,7 @@
         <v>380</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39638,7 +39658,7 @@
         <v>331</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{ADAEDEAE-A89A-46BB-8962-A201B7B4237D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{39B11948-9E01-4F26-BAEB-2491E5169A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -34408,65 +34408,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e002a Encounter Mercenary Royal Guardsmen&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Mercenary thugs, dressed by the usurpers as their royal guardsmen, are riding toward you! Roll one die for the number of men:
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.gif' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Name='DieRoll'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Each has a combat skill 5, endurance 4, wealth 4. Your options are:
-&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12'  Content='Talk ' Name='e002b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
- &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e002b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Evade' Name='e002c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
- &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e002c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;*&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Fight' Name='e002d'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
- &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e002d'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-*If your entire party has some kind of mount, you can attempt the evade option and add one to the die roll. Additionally, if you want to evade using the plus 1 modifier, you must adbandon unmounted members of the party
- &lt;InlineUIContainer&gt;&lt;Button Content='Abandon' Visibility='Hidden' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e000a Cal Arath - Barbarian Prince&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Each character in the game has a endurance value, combat value, wounds, and starvation days. If endurance reaches zero, the character is dead. If the endurance reaches one, the character is unconscious. Wounds decrease endurance, and starvation days decrease the ability to carry loads. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You are Cal Arath, rightful heir to the throne of the Northlands Kingdom. 
@@ -34673,6 +34614,62 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e002a Encounter Mercenary Royal Guardsmen&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Mercenary thugs, dressed by the usurpers as their royal guardsmen, are riding toward you! Roll one die for the number of men:
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.gif' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name='DieRoll'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Each has a combat skill 5, endurance 4, wealth 4. Your options are:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12'  Content='Talk ' Name='e002b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+ &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e002b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Evade' Name='e002c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+ &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e002c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;*&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Fight' Name='e002d'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+ &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e002d'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
 </sst>
@@ -35139,8 +35136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A489" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B491" sqref="B491"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35154,7 +35151,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35162,7 +35159,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35205,12 +35202,12 @@
         <v>839</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39074,7 +39071,7 @@
         <v>749</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="180" x14ac:dyDescent="0.25">

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{39B11948-9E01-4F26-BAEB-2491E5169A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE9677FC-D09D-490B-92CD-97BF1568CE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -1031,16 +1031,6 @@
 Click anywhere to continue.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;e204u Unmounted Travel&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r204a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Click one of the adjacent hexes highlighted blue to move.  
-&lt;LineBreak/&gt;&lt;LineBreak/&gt; Alternatively, click the red bordered Prince to end movement.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;e204m Mounted Travel&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r204a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Click one of the adjacent hexes highlighted blue to move.  
-&lt;LineBreak/&gt;&lt;LineBreak/&gt; Alternatively, click the red bordered Prince to end movement.</t>
-  </si>
-  <si>
     <t>e135a</t>
   </si>
   <si>
@@ -19457,63 +19447,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e071 Elven Band&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter a band of elves. Roll one die and add one for the number of elves in the band. Die Roll=
-&lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Each elf has combat skill 5, endurance 4, and wealth 7. Your options:
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12'  Content='Talk ' Name='e071a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e071a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Evade' Name='e071b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e071b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Fight' Name='e071c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e071c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;Italic&gt;Note:&lt;/Italic&gt; If your party includes an elf, subtract one from your die roll. If your party includes a dwarf, add one to the die roll.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e140a Magic Box Found&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You find a magic box. You can open it only if you have a magician, wizard, or witch in your party. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Until then, you  carry it with you since it is relatively light.
@@ -21371,66 +21304,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Height='280'  Width='225' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e004 Mercenary Band&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You observe a small band of mercenaries approaching. The leader is mounted on a horse. He has a combat skill 6, endurance 6, and wealth of 50. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;He has some followers. Each has a combat skill 5, endurance 4, and wealth 4. If the number of Troopers is one or two, they are mounted. Otherwise, they are on foot. Roll one die for number of troopers: 
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your options are:
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12'  Content='Talk ' Name='e004a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e004a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Evade' Name='e004b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e004b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;*&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Fight' Name='e004c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e004c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-*If your party has any mounts, add one to your die roll for evading. Results higher than 6 are considered 6. If your party has all have winged mounts or flying abilities, you can use escape flying
- &lt;InlineUIContainer&gt;&lt;Button Content='r313' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- instead of rolling the die for the evade option.</t>
     </r>
   </si>
   <si>
@@ -26413,54 +26286,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">' Height='21' Width='21' &gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e078c Bad Going For Horses&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Terrain is difficult on horses.  If you choose Travel for the daily action tomorrow, you will risk losing horses. Any other activity will nullify this event. Click Image to continue.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                          &lt;InlineUIContainer&gt;&lt;Image Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MountainPath</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MountainPath</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='258' Width='280'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
   <si>
@@ -32056,17 +31881,6 @@
     </r>
   </si>
   <si>
-    <t>&lt;Bold&gt;e204s Short Hop Travel&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r204d' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Hopping in the air using limited travels. Each hex entered is same as mounted travel.  Click one of the adjacent hexes highlighted blue to move.  
-&lt;LineBreak/&gt;&lt;LineBreak/&gt; Alternatively, click the red bordered Prince to end movement.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;e204a Air Travel&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r204d' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since your party has flying mounts or can fly, you can elect to perform short hops moving up to two hexes but entering each hex
- &lt;InlineUIContainer&gt;&lt;Button Content='Short Hop' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Short hops must be started on the first movement of the day.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you do not short hop, click one of the adjacent hexes highlighted blue. Alternatively, click the red bordered Prince to end movement.</t>
-  </si>
-  <si>
     <t>e205c</t>
   </si>
   <si>
@@ -34670,6 +34484,184 @@
  &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e002c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;*&lt;LineBreak/&gt;
  &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Fight' Name='e002d'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
  &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e002d'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e078c Bad Going For Horses&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Terrain is difficult on horses.  If you choose Travel for the daily action tomorrow, you will risk losing horses. Any other activity will nullify this event. Click image to continue.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                          &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MountainPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MountainPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='258' Width='280'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;e204s Short Hop Travel&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r204d' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Hopping in the air using limited travels. Each hex entered is same as mounted travel.  Click one of the adjacent hexes highlighted blue to move.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;e204a Air Travel&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r204d' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since your party has flying mounts or can fly, you can elect to perform short hops moving up to two hexes but entering each hex
+ &lt;InlineUIContainer&gt;&lt;Button Content='Short Hop' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Short hops must be started on the first movement of the day.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you do not short hop, click one of the adjacent hexes highlighted blue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;e204m Mounted Travel&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r204a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Click one of the adjacent hexes highlighted blue to move.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;e204u Unmounted Travel&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r204a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Click one of the adjacent hexes highlighted blue to move.  </t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e004 Mercenary Band&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You observe a small band of mercenaries approaching. The leader is mounted on a horse. He has a combat skill 6, endurance 6, and wealth of 50. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;He has some followers. Each has a combat skill 5, endurance 4, and wealth 4. If the number of Troopers is one or two, they are mounted. Otherwise, they are on foot. Roll one die for number of troopers: 
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your options are:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12'  Content='Talk ' Name='e004a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e004a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Evade' Name='e004b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e004b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;*&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Fight' Name='e004c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e004c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e071 Elven Band&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter a band of elves. Roll one die and add one for the number of elves in the band. Die Roll=
+&lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Each elf has combat skill 5, endurance 4, and wealth 7. Your options:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12'  Content='Talk ' Name='e071a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e071a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Evade' Name='e071b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e071b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Fight' Name='e071c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e071c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
     </r>
   </si>
 </sst>
@@ -35136,8 +35128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35151,7 +35143,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35159,7 +35151,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35167,7 +35159,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35175,15 +35167,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35191,7 +35183,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35199,7 +35191,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35207,7 +35199,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35215,7 +35207,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35223,7 +35215,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35231,7 +35223,7 @@
         <v>258</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35239,7 +35231,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35247,7 +35239,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35255,7 +35247,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35263,15 +35255,15 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>863</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35279,7 +35271,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35287,7 +35279,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35295,7 +35287,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35303,7 +35295,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35311,7 +35303,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35319,7 +35311,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35327,7 +35319,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35335,7 +35327,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35343,7 +35335,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35351,7 +35343,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35359,7 +35351,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35367,31 +35359,31 @@
         <v>261</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35399,7 +35391,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35407,7 +35399,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35415,23 +35407,23 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35439,23 +35431,23 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>940</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35463,7 +35455,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35471,7 +35463,7 @@
         <v>262</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35479,7 +35471,7 @@
         <v>263</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -35487,7 +35479,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35495,7 +35487,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -35503,7 +35495,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35511,23 +35503,23 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35535,7 +35527,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35543,7 +35535,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35551,7 +35543,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35559,47 +35551,47 @@
         <v>34</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35607,7 +35599,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35615,23 +35607,23 @@
         <v>265</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35639,7 +35631,7 @@
         <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -35647,23 +35639,23 @@
         <v>36</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35671,7 +35663,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -35679,7 +35671,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35687,7 +35679,7 @@
         <v>43</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35695,23 +35687,23 @@
         <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35719,7 +35711,7 @@
         <v>39</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35727,7 +35719,7 @@
         <v>40</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35735,7 +35727,7 @@
         <v>41</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35743,7 +35735,7 @@
         <v>45</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35751,7 +35743,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35759,7 +35751,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35767,7 +35759,7 @@
         <v>47</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35775,7 +35767,7 @@
         <v>48</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35783,7 +35775,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35791,7 +35783,7 @@
         <v>50</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35799,7 +35791,7 @@
         <v>51</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35807,7 +35799,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35815,7 +35807,7 @@
         <v>53</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -35823,7 +35815,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35831,7 +35823,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35839,7 +35831,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35847,7 +35839,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -35855,31 +35847,31 @@
         <v>58</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>810</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35887,15 +35879,15 @@
         <v>59</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35903,15 +35895,15 @@
         <v>60</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -35919,7 +35911,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -35927,15 +35919,15 @@
         <v>62</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35943,7 +35935,7 @@
         <v>63</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -35951,7 +35943,7 @@
         <v>64</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35959,7 +35951,7 @@
         <v>65</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35967,15 +35959,15 @@
         <v>66</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35983,15 +35975,15 @@
         <v>67</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35999,23 +35991,23 @@
         <v>68</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36023,23 +36015,23 @@
         <v>69</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36047,15 +36039,15 @@
         <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36063,7 +36055,7 @@
         <v>259</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36071,7 +36063,7 @@
         <v>71</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36079,7 +36071,7 @@
         <v>72</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36087,15 +36079,15 @@
         <v>73</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36103,7 +36095,7 @@
         <v>74</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -36111,15 +36103,15 @@
         <v>75</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -36127,7 +36119,7 @@
         <v>76</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36135,23 +36127,23 @@
         <v>77</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36159,23 +36151,23 @@
         <v>78</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36183,23 +36175,23 @@
         <v>79</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36207,7 +36199,7 @@
         <v>80</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36215,87 +36207,87 @@
         <v>81</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36303,7 +36295,7 @@
         <v>82</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36311,15 +36303,15 @@
         <v>83</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>569</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36327,7 +36319,7 @@
         <v>84</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36335,23 +36327,23 @@
         <v>85</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36359,7 +36351,7 @@
         <v>86</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36367,23 +36359,23 @@
         <v>87</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="345" x14ac:dyDescent="0.25">
@@ -36391,71 +36383,71 @@
         <v>88</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36463,31 +36455,31 @@
         <v>89</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36495,23 +36487,23 @@
         <v>90</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>851</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>852</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36519,15 +36511,15 @@
         <v>91</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36535,7 +36527,7 @@
         <v>92</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36543,7 +36535,7 @@
         <v>93</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -36551,7 +36543,7 @@
         <v>94</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36559,7 +36551,7 @@
         <v>95</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36567,55 +36559,55 @@
         <v>96</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>878</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36623,7 +36615,7 @@
         <v>97</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36631,7 +36623,7 @@
         <v>98</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36639,7 +36631,7 @@
         <v>99</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36647,7 +36639,7 @@
         <v>101</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36655,7 +36647,7 @@
         <v>100</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36663,7 +36655,7 @@
         <v>102</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36671,7 +36663,7 @@
         <v>103</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36679,7 +36671,7 @@
         <v>104</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36687,23 +36679,23 @@
         <v>105</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36711,7 +36703,7 @@
         <v>106</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36719,7 +36711,7 @@
         <v>107</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36727,15 +36719,15 @@
         <v>165</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36743,7 +36735,7 @@
         <v>108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -36751,15 +36743,15 @@
         <v>109</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>827</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36767,7 +36759,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36775,7 +36767,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36783,23 +36775,23 @@
         <v>168</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36807,39 +36799,39 @@
         <v>111</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36847,7 +36839,7 @@
         <v>112</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36855,7 +36847,7 @@
         <v>169</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36863,7 +36855,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36871,7 +36863,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36879,7 +36871,7 @@
         <v>113</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36887,7 +36879,7 @@
         <v>114</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36895,15 +36887,15 @@
         <v>266</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36911,15 +36903,15 @@
         <v>115</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36927,15 +36919,15 @@
         <v>116</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36943,31 +36935,31 @@
         <v>117</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>962</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36975,23 +36967,23 @@
         <v>118</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36999,23 +36991,23 @@
         <v>119</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37023,7 +37015,7 @@
         <v>120</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37031,7 +37023,7 @@
         <v>172</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37039,7 +37031,7 @@
         <v>173</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37047,7 +37039,7 @@
         <v>174</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37055,7 +37047,7 @@
         <v>121</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37063,15 +37055,15 @@
         <v>122</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B241" s="3" t="s">
         <v>769</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37079,23 +37071,23 @@
         <v>123</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37103,7 +37095,7 @@
         <v>124</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37111,15 +37103,15 @@
         <v>125</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37127,7 +37119,7 @@
         <v>126</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37135,7 +37127,7 @@
         <v>127</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37143,7 +37135,7 @@
         <v>128</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37151,7 +37143,7 @@
         <v>129</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37159,7 +37151,7 @@
         <v>130</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37167,23 +37159,23 @@
         <v>131</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37191,7 +37183,7 @@
         <v>132</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37199,15 +37191,15 @@
         <v>133</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37215,23 +37207,23 @@
         <v>134</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37239,15 +37231,15 @@
         <v>135</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37255,7 +37247,7 @@
         <v>136</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37263,7 +37255,7 @@
         <v>137</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37271,7 +37263,7 @@
         <v>232</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37279,7 +37271,7 @@
         <v>233</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37287,7 +37279,7 @@
         <v>138</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37295,7 +37287,7 @@
         <v>234</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37303,7 +37295,7 @@
         <v>235</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37311,7 +37303,7 @@
         <v>139</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37319,7 +37311,7 @@
         <v>239</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37327,7 +37319,7 @@
         <v>240</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37335,7 +37327,7 @@
         <v>241</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37343,7 +37335,7 @@
         <v>140</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37351,7 +37343,7 @@
         <v>236</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37359,7 +37351,7 @@
         <v>237</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37367,7 +37359,7 @@
         <v>238</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37375,7 +37367,7 @@
         <v>141</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37383,7 +37375,7 @@
         <v>142</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37391,7 +37383,7 @@
         <v>143</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37399,7 +37391,7 @@
         <v>144</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37407,7 +37399,7 @@
         <v>242</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37415,7 +37407,7 @@
         <v>145</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37423,7 +37415,7 @@
         <v>146</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37431,7 +37423,7 @@
         <v>147</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37439,7 +37431,7 @@
         <v>148</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37447,31 +37439,31 @@
         <v>149</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37479,15 +37471,15 @@
         <v>150</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -37495,7 +37487,7 @@
         <v>151</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37503,7 +37495,7 @@
         <v>243</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37511,7 +37503,7 @@
         <v>244</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37519,7 +37511,7 @@
         <v>245</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37527,7 +37519,7 @@
         <v>152</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37535,7 +37527,7 @@
         <v>153</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37543,7 +37535,7 @@
         <v>154</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37551,7 +37543,7 @@
         <v>155</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37559,7 +37551,7 @@
         <v>156</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37567,7 +37559,7 @@
         <v>157</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37575,7 +37567,7 @@
         <v>246</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37583,7 +37575,7 @@
         <v>247</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37591,7 +37583,7 @@
         <v>248</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37599,7 +37591,7 @@
         <v>158</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37607,7 +37599,7 @@
         <v>159</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37615,7 +37607,7 @@
         <v>160</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37623,7 +37615,7 @@
         <v>161</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37631,31 +37623,31 @@
         <v>162</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37663,7 +37655,7 @@
         <v>163</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37671,7 +37663,7 @@
         <v>164</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37679,7 +37671,7 @@
         <v>175</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37687,7 +37679,7 @@
         <v>176</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37695,55 +37687,55 @@
         <v>177</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37751,31 +37743,31 @@
         <v>178</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -37783,7 +37775,7 @@
         <v>179</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37791,7 +37783,7 @@
         <v>249</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37799,7 +37791,7 @@
         <v>250</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37807,7 +37799,7 @@
         <v>251</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37815,7 +37807,7 @@
         <v>252</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37823,23 +37815,23 @@
         <v>253</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37847,7 +37839,7 @@
         <v>180</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37855,15 +37847,15 @@
         <v>181</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37879,7 +37871,7 @@
         <v>183</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37887,15 +37879,15 @@
         <v>184</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37903,7 +37895,7 @@
         <v>185</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37911,7 +37903,7 @@
         <v>186</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37919,15 +37911,15 @@
         <v>187</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37935,7 +37927,7 @@
         <v>188</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37943,23 +37935,23 @@
         <v>189</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37967,7 +37959,7 @@
         <v>190</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37975,7 +37967,7 @@
         <v>191</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37983,15 +37975,15 @@
         <v>192</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -37999,23 +37991,23 @@
         <v>193</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B358" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="B358" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38023,7 +38015,7 @@
         <v>194</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38031,7 +38023,7 @@
         <v>195</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38039,15 +38031,15 @@
         <v>196</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38055,15 +38047,15 @@
         <v>197</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38071,7 +38063,7 @@
         <v>198</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38079,7 +38071,7 @@
         <v>199</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38087,7 +38079,7 @@
         <v>200</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38095,7 +38087,7 @@
         <v>201</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38103,7 +38095,7 @@
         <v>202</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38111,47 +38103,47 @@
         <v>203</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38159,55 +38151,55 @@
         <v>204</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38215,55 +38207,55 @@
         <v>205</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38271,7 +38263,7 @@
         <v>206</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38279,7 +38271,7 @@
         <v>207</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38287,7 +38279,7 @@
         <v>208</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38295,55 +38287,55 @@
         <v>209</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38351,63 +38343,63 @@
         <v>210</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38415,7 +38407,7 @@
         <v>211</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38423,39 +38415,39 @@
         <v>212</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38463,7 +38455,7 @@
         <v>213</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38471,7 +38463,7 @@
         <v>214</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -38479,7 +38471,7 @@
         <v>215</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38487,7 +38479,7 @@
         <v>216</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38495,7 +38487,7 @@
         <v>217</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38503,7 +38495,7 @@
         <v>218</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38511,7 +38503,7 @@
         <v>219</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38519,7 +38511,7 @@
         <v>220</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38527,7 +38519,7 @@
         <v>221</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38535,7 +38527,7 @@
         <v>222</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38543,7 +38535,7 @@
         <v>223</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38551,23 +38543,23 @@
         <v>224</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B428" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="B428" s="3" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38575,7 +38567,7 @@
         <v>225</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38583,7 +38575,7 @@
         <v>226</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38591,7 +38583,7 @@
         <v>227</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38599,7 +38591,7 @@
         <v>228</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38607,7 +38599,7 @@
         <v>229</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38615,7 +38607,7 @@
         <v>230</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38623,7 +38615,7 @@
         <v>231</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38631,71 +38623,71 @@
         <v>257</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B439" s="3" t="s">
         <v>601</v>
-      </c>
-      <c r="B439" s="3" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>319</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1084</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38703,15 +38695,15 @@
         <v>318</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1085</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38719,383 +38711,383 @@
         <v>322</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39103,7 +39095,7 @@
         <v>267</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39111,7 +39103,7 @@
         <v>268</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39119,7 +39111,7 @@
         <v>269</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39127,7 +39119,7 @@
         <v>270</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39135,7 +39127,7 @@
         <v>271</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39143,7 +39135,7 @@
         <v>272</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39151,7 +39143,7 @@
         <v>273</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39159,7 +39151,7 @@
         <v>274</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39167,7 +39159,7 @@
         <v>275</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39175,7 +39167,7 @@
         <v>276</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39183,7 +39175,7 @@
         <v>277</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39199,7 +39191,7 @@
         <v>279</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39220,10 +39212,10 @@
     </row>
     <row r="510" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -39231,31 +39223,31 @@
         <v>260</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39263,7 +39255,7 @@
         <v>280</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39271,7 +39263,7 @@
         <v>281</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39287,7 +39279,7 @@
         <v>283</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39295,7 +39287,7 @@
         <v>284</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39303,7 +39295,7 @@
         <v>285</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39311,7 +39303,7 @@
         <v>286</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39319,7 +39311,7 @@
         <v>287</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39327,7 +39319,7 @@
         <v>288</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39335,7 +39327,7 @@
         <v>289</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39343,7 +39335,7 @@
         <v>290</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -39359,7 +39351,7 @@
         <v>292</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39367,7 +39359,7 @@
         <v>293</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39375,7 +39367,7 @@
         <v>294</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39383,7 +39375,7 @@
         <v>295</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -39391,7 +39383,7 @@
         <v>296</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39399,31 +39391,31 @@
         <v>297</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39431,15 +39423,15 @@
         <v>298</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39447,23 +39439,23 @@
         <v>299</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39471,7 +39463,7 @@
         <v>300</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39479,7 +39471,7 @@
         <v>301</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39487,7 +39479,7 @@
         <v>302</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39495,15 +39487,15 @@
         <v>303</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39511,31 +39503,31 @@
         <v>304</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39543,39 +39535,39 @@
         <v>305</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39583,23 +39575,23 @@
         <v>306</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="405" x14ac:dyDescent="0.25">
@@ -39607,7 +39599,7 @@
         <v>307</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="375" x14ac:dyDescent="0.25">
@@ -39615,15 +39607,15 @@
         <v>311</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39636,26 +39628,26 @@
     </row>
     <row r="562" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\bin\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE9677FC-D09D-490B-92CD-97BF1568CE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E2CD5E-709F-4A11-8D1B-4230E94179E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="1130">
   <si>
     <t>e001</t>
   </si>
@@ -1097,56 +1097,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e134 Unstable Ruins&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;In the ruins are many unstable walls and rocks making your search very dangerous. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Campfire2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='75'  Width='75'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;Click the campfire to abandon search.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Image Name='ShakyWalls' Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ShakyWalls</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.gif' Height='75'  Width='75'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; Click the shaking walls to continue. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e001 The Adventure Begins&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Evil events have overtaken your Northlands Kingdom. Your father, the old king, is dead - assassinated by rivals to the throne.  These usurpers now hold the place with their mercenary royal guard. 
@@ -1825,65 +1775,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Name='Combat' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e208 Searching a Ruin&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r208' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Spend the day searching a ruins with your party. To see what happens during the search, roll two dice:
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DiceRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21' Width='21'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e133' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 &lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e135' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 &lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e136' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 &lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e137' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 &lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e139' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 &lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e131' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 7 &lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e132' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 8 &lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e134' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 9 &lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e138' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 10 &lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e135' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 11 &lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e035' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 12</t>
     </r>
   </si>
   <si>
@@ -8417,53 +8308,6 @@
   </si>
   <si>
     <t>e128d</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e128d Merchant OutWits You in Game of Chance&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If the roll exceeds wit and wiles, you spend 10gp needlessly. "Have you ever heard of Plato, Aristotle, Socrates? Morons!"
-&lt;LineBreak/&gt;&lt;LineBreak/&gt; Roll one die:  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
   </si>
   <si>
     <t>e128e</t>
@@ -18360,81 +18204,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e073c Friendly Witch&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die to determine your actions: &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21' Width='21' &gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- 1,2 - She joins your party as an ally
- &lt;InlineUIContainer&gt;&lt;Button Content='e218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
- 3,4 - She can be hired to join your party
- &lt;InlineUIContainer&gt;&lt;Button Content='e334' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
- 5,6 - She gives you a gift
- &lt;InlineUIContainer&gt;&lt;Button Content='e195' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt; &lt;LineBreak/&gt;
-                           &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Witch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='300' Width='240'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e073a Hostile Witch&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Your party must escape
  &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
@@ -19447,6 +19216,63 @@
   </si>
   <si>
     <r>
+      <t>&lt;Bold&gt;e071 Elven Band&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter a band of elves. Roll one die and add one for the number of elves in the band. Die Roll=
+&lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Each elf has combat skill 5, endurance 4, and wealth 7. Your options:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12'  Content='Talk ' Name='e071a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e071a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Evade' Name='e071b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e071b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Fight' Name='e071c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e071c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;Italic&gt;Note:&lt;/Italic&gt; If your party includes an elf, subtract one from your die roll. If your party includes a dwarf, add one to the die roll.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>&lt;Bold&gt;e140a Magic Box Found&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You find a magic box. You can open it only if you have a magician, wizard, or witch in your party. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Until then, you  carry it with you since it is relatively light.
@@ -19610,59 +19436,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>' Height='250' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e203a Prison Escape Attempt&lt;/Bold&gt;
- &lt;InlineUIContainer&gt; &lt;Button Content='e061' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;Italic&gt;Escape:&lt;/Italic&gt; Attempt to escape. If you do escape from prison, roll one die for each character in your party who was imprisoned with you. They are part of the escape on 3 plus. Otherwise, they are unable to join the escape or have already been executed.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If an escape occurs, use the escape rules
- &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- to determine where you end up. The escape takes the entire day and after you must prepare for the evening meals
- &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die to determine your fate:
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
   <si>
@@ -21304,6 +21077,66 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Height='280'  Width='225' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e004 Mercenary Band&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You observe a small band of mercenaries approaching. The leader is mounted on a horse. He has a combat skill 6, endurance 6, and wealth of 50. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;He has some followers. Each has a combat skill 5, endurance 4, and wealth 4. If the number of Troopers is one or two, they are mounted. Otherwise, they are on foot. Roll one die for number of troopers: 
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your options are:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12'  Content='Talk ' Name='e004a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e004a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Evade' Name='e004b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e004b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;*&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Fight' Name='e004c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e004c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+*If your party has any mounts, add one to your die roll for evading. Results higher than 6 are considered 6. If your party has all have winged mounts or flying abilities, you can use escape flying
+ &lt;InlineUIContainer&gt;&lt;Button Content='r313' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ instead of rolling the die for the evade option.</t>
     </r>
   </si>
   <si>
@@ -26290,6 +26123,54 @@
   </si>
   <si>
     <r>
+      <t>&lt;Bold&gt;e078c Bad Going For Horses&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Terrain is difficult on horses.  If you choose Travel for the daily action tomorrow, you will risk losing horses. Any other activity will nullify this event. Click Image to continue.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                          &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MountainPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MountainPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='258' Width='280'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>&lt;Bold&gt;e079 Heavy Rains&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Cold, driving rains hinder man and beast. You must stop moving today. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die for each character in your party. If the result is a 5 plus, the character catches a cold and suffers one wound.
@@ -27996,47 +27877,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Height='300'  Width='200' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e166 Elven Fortress&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You discover a hidden castle inhabited by elves. Roll one die subtacting one if you party includes an elf, magician, wizard, or witch. Add one if your party includes a dwarf.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If the roll equals or exceeds your wit and wiles, the elves decide you are unworthy, and your entire party including yourself are arrested
- &lt;InlineUIContainer&gt;&lt;Button Content='e060' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-. Otherwise, you may visit the castle.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you can visit, treat the castle like a normal castle marked on the map for all purposes includng daily actions
- &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-, food
- &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-, and lodging
- &lt;InlineUIContainer&gt;&lt;Button Content='r217' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Any followers hired in the castle
- &lt;InlineUIContainer&gt;&lt;Button Content='r210' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- will be elves.
-If you return to the hex later in the game, you must roll again to see if the elves will give you permission to visit or arrest you.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Die Roll = &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='DieRoll' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
   <si>
@@ -34487,76 +34327,73 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>&lt;Bold&gt;e078c Bad Going For Horses&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Terrain is difficult on horses.  If you choose Travel for the daily action tomorrow, you will risk losing horses. Any other activity will nullify this event. Click image to continue.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                          &lt;InlineUIContainer&gt;&lt;Image Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MountainPath</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MountainPath</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='258' Width='280'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
+    <t xml:space="preserve">&lt;Bold&gt;e204u Unmounted Travel&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r204a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Click one of the adjacent hexes highlighted blue to move.  </t>
   </si>
   <si>
     <t xml:space="preserve">&lt;Bold&gt;e204s Short Hop Travel&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r204d' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Hopping in the air using limited travels. Each hex entered is same as mounted travel.  Click one of the adjacent hexes highlighted blue to move.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Bold&gt;e204a Air Travel&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r204d' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Hopping in the air using limited travels. Each hex entered is same as mounted travel.  Click one of the adjacent hexes highlighted blue to move. </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;e204a Air Travel&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r204d' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Since your party has flying mounts or can fly, you can elect to perform short hops moving up to two hexes but entering each hex
  &lt;InlineUIContainer&gt;&lt;Button Content='Short Hop' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Short hops must be started on the first movement of the day.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you do not short hop, click one of the adjacent hexes highlighted blue. </t>
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you do not short hop, click one of the adjacent hexes highlighted blue.</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;Bold&gt;e204m Mounted Travel&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r204a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Click one of the adjacent hexes highlighted blue to move.  </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Bold&gt;e204u Unmounted Travel&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r204a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Click one of the adjacent hexes highlighted blue to move.  </t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e004 Mercenary Band&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You observe a small band of mercenaries approaching. The leader is mounted on a horse. He has a combat skill 6, endurance 6, and wealth of 50. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;He has some followers. Each has a combat skill 5, endurance 4, and wealth 4. If the number of Troopers is one or two, they are mounted. Otherwise, they are on foot. Roll one die for number of troopers: 
+    <r>
+      <t>&lt;Bold&gt;e166 Elven Fortress&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You discover a hidden castle inhabited by elves. Roll one die subtacting one if you party includes an elf, magician, wizard, or witch. Add one if your party includes a dwarf.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If the roll equals or exceeds your wit and wiles, the elves decide you are unworthy, and your entire party including yourself are arrested
+ &lt;InlineUIContainer&gt;&lt;Button Content='e060' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+. Otherwise, you may visit the castle.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you can visit, treat the castle like a normal castle marked on the map for all purposes includng daily actions
+ &lt;InlineUIContainer&gt;&lt;Button Content='r203' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+, food
+ &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+, and lodging
+ &lt;InlineUIContainer&gt;&lt;Button Content='r217' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Any followers hired in the castle
+ &lt;InlineUIContainer&gt;&lt;Button Content='r210' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ will be elves. If you return to the hex later in the game, you must roll again to see if the elves will give you permission to visit or arrest you.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Die Roll = &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='DieRoll' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e203a Prison Escape Attempt&lt;/Bold&gt;
+ &lt;InlineUIContainer&gt; &lt;Button Content='e061' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;Italic&gt;Escape:&lt;/Italic&gt; Attempt to escape by rolling one. If you do escape from prison, roll one die for each character in your party who was imprisoned with you. They are part of the escape on 3 plus. Otherwise, they are unable to join the escape or have already been executed.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If an escape occurs, use the escape rules
+ &lt;InlineUIContainer&gt;&lt;Button Content='r218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ to determine where you end up. The escape takes the entire day and after you must prepare for the evening meals
+ &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die to determine your fate:
  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
     </r>
     <r>
@@ -34597,22 +34434,65 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your options are:
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12'  Content='Talk ' Name='e004a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e004a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Evade' Name='e004b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e004b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;*&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Fight' Name='e004c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e004c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e071 Elven Band&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter a band of elves. Roll one die and add one for the number of elves in the band. Die Roll=
-&lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>e128g</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e128d Merchant Ignores you&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you have no gold, the merchant ignores you. Click image to continue.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+               &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MerchantOutwit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EncounterEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='200'  Width='400'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e128d Merchant OutWits You in Game of Chance&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If the roll exceeds wit and wiles, you spend up to 10gp needlessly. "Have you ever heard of Plato, Aristotle, Socrates? Morons!"
+&lt;LineBreak/&gt;&lt;LineBreak/&gt; Roll one die:  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
     </r>
     <r>
       <rPr>
@@ -34652,16 +34532,233 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Each elf has combat skill 5, endurance 4, and wealth 7. Your options:
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12'  Content='Talk ' Name='e071a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e071a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Evade' Name='e071b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e071b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Fight' Name='e071c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e071c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e134 Unstable Ruins&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;In the ruins are many unstable walls and rocks making your search very dangerous. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Image Name='ShakeyWallsEnd' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Campfire2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='75'  Width='75'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;Click the campfire to abandon search.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Image Name='ShakeyWalls' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ShakyWalls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.gif' Height='75'  Width='75'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; Click the shaking walls to continue. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e208 Searching a Ruin&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r208' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Spend the day searching a ruins with your party. To see what happens during the search, roll two dice:
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DiceRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21' Width='21'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e133' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 &lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e135' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 &lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e136' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 &lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e137' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 &lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e139' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 &lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e131' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 7 &lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e132' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 8 &lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e134' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 9 &lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e138' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 10 &lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e135' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 11 &lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e035' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 12
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                                &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RuinsSearch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ruins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif'  Height='100' Width='100'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e073c Friendly Witch&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die to determine her actions: &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21' Width='21' &gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ 1,2 - She joins your party as an ally
+ &lt;InlineUIContainer&gt;&lt;Button Content='e218' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
+ 3,4 - She can be hired to join your party
+ &lt;InlineUIContainer&gt;&lt;Button Content='e334' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
+ 5,6 - She gives you a gift
+ &lt;InlineUIContainer&gt;&lt;Button Content='e195' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt; &lt;LineBreak/&gt;
+                           &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Witch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='300' Width='240'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
 </sst>
@@ -35126,10 +35223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B564"/>
+  <dimension ref="A1:B565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35143,7 +35240,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35151,7 +35248,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35159,7 +35256,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35167,15 +35264,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35183,7 +35280,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35191,7 +35288,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35199,7 +35296,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35207,7 +35304,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35215,7 +35312,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35223,7 +35320,7 @@
         <v>258</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35231,7 +35328,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35239,7 +35336,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35247,7 +35344,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35255,15 +35352,15 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1126</v>
+        <v>856</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35271,7 +35368,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35279,7 +35376,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35287,7 +35384,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35295,7 +35392,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35303,7 +35400,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35311,7 +35408,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35319,7 +35416,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35327,7 +35424,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35335,7 +35432,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35343,7 +35440,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35351,7 +35448,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35359,31 +35456,31 @@
         <v>261</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35391,7 +35488,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35399,7 +35496,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35407,23 +35504,23 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35431,23 +35528,23 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35455,7 +35552,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35463,7 +35560,7 @@
         <v>262</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35471,7 +35568,7 @@
         <v>263</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -35479,7 +35576,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35487,7 +35584,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -35495,7 +35592,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35503,23 +35600,23 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35527,7 +35624,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35535,7 +35632,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35543,7 +35640,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35551,47 +35648,47 @@
         <v>34</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35599,7 +35696,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35607,23 +35704,23 @@
         <v>265</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35631,7 +35728,7 @@
         <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -35639,23 +35736,23 @@
         <v>36</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35663,7 +35760,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -35671,7 +35768,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35679,7 +35776,7 @@
         <v>43</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35687,23 +35784,23 @@
         <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35711,7 +35808,7 @@
         <v>39</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35719,7 +35816,7 @@
         <v>40</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35727,7 +35824,7 @@
         <v>41</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35735,7 +35832,7 @@
         <v>45</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35743,7 +35840,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35751,7 +35848,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35759,7 +35856,7 @@
         <v>47</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35767,7 +35864,7 @@
         <v>48</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35775,7 +35872,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35783,7 +35880,7 @@
         <v>50</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35791,7 +35888,7 @@
         <v>51</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35799,7 +35896,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35807,7 +35904,7 @@
         <v>53</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -35815,7 +35912,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35823,7 +35920,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35831,7 +35928,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35839,7 +35936,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -35847,31 +35944,31 @@
         <v>58</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35879,15 +35976,15 @@
         <v>59</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35895,15 +35992,15 @@
         <v>60</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -35911,7 +36008,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -35919,15 +36016,15 @@
         <v>62</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35935,7 +36032,7 @@
         <v>63</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -35943,7 +36040,7 @@
         <v>64</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35951,7 +36048,7 @@
         <v>65</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35959,15 +36056,15 @@
         <v>66</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35975,15 +36072,15 @@
         <v>67</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35991,23 +36088,23 @@
         <v>68</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36015,23 +36112,23 @@
         <v>69</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36039,15 +36136,15 @@
         <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36055,7 +36152,7 @@
         <v>259</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36063,7 +36160,7 @@
         <v>71</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36071,7 +36168,7 @@
         <v>72</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36079,15 +36176,15 @@
         <v>73</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36095,7 +36192,7 @@
         <v>74</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -36119,7 +36216,7 @@
         <v>76</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36127,7 +36224,7 @@
         <v>77</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36135,15 +36232,15 @@
         <v>330</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36151,23 +36248,23 @@
         <v>78</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36175,23 +36272,23 @@
         <v>79</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36199,7 +36296,7 @@
         <v>80</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36207,87 +36304,87 @@
         <v>81</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>1000</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36295,7 +36392,7 @@
         <v>82</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36303,15 +36400,15 @@
         <v>83</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36319,7 +36416,7 @@
         <v>84</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36327,23 +36424,23 @@
         <v>85</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36351,7 +36448,7 @@
         <v>86</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36359,23 +36456,23 @@
         <v>87</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="345" x14ac:dyDescent="0.25">
@@ -36383,71 +36480,71 @@
         <v>88</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36455,31 +36552,31 @@
         <v>89</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36487,23 +36584,23 @@
         <v>90</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36511,15 +36608,15 @@
         <v>91</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36527,7 +36624,7 @@
         <v>92</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36535,7 +36632,7 @@
         <v>93</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -36543,7 +36640,7 @@
         <v>94</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36551,7 +36648,7 @@
         <v>95</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36559,55 +36656,55 @@
         <v>96</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36615,7 +36712,7 @@
         <v>97</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36623,7 +36720,7 @@
         <v>98</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36631,7 +36728,7 @@
         <v>99</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36639,7 +36736,7 @@
         <v>101</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36647,7 +36744,7 @@
         <v>100</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36655,7 +36752,7 @@
         <v>102</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36663,7 +36760,7 @@
         <v>103</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36671,7 +36768,7 @@
         <v>104</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36679,23 +36776,23 @@
         <v>105</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>713</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36703,7 +36800,7 @@
         <v>106</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36711,7 +36808,7 @@
         <v>107</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36719,15 +36816,15 @@
         <v>165</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>853</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36735,7 +36832,7 @@
         <v>108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -36743,15 +36840,15 @@
         <v>109</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>1127</v>
+        <v>821</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36759,7 +36856,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36767,7 +36864,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36775,23 +36872,23 @@
         <v>168</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B206" s="3" t="s">
         <v>915</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36799,39 +36896,39 @@
         <v>111</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36839,7 +36936,7 @@
         <v>112</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36847,7 +36944,7 @@
         <v>169</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36855,7 +36952,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36863,7 +36960,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>800</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36871,7 +36968,7 @@
         <v>113</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36879,7 +36976,7 @@
         <v>114</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36887,15 +36984,15 @@
         <v>266</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B220" s="3" t="s">
         <v>945</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36903,15 +37000,15 @@
         <v>115</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36919,15 +37016,15 @@
         <v>116</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36935,31 +37032,31 @@
         <v>117</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B226" s="4" t="s">
         <v>772</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>1121</v>
+        <v>955</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36967,23 +37064,23 @@
         <v>118</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36991,23 +37088,23 @@
         <v>119</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37015,7 +37112,7 @@
         <v>120</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37023,7 +37120,7 @@
         <v>172</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37031,7 +37128,7 @@
         <v>173</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37039,7 +37136,7 @@
         <v>174</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37047,7 +37144,7 @@
         <v>121</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37055,15 +37152,15 @@
         <v>122</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37071,23 +37168,23 @@
         <v>123</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B244" s="3" t="s">
         <v>950</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37095,7 +37192,7 @@
         <v>124</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37103,15 +37200,15 @@
         <v>125</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37119,7 +37216,7 @@
         <v>126</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37127,7 +37224,7 @@
         <v>127</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37135,7 +37232,7 @@
         <v>128</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37143,7 +37240,7 @@
         <v>129</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37151,7 +37248,7 @@
         <v>130</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37159,23 +37256,23 @@
         <v>131</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B255" s="3" t="s">
         <v>974</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37183,7 +37280,7 @@
         <v>132</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37191,15 +37288,15 @@
         <v>133</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37207,23 +37304,23 @@
         <v>134</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37231,15 +37328,15 @@
         <v>135</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37247,7 +37344,7 @@
         <v>136</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37255,7 +37352,7 @@
         <v>137</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37263,7 +37360,7 @@
         <v>232</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37271,7 +37368,7 @@
         <v>233</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37279,7 +37376,7 @@
         <v>138</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37287,7 +37384,7 @@
         <v>234</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37295,7 +37392,7 @@
         <v>235</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37303,7 +37400,7 @@
         <v>139</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37311,7 +37408,7 @@
         <v>239</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37319,7 +37416,7 @@
         <v>240</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37327,7 +37424,7 @@
         <v>241</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37335,7 +37432,7 @@
         <v>140</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37343,7 +37440,7 @@
         <v>236</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37351,7 +37448,7 @@
         <v>237</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37359,7 +37456,7 @@
         <v>238</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37367,7 +37464,7 @@
         <v>141</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37375,7 +37472,7 @@
         <v>142</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37383,7 +37480,7 @@
         <v>143</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37391,7 +37488,7 @@
         <v>144</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37399,7 +37496,7 @@
         <v>242</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37407,7 +37504,7 @@
         <v>145</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37415,7 +37512,7 @@
         <v>146</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37423,7 +37520,7 @@
         <v>147</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37431,7 +37528,7 @@
         <v>148</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37439,31 +37536,31 @@
         <v>149</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37471,15 +37568,15 @@
         <v>150</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -37487,7 +37584,7 @@
         <v>151</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37495,7 +37592,7 @@
         <v>243</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37503,7 +37600,7 @@
         <v>244</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37511,7 +37608,7 @@
         <v>245</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37519,7 +37616,7 @@
         <v>152</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37527,7 +37624,7 @@
         <v>153</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37535,7 +37632,7 @@
         <v>154</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37543,7 +37640,7 @@
         <v>155</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37551,7 +37648,7 @@
         <v>156</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37559,7 +37656,7 @@
         <v>157</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37567,7 +37664,7 @@
         <v>246</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37575,7 +37672,7 @@
         <v>247</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37583,7 +37680,7 @@
         <v>248</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37591,7 +37688,7 @@
         <v>158</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37599,7 +37696,7 @@
         <v>159</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37607,7 +37704,7 @@
         <v>160</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37615,7 +37712,7 @@
         <v>161</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37623,31 +37720,31 @@
         <v>162</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B312" s="3" t="s">
         <v>1070</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37655,7 +37752,7 @@
         <v>163</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37663,7 +37760,7 @@
         <v>164</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37671,7 +37768,7 @@
         <v>175</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37679,7 +37776,7 @@
         <v>176</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37687,1972 +37784,1980 @@
         <v>177</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>533</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B326" s="3" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A327" s="2" t="s">
-        <v>502</v>
-      </c>
       <c r="B327" s="3" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>564</v>
+        <v>500</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B331" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B332" s="3" t="s">
         <v>863</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A331" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B331" s="3" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A332" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B332" s="3" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B333" s="3" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A334" s="2" t="s">
+      <c r="B334" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B334" s="3" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A335" s="2" t="s">
+      <c r="B335" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B335" s="3" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
-        <v>864</v>
-      </c>
       <c r="B336" s="3" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B338" s="3" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A339" s="2" t="s">
+      <c r="B339" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B339" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A340" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="B340" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>182</v>
+        <v>469</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>323</v>
+        <v>533</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B342" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A343" s="2" t="s">
+      <c r="B343" s="3" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B343" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A344" s="2" t="s">
+      <c r="B344" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="B345" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A345" s="2" t="s">
+    <row r="346" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B345" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
+      <c r="B346" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B346" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A347" s="2" t="s">
+      <c r="B347" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B347" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A348" s="2" t="s">
+      <c r="B348" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B348" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="B350" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
+      <c r="B353" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B351" s="3" t="s">
+    </row>
+    <row r="354" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B360" s="3" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A352" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A353" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B354" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A355" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B355" s="3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="B356" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" ht="270" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A358" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B358" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B359" s="3" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
+    <row r="361" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B360" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
+      <c r="B361" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B361" s="3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A362" s="2" t="s">
+      <c r="B362" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B362" s="3" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
+      <c r="B363" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B363" s="3" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A364" s="2" t="s">
+      <c r="B364" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B364" s="3" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A365" s="2" t="s">
-        <v>679</v>
-      </c>
       <c r="B365" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>198</v>
+        <v>676</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>641</v>
+        <v>677</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B367" s="3" t="s">
+      <c r="B368" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B372" s="3" t="s">
         <v>642</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A368" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B368" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A369" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B369" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A370" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B370" s="3" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A371" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B371" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A372" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B374" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B377" s="3" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A375" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="B375" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A376" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A377" s="2" t="s">
+    <row r="378" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B377" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
-        <v>623</v>
-      </c>
       <c r="B378" s="3" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B379" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A380" s="2" t="s">
+      <c r="B382" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B380" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="B381" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="B382" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A383" s="2" t="s">
+      <c r="B383" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B384" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B383" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A384" s="2" t="s">
+    </row>
+    <row r="385" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B384" s="3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A385" s="2" t="s">
-        <v>606</v>
-      </c>
       <c r="B385" s="3" t="s">
-        <v>910</v>
+        <v>609</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B388" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B391" s="3" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A389" s="2" t="s">
+    <row r="392" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B392" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="B389" s="3" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A390" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B390" s="3" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A391" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B391" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A392" s="2" t="s">
+    </row>
+    <row r="393" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B392" s="3" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A393" s="2" t="s">
+      <c r="B393" s="3" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B393" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A394" s="2" t="s">
+      <c r="B394" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B394" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A395" s="2" t="s">
-        <v>661</v>
-      </c>
       <c r="B395" s="3" t="s">
-        <v>870</v>
+        <v>664</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>669</v>
+        <v>867</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="B399" s="4" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="B400" s="3" t="s">
-        <v>672</v>
+        <v>662</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B401" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A402" s="2" t="s">
-        <v>646</v>
-      </c>
       <c r="B402" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B408" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="B408" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B409" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A410" s="2" t="s">
+      <c r="B410" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B410" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A411" s="2" t="s">
+      <c r="B411" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B411" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A412" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="B412" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A413" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B413" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A414" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="B414" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A415" s="2" t="s">
+      <c r="B415" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B415" s="3" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A416" s="2" t="s">
+      <c r="B416" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B416" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A417" s="2" t="s">
+      <c r="B417" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B417" s="3" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A418" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="B418" s="3" t="s">
-        <v>540</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B421" s="3" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A422" s="5" t="s">
+      <c r="B422" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A423" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B422" s="3" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A423" s="2" t="s">
+      <c r="B423" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B423" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A424" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="B424" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A426" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B425" s="3" t="s">
+      <c r="B426" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B432" s="3" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A426" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B426" s="3" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A427" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B427" s="3" t="s">
+    <row r="433" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B433" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A428" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B428" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A429" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B429" s="3" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A430" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B430" s="3" t="s">
+    <row r="434" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B434" s="3" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A431" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B431" s="3" t="s">
+    <row r="435" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B435" s="3" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A432" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B432" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A433" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B433" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A434" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B434" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A435" s="2" t="s">
+    <row r="436" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B435" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A436" s="2" t="s">
+      <c r="B436" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B436" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A437" s="2" t="s">
+      <c r="B437" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B437" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A438" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B438" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A439" s="2" t="s">
-        <v>599</v>
-      </c>
       <c r="B439" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>811</v>
+        <v>597</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>319</v>
+        <v>807</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1125</v>
+        <v>808</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B444" s="3" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A445" s="2" t="s">
+      <c r="B445" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B445" s="3" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A446" s="2" t="s">
-        <v>1079</v>
-      </c>
       <c r="B446" s="3" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B447" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A448" s="2" t="s">
+      <c r="B448" s="3" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B451" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B448" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A449" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B449" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A450" s="2" t="s">
+    </row>
+    <row r="452" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B450" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A451" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B451" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A452" s="2" t="s">
-        <v>498</v>
-      </c>
       <c r="B452" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B454" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A455" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B455" s="3" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A456" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B456" s="3" t="s">
+      <c r="B457" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A457" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="B457" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A458" s="2" t="s">
-        <v>583</v>
-      </c>
       <c r="B458" s="3" t="s">
-        <v>1020</v>
+        <v>751</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A460" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A461" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B459" s="3" t="s">
+      <c r="B463" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B466" s="3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A460" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="B460" s="3" t="s">
+    <row r="467" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A467" s="2" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A461" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B461" s="3" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A462" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="B462" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A463" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B463" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A464" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B464" s="3" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A465" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B465" s="3" t="s">
+      <c r="B467" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="466" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A466" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B466" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A467" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B467" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A468" s="2" t="s">
-        <v>620</v>
-      </c>
       <c r="B468" s="3" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>883</v>
+        <v>637</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="B473" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>880</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>964</v>
+        <v>692</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A481" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="B480" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A481" s="2" t="s">
+      <c r="B484" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B481" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A482" s="2" t="s">
+      <c r="B485" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="B482" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A483" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B483" s="1" t="s">
+      <c r="B486" s="1" t="s">
         <v>701</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A484" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="B484" s="1" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A485" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A486" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="B486" s="1" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A488" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
+      <c r="A490" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A491" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="B487" s="1" t="s">
+      <c r="B491" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A492" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A493" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B493" s="3" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A488" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A489" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A490" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A491" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="B491" s="3" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A492" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B492" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A493" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="B493" s="3" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>353</v>
+        <v>558</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1096</v>
+        <v>359</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A506" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B505" s="1" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A506" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="B506" s="1" t="s">
-        <v>312</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A508" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B507" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A508" s="2" t="s">
+      <c r="B508" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A509" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B508" s="1" t="s">
+      <c r="B509" s="1" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A509" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B509" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
-        <v>434</v>
+        <v>315</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A512" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B511" s="3" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A512" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="B512" s="3" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B513" s="1" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="B514" s="3" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B515" s="1" t="s">
-        <v>439</v>
+        <v>815</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A517" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B516" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A517" s="2" t="s">
+      <c r="B517" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A518" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B517" s="1" t="s">
+      <c r="B518" s="1" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A518" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A520" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B519" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A520" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="B520" s="1" t="s">
-        <v>887</v>
+        <v>438</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A522" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B521" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A522" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="B522" s="1" t="s">
-        <v>413</v>
+        <v>885</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A526" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B525" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A526" s="2" t="s">
+      <c r="B526" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A527" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B526" s="1" t="s">
+      <c r="B527" s="1" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A527" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B527" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A529" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A529" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A531" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B530" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A531" s="2" t="s">
+      <c r="B531" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A532" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B531" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A532" s="2" t="s">
+      <c r="B532" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A533" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B532" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A533" s="2" t="s">
+      <c r="B533" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A534" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A535" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A536" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A537" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A538" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A539" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A540" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B533" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A534" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B534" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A535" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B535" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A536" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A537" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A538" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B538" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A539" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A540" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="B540" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
-        <v>300</v>
+        <v>392</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>905</v>
+        <v>430</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A543" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B542" s="1" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A543" s="2" t="s">
+      <c r="B543" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A544" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B543" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A544" s="2" t="s">
+      <c r="B544" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A545" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B544" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A545" s="2" t="s">
-        <v>403</v>
-      </c>
       <c r="B545" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A547" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B546" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A547" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="B547" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>756</v>
+        <v>397</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A551" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B550" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A551" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="B551" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>757</v>
+        <v>395</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
-        <v>306</v>
+        <v>754</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>724</v>
+        <v>755</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>386</v>
+        <v>306</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>390</v>
+        <v>721</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B557" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+      <c r="A559" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B558" s="1" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" ht="375" x14ac:dyDescent="0.25">
-      <c r="A559" s="2" t="s">
+      <c r="B559" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A560" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B559" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A560" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="B560" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
-        <v>308</v>
+        <v>390</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>309</v>
+        <v>508</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B562" s="3" t="s">
-        <v>1039</v>
+        <v>308</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
-        <v>761</v>
+        <v>376</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A565" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B564" s="3" t="s">
-        <v>992</v>
+      <c r="B565" s="3" t="s">
+        <v>990</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B561">
-    <sortCondition ref="A1:A561"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B562">
+    <sortCondition ref="A1:A562"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\bin\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E2CD5E-709F-4A11-8D1B-4230E94179E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37DA222E-B23B-43D7-A099-5ABA6067CB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -33600,98 +33600,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>&lt;Bold&gt;e110a Air Spirit Recognized&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you have a magician, wizard, witch, or monk in your party, you recognize it. You can attempt to if you wish.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;To talk to the air spirit, roll one die: &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll &gt;= wit and wiles, communication fails. See &lt;InlineUIContainer&gt;&lt;Button Content='e110b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;Roll &lt; wit and wiles, communication succeeds. See &lt;InlineUIContainer&gt;&lt;Button Content='e110c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;To continue without communicating with air sprint, click image.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                              &lt;InlineUIContainer&gt;&lt;Image Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EncounterEnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AirSpirit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>e111a</t>
   </si>
   <si>
@@ -34759,6 +34667,98 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Height='300' Width='240'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e110a Air Spirit Recognized&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you have a magician, wizard, witch, or monk in your party, you recognize it. You can attempt to if you wish.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;To talk to the air spirit, roll one die: &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll is greater or equal to your wit and wiles, communication fails. See &lt;InlineUIContainer&gt;&lt;Button Content='e110b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;Roll is less than wit and wiles, communication succeeds. See &lt;InlineUIContainer&gt;&lt;Button Content='e110c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;To continue without communicating with air sprint, click image.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                              &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EncounterEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AirSpirit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
 </sst>
@@ -35225,8 +35225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
+    <sheetView tabSelected="1" topLeftCell="A286" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B289" sqref="B289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35240,7 +35240,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35248,7 +35248,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35256,7 +35256,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35264,15 +35264,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35296,7 +35296,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36864,7 +36864,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36960,7 +36960,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37544,7 +37544,7 @@
         <v>1100</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1105</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37568,15 +37568,15 @@
         <v>150</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -37816,7 +37816,7 @@
         <v>530</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37837,10 +37837,10 @@
     </row>
     <row r="326" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B326" s="3" t="s">
         <v>1124</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37976,7 +37976,7 @@
         <v>183</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38576,7 +38576,7 @@
         <v>215</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38736,7 +38736,7 @@
         <v>449</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38776,7 +38776,7 @@
         <v>319</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38784,7 +38784,7 @@
         <v>320</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38792,7 +38792,7 @@
         <v>321</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38800,7 +38800,7 @@
         <v>318</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38816,7 +38816,7 @@
         <v>322</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39168,7 +39168,7 @@
         <v>744</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="180" x14ac:dyDescent="0.25">

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37DA222E-B23B-43D7-A099-5ABA6067CB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D3BC1FB-D863-48F9-809C-2A87CA8EB0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -8601,129 +8601,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e185 Poison Drug&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;This drug can be applied to the weapons of any one character in your party. Its use means that whenever that character strikes in combat
- &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- and inflicts wounds, one extra poisoned wound is inflicted in addition to normal wounds.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;After a combat where the poisoned weapon is used, roll one die. A result of 6 means the poison has worn off and the weapon returns to normal.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since a character often has multiple weapons, he has the option of using his poisoned weapon or a normal weapon as desired. Click image when ready to continue.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PoisonDrug</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='EncounterEnd' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e186 Magic Sword&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;A character can carry this special sword amoung his weapons. The magic sword adds one to the combat skill of the character with it.
-In addition, the blade's magic means that every wound it inflicts counts as a poisoned wound. Click image when ready to continue.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sword</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='EncounterEnd' Height='200' Width='600'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e187 Anti-poison Amulet&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;This protects against all poisoned wounds. Any poison wound inflicted is ignored if the target has the amulet. Normal wounds still take effect. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Each time a poison wound is prevented, roll two die. If the result is 12, the amulet has reached its limit. It cannot absorb more poison and must be discarded. Click image when ready to continue.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                        &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AmuletAntiPoison</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='EncounterEnd' Height='350' Width='350'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e188a Pegasus Talisman&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-You have acquired a Pegaus Talisman
- &lt;InlineUIContainer&gt;&lt;Button Content='r188a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Whenever you have any magician, wizard, witch, priest, or monk in your party; they can help you use the talisman to call upon an actual Pegasus winged mount. It will immediately appear and serve as your mount
- &lt;InlineUIContainer&gt;&lt;Button Content='r188'  FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TalismanPegasus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='EncounterEnd' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e190 Nerve Gas Bomb&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;This sealed jar is filled with a deadly and quick-acting gas created by a master alchemist. If you surprise an enemy in combat
  &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;,
@@ -18493,56 +18370,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e026 Search for Treasure One More Time&lt;/Bold&gt;
-Clues suggest the treasure is in adjacent hext. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die (1-N, 2-NE, 3-SE- 4-S, 5-SW, 6-NW):
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21' Width='21'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-See &lt;InlineUIContainer&gt;&lt;Button Content='e026' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; when you arrive.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e027 Ancient Treasure&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You find an ancient treasure that was long lost. It has wealth code 110. See
  &lt;InlineUIContainer&gt;&lt;Button Content='r225' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.  Click image to continue.
@@ -24834,44 +24661,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">.gif' Height='300'  Width='300'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e188 Pegasus Mount&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-You have acquired a Pegaus - a winged horse that allows you to travel airborne. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The Pegasus is like a normal mount in all other respects including the same transport ability
- &lt;InlineUIContainer&gt;&lt;Button Content='r206' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-, food requirements
- &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, 
- and lodging when in towns/castles/temples
- &lt;InlineUIContainer&gt;&lt;Button Content='r217' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-You can use the Pegasus as a normal mount on the ground if desired. Click image when ready to continue.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                 &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pegasus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='EncounterEnd' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
   <si>
@@ -34759,6 +34548,318 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e188 Pegasus Mount&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You have acquired a Pegaus - a winged horse that allows you to travel airborne. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The Pegasus is like a normal mount in all other respects including the same transport ability
+ &lt;InlineUIContainer&gt;&lt;Button Content='r206' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+, food requirements
+ &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, 
+ and lodging when in towns/castles/temples
+ &lt;InlineUIContainer&gt;&lt;Button Content='r217' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You can use the Pegasus as a normal mount on the ground if desired. Click image when ready to continue.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                 &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pegasus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EncounterEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e187 Anti-poison Amulet&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;This protects against all poisoned wounds. Any poison wound inflicted is ignored if the target has the amulet. Normal wounds still take effect. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Each time a poison wound is prevented, roll two die. If the result is 12, the amulet has reached its limit. It cannot absorb more poison and must be discarded. Click image when ready to continue.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                        &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AmuletAntiPoison</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EncounterEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='350' Width='350'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e186 Magic Sword&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;A character can carry this special sword amoung his weapons. The magic sword adds one to the combat skill of the character with it.
+In addition, the blade's magic means that every wound it inflicts counts as a poisoned wound. Click image when ready to continue.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sword</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EncounterEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='200' Width='600'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e185 Poison Drug&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;This drug can be applied to the weapons of any one character in your party. Its use means that whenever that character strikes in combat
+ &lt;InlineUIContainer&gt;&lt;Button Content='r220' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ and inflicts wounds, one extra poisoned wound is inflicted in addition to normal wounds.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;After a combat where the poisoned weapon is used, roll one die. A result of 6 means the poison has worn off and the weapon returns to normal.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since a character often has multiple weapons, he has the option of using his poisoned weapon or a normal weapon as desired. Click image when ready to continue.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PoisonDrug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EncounterEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e188a Pegasus Talisman&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You have acquired a Pegaus Talisman
+ &lt;InlineUIContainer&gt;&lt;Button Content='r188a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Whenever you have any magician, wizard, witch, priest, or monk in your party; they can help you use the talisman to call upon an actual Pegasus winged mount. It will immediately appear and serve as your mount
+ &lt;InlineUIContainer&gt;&lt;Button Content='r188'  FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                   &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TalismanPegasus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EncounterEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e026 Search for Treasure One More Time&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Clues suggest the treasure is in adjacent hext. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die (1-N, 2-NE, 3-SE- 4-S, 5-SW, 6-NW):
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21' Width='21'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+See &lt;InlineUIContainer&gt;&lt;Button Content='e026' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; when you arrive.</t>
     </r>
   </si>
 </sst>
@@ -35225,8 +35326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B289" sqref="B289"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35240,7 +35341,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35248,7 +35349,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35256,7 +35357,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35264,15 +35365,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35288,7 +35389,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35296,7 +35397,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35328,7 +35429,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35336,7 +35437,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35344,7 +35445,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35352,7 +35453,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35360,7 +35461,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35368,7 +35469,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35376,7 +35477,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35384,7 +35485,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35392,7 +35493,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35400,7 +35501,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35408,7 +35509,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35416,7 +35517,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35424,7 +35525,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35432,7 +35533,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35440,7 +35541,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35448,7 +35549,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35456,31 +35557,31 @@
         <v>261</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>888</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35488,7 +35589,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35496,7 +35597,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35504,23 +35605,23 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35528,23 +35629,23 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35552,7 +35653,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35576,7 +35677,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35592,7 +35693,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35600,7 +35701,7 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -35613,10 +35714,10 @@
     </row>
     <row r="48" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35624,7 +35725,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35632,7 +35733,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35640,7 +35741,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35696,7 +35797,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35704,7 +35805,7 @@
         <v>265</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35717,10 +35818,10 @@
     </row>
     <row r="61" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35728,7 +35829,7 @@
         <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -35760,7 +35861,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -35768,7 +35869,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35776,7 +35877,7 @@
         <v>43</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35784,23 +35885,23 @@
         <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35808,7 +35909,7 @@
         <v>39</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35840,7 +35941,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35848,7 +35949,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35872,7 +35973,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35912,7 +36013,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35920,7 +36021,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35928,7 +36029,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35936,7 +36037,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -35944,31 +36045,31 @@
         <v>58</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>805</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35976,15 +36077,15 @@
         <v>59</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35992,15 +36093,15 @@
         <v>60</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>801</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36008,7 +36109,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36016,7 +36117,7 @@
         <v>62</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36048,7 +36149,7 @@
         <v>65</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36056,7 +36157,7 @@
         <v>66</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36136,7 +36237,7 @@
         <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -36168,7 +36269,7 @@
         <v>72</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36176,7 +36277,7 @@
         <v>73</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36224,7 +36325,7 @@
         <v>77</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36237,10 +36338,10 @@
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36248,7 +36349,7 @@
         <v>78</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36256,7 +36357,7 @@
         <v>377</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36296,7 +36397,7 @@
         <v>80</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36304,87 +36405,87 @@
         <v>81</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36392,7 +36493,7 @@
         <v>82</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36400,15 +36501,15 @@
         <v>83</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36416,7 +36517,7 @@
         <v>84</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36424,23 +36525,23 @@
         <v>85</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36448,7 +36549,7 @@
         <v>86</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36504,7 +36605,7 @@
         <v>346</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36512,7 +36613,7 @@
         <v>348</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36541,10 +36642,10 @@
     </row>
     <row r="164" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36560,7 +36661,7 @@
         <v>445</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36584,23 +36685,23 @@
         <v>90</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36632,7 +36733,7 @@
         <v>93</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -36640,7 +36741,7 @@
         <v>94</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36648,7 +36749,7 @@
         <v>95</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36656,55 +36757,55 @@
         <v>96</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>872</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36712,7 +36813,7 @@
         <v>97</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36720,7 +36821,7 @@
         <v>98</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36728,7 +36829,7 @@
         <v>99</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36744,7 +36845,7 @@
         <v>100</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36752,7 +36853,7 @@
         <v>102</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36760,7 +36861,7 @@
         <v>103</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36768,7 +36869,7 @@
         <v>104</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36776,23 +36877,23 @@
         <v>105</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36800,7 +36901,7 @@
         <v>106</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36808,7 +36909,7 @@
         <v>107</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36816,15 +36917,15 @@
         <v>165</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36832,7 +36933,7 @@
         <v>108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -36840,7 +36941,7 @@
         <v>109</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36848,7 +36949,7 @@
         <v>110</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36856,7 +36957,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36864,7 +36965,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36872,23 +36973,23 @@
         <v>168</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36896,39 +36997,39 @@
         <v>111</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36936,7 +37037,7 @@
         <v>112</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36944,7 +37045,7 @@
         <v>169</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36952,7 +37053,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36960,7 +37061,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36968,7 +37069,7 @@
         <v>113</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36976,7 +37077,7 @@
         <v>114</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36984,15 +37085,15 @@
         <v>266</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37000,15 +37101,15 @@
         <v>115</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37016,15 +37117,15 @@
         <v>116</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37032,31 +37133,31 @@
         <v>117</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37064,23 +37165,23 @@
         <v>118</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37088,23 +37189,23 @@
         <v>119</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37112,7 +37213,7 @@
         <v>120</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37120,7 +37221,7 @@
         <v>172</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37128,7 +37229,7 @@
         <v>173</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37136,7 +37237,7 @@
         <v>174</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37152,15 +37253,15 @@
         <v>122</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37168,23 +37269,23 @@
         <v>123</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37192,7 +37293,7 @@
         <v>124</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37200,15 +37301,15 @@
         <v>125</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37216,7 +37317,7 @@
         <v>126</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37224,7 +37325,7 @@
         <v>127</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37232,7 +37333,7 @@
         <v>128</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37240,7 +37341,7 @@
         <v>129</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37248,7 +37349,7 @@
         <v>130</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37256,23 +37357,23 @@
         <v>131</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37280,7 +37381,7 @@
         <v>132</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37288,15 +37389,15 @@
         <v>133</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37304,23 +37405,23 @@
         <v>134</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37328,15 +37429,15 @@
         <v>135</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37344,7 +37445,7 @@
         <v>136</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37368,7 +37469,7 @@
         <v>233</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37376,7 +37477,7 @@
         <v>138</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37384,7 +37485,7 @@
         <v>234</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37392,7 +37493,7 @@
         <v>235</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37400,7 +37501,7 @@
         <v>139</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37408,7 +37509,7 @@
         <v>239</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37416,7 +37517,7 @@
         <v>240</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37424,7 +37525,7 @@
         <v>241</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37432,7 +37533,7 @@
         <v>140</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37440,7 +37541,7 @@
         <v>236</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37448,7 +37549,7 @@
         <v>237</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37456,7 +37557,7 @@
         <v>238</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37464,7 +37565,7 @@
         <v>141</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37472,7 +37573,7 @@
         <v>142</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37480,7 +37581,7 @@
         <v>143</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37488,7 +37589,7 @@
         <v>144</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37496,7 +37597,7 @@
         <v>242</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37504,7 +37605,7 @@
         <v>145</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37512,7 +37613,7 @@
         <v>146</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37520,7 +37621,7 @@
         <v>147</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37528,7 +37629,7 @@
         <v>148</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37536,31 +37637,31 @@
         <v>149</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37568,15 +37669,15 @@
         <v>150</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -37584,7 +37685,7 @@
         <v>151</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37592,7 +37693,7 @@
         <v>243</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37600,7 +37701,7 @@
         <v>244</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37608,7 +37709,7 @@
         <v>245</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37616,7 +37717,7 @@
         <v>152</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37624,7 +37725,7 @@
         <v>153</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37632,7 +37733,7 @@
         <v>154</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37640,7 +37741,7 @@
         <v>155</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37648,7 +37749,7 @@
         <v>156</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37656,7 +37757,7 @@
         <v>157</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37664,7 +37765,7 @@
         <v>246</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37672,7 +37773,7 @@
         <v>247</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37680,7 +37781,7 @@
         <v>248</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37688,7 +37789,7 @@
         <v>158</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37696,7 +37797,7 @@
         <v>159</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37704,7 +37805,7 @@
         <v>160</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37712,7 +37813,7 @@
         <v>161</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37720,31 +37821,31 @@
         <v>162</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37752,7 +37853,7 @@
         <v>163</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37760,7 +37861,7 @@
         <v>164</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37768,7 +37869,7 @@
         <v>175</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37776,7 +37877,7 @@
         <v>176</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37784,7 +37885,7 @@
         <v>177</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -37792,7 +37893,7 @@
         <v>527</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37800,7 +37901,7 @@
         <v>528</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37808,7 +37909,7 @@
         <v>529</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -37816,7 +37917,7 @@
         <v>530</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37824,7 +37925,7 @@
         <v>531</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37832,15 +37933,15 @@
         <v>532</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37848,7 +37949,7 @@
         <v>178</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -37856,23 +37957,23 @@
         <v>500</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -37880,7 +37981,7 @@
         <v>179</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37888,7 +37989,7 @@
         <v>249</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37896,7 +37997,7 @@
         <v>250</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37904,7 +38005,7 @@
         <v>251</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37912,7 +38013,7 @@
         <v>252</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37920,23 +38021,23 @@
         <v>253</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B337" s="3" t="s">
         <v>861</v>
-      </c>
-      <c r="B337" s="3" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37944,7 +38045,7 @@
         <v>180</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37976,7 +38077,7 @@
         <v>183</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38048,7 +38149,7 @@
         <v>461</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38080,15 +38181,15 @@
         <v>192</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -38096,7 +38197,7 @@
         <v>193</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38112,7 +38213,7 @@
         <v>341</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38120,7 +38221,7 @@
         <v>194</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38128,7 +38229,7 @@
         <v>195</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38136,7 +38237,7 @@
         <v>196</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38144,7 +38245,7 @@
         <v>331</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38152,15 +38253,15 @@
         <v>197</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38168,7 +38269,7 @@
         <v>198</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38176,7 +38277,7 @@
         <v>199</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38184,7 +38285,7 @@
         <v>200</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38192,7 +38293,7 @@
         <v>201</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38200,7 +38301,7 @@
         <v>202</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38208,47 +38309,47 @@
         <v>203</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38256,55 +38357,55 @@
         <v>204</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38312,55 +38413,55 @@
         <v>205</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B390" s="3" t="s">
         <v>607</v>
-      </c>
-      <c r="B390" s="3" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38368,7 +38469,7 @@
         <v>206</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38376,7 +38477,7 @@
         <v>207</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38384,7 +38485,7 @@
         <v>208</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38392,55 +38493,55 @@
         <v>209</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38448,63 +38549,63 @@
         <v>210</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38512,7 +38613,7 @@
         <v>211</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38520,39 +38621,39 @@
         <v>212</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38560,7 +38661,7 @@
         <v>213</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38568,7 +38669,7 @@
         <v>214</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38576,7 +38677,7 @@
         <v>215</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38608,7 +38709,7 @@
         <v>219</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38616,7 +38717,7 @@
         <v>220</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38624,7 +38725,7 @@
         <v>221</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>540</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38632,7 +38733,7 @@
         <v>222</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>541</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38640,7 +38741,7 @@
         <v>223</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>542</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38648,7 +38749,7 @@
         <v>224</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>929</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38656,7 +38757,7 @@
         <v>332</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>543</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38672,7 +38773,7 @@
         <v>225</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38680,7 +38781,7 @@
         <v>226</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38688,7 +38789,7 @@
         <v>227</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38696,7 +38797,7 @@
         <v>228</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38704,7 +38805,7 @@
         <v>229</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38712,7 +38813,7 @@
         <v>230</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38736,7 +38837,7 @@
         <v>449</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38744,31 +38845,31 @@
         <v>451</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38776,7 +38877,7 @@
         <v>319</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38784,7 +38885,7 @@
         <v>320</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38792,7 +38893,7 @@
         <v>321</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38800,15 +38901,15 @@
         <v>318</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -38816,7 +38917,7 @@
         <v>322</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38832,7 +38933,7 @@
         <v>491</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38864,7 +38965,7 @@
         <v>497</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38872,327 +38973,327 @@
         <v>498</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39264,7 +39365,7 @@
         <v>275</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39272,7 +39373,7 @@
         <v>276</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39280,7 +39381,7 @@
         <v>277</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39328,7 +39429,7 @@
         <v>260</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39336,7 +39437,7 @@
         <v>480</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39344,15 +39445,15 @@
         <v>481</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39400,7 +39501,7 @@
         <v>285</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39408,7 +39509,7 @@
         <v>286</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39488,7 +39589,7 @@
         <v>296</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39496,7 +39597,7 @@
         <v>297</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -39520,7 +39621,7 @@
         <v>406</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39528,7 +39629,7 @@
         <v>298</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39544,7 +39645,7 @@
         <v>299</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -39568,7 +39669,7 @@
         <v>300</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39576,7 +39677,7 @@
         <v>301</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39616,7 +39717,7 @@
         <v>396</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39629,10 +39730,10 @@
     </row>
     <row r="550" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B550" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="B550" s="1" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39640,7 +39741,7 @@
         <v>305</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39669,10 +39770,10 @@
     </row>
     <row r="555" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39680,7 +39781,7 @@
         <v>306</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39704,7 +39805,7 @@
         <v>307</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="375" x14ac:dyDescent="0.25">
@@ -39712,7 +39813,7 @@
         <v>311</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39736,15 +39837,15 @@
         <v>376</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39752,7 +39853,7 @@
         <v>329</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D3BC1FB-D863-48F9-809C-2A87CA8EB0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FF4BBC02-D00C-436F-9045-0A510A378E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -1166,60 +1166,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e136 Hidden Treasures&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You uncover the remains of a palace treasure room. Roll one die for the contents:
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-1 - &lt;InlineUIContainer&gt;&lt;Button Content='e037' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
-2 - &lt;InlineUIContainer&gt;&lt;Button Content='e038' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
-3 - &lt;InlineUIContainer&gt;&lt;Button Content='e039' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
-4 - &lt;InlineUIContainer&gt;&lt;Button Content='e044' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
-5 - 500 gold pieces&lt;LineBreak/&gt;
-6 - Nothing</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e038 Cache under Stone&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;By chance, you overturn a stone slab, As you jump back, it crashes to the ground. You see that it uncovers an old cache of rotting food  and other items. Roll one die:
  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
@@ -6671,82 +6617,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Height='300' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e135 Broken Columns&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Along a pallisade of broken columns, you find an altar with an ancient inscription. Since your party includes a magician, wizard, witch, priest, or monk; the incription can be desciphered. Roll one die:
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e042' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e043' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e044' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e045' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e046' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e047' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6
-&lt;LineBreak/&gt;
-          &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BrokenColumns</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='250'  Width='500'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
   <si>
@@ -34860,6 +34730,198 @@
       <t>' Height='21' Width='21'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 See &lt;InlineUIContainer&gt;&lt;Button Content='e026' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; when you arrive.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e135 Broken Columns&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Along a pallisade of broken columns, you find an altar with an ancient inscription. Since your party includes a magician, wizard, witch, priest, or monk; the incription can be desciphered. Roll one die:
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e042' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e043' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e044' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e045' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e046' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e047' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6
+&lt;LineBreak/&gt;
+          &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BrokenColumns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BrokenColumns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='250'  Width='500'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e136 Hidden Treasures&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You uncover the remains of a palace treasure room. Roll one die for the contents:
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+1 - &lt;InlineUIContainer&gt;&lt;Button Content='e037' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+2 - &lt;InlineUIContainer&gt;&lt;Button Content='e038' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+3 - &lt;InlineUIContainer&gt;&lt;Button Content='e039' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+4 - &lt;InlineUIContainer&gt;&lt;Button Content='e044' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+5 - 500 gold pieces&lt;LineBreak/&gt;
+6 - Nothing
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                 &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TreasureRoomDoor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'  Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TreasureRoomDoor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.gif' Height='200'  Width='200'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
     </r>
   </si>
 </sst>
@@ -35326,8 +35388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="B344" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B347" sqref="B347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35341,7 +35403,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35349,7 +35411,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35357,7 +35419,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35365,15 +35427,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>1103</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35389,7 +35451,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35397,7 +35459,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35405,7 +35467,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35413,7 +35475,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35421,7 +35483,7 @@
         <v>258</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35429,7 +35491,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35437,7 +35499,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35445,7 +35507,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35453,7 +35515,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35461,7 +35523,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35469,7 +35531,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35477,7 +35539,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35485,7 +35547,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35493,7 +35555,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35501,7 +35563,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35509,7 +35571,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35517,7 +35579,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35525,7 +35587,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35533,7 +35595,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35541,7 +35603,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35549,7 +35611,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35557,31 +35619,31 @@
         <v>261</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35589,7 +35651,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35597,7 +35659,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35605,23 +35667,23 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35629,23 +35691,23 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>928</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35653,7 +35715,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35661,7 +35723,7 @@
         <v>262</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35669,7 +35731,7 @@
         <v>263</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -35677,7 +35739,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35685,7 +35747,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -35693,7 +35755,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35701,23 +35763,23 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35725,7 +35787,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35733,7 +35795,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35741,7 +35803,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35749,47 +35811,47 @@
         <v>34</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35797,7 +35859,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35805,23 +35867,23 @@
         <v>265</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35829,7 +35891,7 @@
         <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -35837,23 +35899,23 @@
         <v>36</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35861,7 +35923,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -35869,7 +35931,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35877,7 +35939,7 @@
         <v>43</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35885,23 +35947,23 @@
         <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35909,7 +35971,7 @@
         <v>39</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35917,7 +35979,7 @@
         <v>40</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35925,7 +35987,7 @@
         <v>41</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35933,7 +35995,7 @@
         <v>45</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35941,7 +36003,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35949,7 +36011,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35957,7 +36019,7 @@
         <v>47</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35965,7 +36027,7 @@
         <v>48</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35973,7 +36035,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35981,7 +36043,7 @@
         <v>50</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35989,7 +36051,7 @@
         <v>51</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35997,7 +36059,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36005,7 +36067,7 @@
         <v>53</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -36013,7 +36075,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36021,7 +36083,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36029,7 +36091,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36037,7 +36099,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36045,31 +36107,31 @@
         <v>58</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>799</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36077,15 +36139,15 @@
         <v>59</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36093,15 +36155,15 @@
         <v>60</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36109,7 +36171,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36117,15 +36179,15 @@
         <v>62</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36133,7 +36195,7 @@
         <v>63</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -36141,7 +36203,7 @@
         <v>64</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36149,7 +36211,7 @@
         <v>65</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36157,15 +36219,15 @@
         <v>66</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36173,15 +36235,15 @@
         <v>67</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36189,23 +36251,23 @@
         <v>68</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36213,23 +36275,23 @@
         <v>69</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36237,15 +36299,15 @@
         <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36253,7 +36315,7 @@
         <v>259</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36261,7 +36323,7 @@
         <v>71</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36269,7 +36331,7 @@
         <v>72</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36277,15 +36339,15 @@
         <v>73</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36293,7 +36355,7 @@
         <v>74</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -36317,7 +36379,7 @@
         <v>76</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36325,7 +36387,7 @@
         <v>77</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36333,15 +36395,15 @@
         <v>330</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36349,23 +36411,23 @@
         <v>78</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36373,23 +36435,23 @@
         <v>79</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36397,7 +36459,7 @@
         <v>80</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36405,87 +36467,87 @@
         <v>81</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>992</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36493,7 +36555,7 @@
         <v>82</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36501,15 +36563,15 @@
         <v>83</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>560</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36517,7 +36579,7 @@
         <v>84</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36525,23 +36587,23 @@
         <v>85</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36549,7 +36611,7 @@
         <v>86</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36557,23 +36619,23 @@
         <v>87</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="345" x14ac:dyDescent="0.25">
@@ -36581,71 +36643,71 @@
         <v>88</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36653,31 +36715,31 @@
         <v>89</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36685,23 +36747,23 @@
         <v>90</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36709,15 +36771,15 @@
         <v>91</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36725,7 +36787,7 @@
         <v>92</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36733,7 +36795,7 @@
         <v>93</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -36741,7 +36803,7 @@
         <v>94</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36749,7 +36811,7 @@
         <v>95</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36757,55 +36819,55 @@
         <v>96</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36813,7 +36875,7 @@
         <v>97</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36821,7 +36883,7 @@
         <v>98</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36829,7 +36891,7 @@
         <v>99</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36837,7 +36899,7 @@
         <v>101</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36845,7 +36907,7 @@
         <v>100</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36853,7 +36915,7 @@
         <v>102</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36861,7 +36923,7 @@
         <v>103</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36869,7 +36931,7 @@
         <v>104</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36877,23 +36939,23 @@
         <v>105</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36901,7 +36963,7 @@
         <v>106</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36909,7 +36971,7 @@
         <v>107</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36917,15 +36979,15 @@
         <v>165</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36933,7 +36995,7 @@
         <v>108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -36941,7 +37003,7 @@
         <v>109</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36949,7 +37011,7 @@
         <v>110</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36957,7 +37019,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36965,7 +37027,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36973,23 +37035,23 @@
         <v>168</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36997,39 +37059,39 @@
         <v>111</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37037,7 +37099,7 @@
         <v>112</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37045,7 +37107,7 @@
         <v>169</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37053,7 +37115,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37061,7 +37123,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37069,7 +37131,7 @@
         <v>113</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37077,7 +37139,7 @@
         <v>114</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37085,15 +37147,15 @@
         <v>266</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37101,15 +37163,15 @@
         <v>115</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37117,15 +37179,15 @@
         <v>116</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37133,31 +37195,31 @@
         <v>117</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37165,23 +37227,23 @@
         <v>118</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B230" s="3" t="s">
         <v>946</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37189,23 +37251,23 @@
         <v>119</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B234" s="3" t="s">
         <v>918</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37213,7 +37275,7 @@
         <v>120</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37221,7 +37283,7 @@
         <v>172</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37229,7 +37291,7 @@
         <v>173</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37237,7 +37299,7 @@
         <v>174</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37245,7 +37307,7 @@
         <v>121</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37253,15 +37315,15 @@
         <v>122</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B241" s="3" t="s">
         <v>760</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37269,23 +37331,23 @@
         <v>123</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B243" s="3" t="s">
         <v>940</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37293,7 +37355,7 @@
         <v>124</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37301,15 +37363,15 @@
         <v>125</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B247" s="3" t="s">
         <v>1008</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37317,7 +37379,7 @@
         <v>126</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37325,7 +37387,7 @@
         <v>127</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37333,7 +37395,7 @@
         <v>128</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37341,7 +37403,7 @@
         <v>129</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37349,7 +37411,7 @@
         <v>130</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37357,23 +37419,23 @@
         <v>131</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B255" s="3" t="s">
         <v>966</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37381,7 +37443,7 @@
         <v>132</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37389,15 +37451,15 @@
         <v>133</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37405,23 +37467,23 @@
         <v>134</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37429,15 +37491,15 @@
         <v>135</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37445,7 +37507,7 @@
         <v>136</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37453,7 +37515,7 @@
         <v>137</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37461,7 +37523,7 @@
         <v>232</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37469,7 +37531,7 @@
         <v>233</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37477,7 +37539,7 @@
         <v>138</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37485,7 +37547,7 @@
         <v>234</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37493,7 +37555,7 @@
         <v>235</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37501,7 +37563,7 @@
         <v>139</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37509,7 +37571,7 @@
         <v>239</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37517,7 +37579,7 @@
         <v>240</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37525,7 +37587,7 @@
         <v>241</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37533,7 +37595,7 @@
         <v>140</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37541,7 +37603,7 @@
         <v>236</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37549,7 +37611,7 @@
         <v>237</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37557,7 +37619,7 @@
         <v>238</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37565,7 +37627,7 @@
         <v>141</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37573,7 +37635,7 @@
         <v>142</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37581,7 +37643,7 @@
         <v>143</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37589,7 +37651,7 @@
         <v>144</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37597,7 +37659,7 @@
         <v>242</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37605,7 +37667,7 @@
         <v>145</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37613,7 +37675,7 @@
         <v>146</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37621,7 +37683,7 @@
         <v>147</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37629,7 +37691,7 @@
         <v>148</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37637,31 +37699,31 @@
         <v>149</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37669,15 +37731,15 @@
         <v>150</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B293" s="3" t="s">
         <v>1099</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -37685,7 +37747,7 @@
         <v>151</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37693,7 +37755,7 @@
         <v>243</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37701,7 +37763,7 @@
         <v>244</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37709,7 +37771,7 @@
         <v>245</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37717,7 +37779,7 @@
         <v>152</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37725,7 +37787,7 @@
         <v>153</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37733,7 +37795,7 @@
         <v>154</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37741,7 +37803,7 @@
         <v>155</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37749,7 +37811,7 @@
         <v>156</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37757,7 +37819,7 @@
         <v>157</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37765,7 +37827,7 @@
         <v>246</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37773,7 +37835,7 @@
         <v>247</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37781,7 +37843,7 @@
         <v>248</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37789,7 +37851,7 @@
         <v>158</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37797,7 +37859,7 @@
         <v>159</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37805,7 +37867,7 @@
         <v>160</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37813,7 +37875,7 @@
         <v>161</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37821,31 +37883,31 @@
         <v>162</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B314" s="3" t="s">
         <v>1065</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37853,7 +37915,7 @@
         <v>163</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37861,7 +37923,7 @@
         <v>164</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37869,7 +37931,7 @@
         <v>175</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37877,7 +37939,7 @@
         <v>176</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37885,63 +37947,63 @@
         <v>177</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37949,31 +38011,31 @@
         <v>178</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -37981,7 +38043,7 @@
         <v>179</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37989,7 +38051,7 @@
         <v>249</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37997,7 +38059,7 @@
         <v>250</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38005,7 +38067,7 @@
         <v>251</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38013,7 +38075,7 @@
         <v>252</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38021,23 +38083,23 @@
         <v>253</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38045,7 +38107,7 @@
         <v>180</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38053,15 +38115,15 @@
         <v>181</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38077,7 +38139,7 @@
         <v>183</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38085,7 +38147,7 @@
         <v>184</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>484</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38096,12 +38158,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>334</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38109,7 +38171,7 @@
         <v>186</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38117,15 +38179,15 @@
         <v>187</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B349" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="B349" s="3" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38133,7 +38195,7 @@
         <v>188</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38141,23 +38203,23 @@
         <v>189</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B353" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38165,7 +38227,7 @@
         <v>190</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38173,7 +38235,7 @@
         <v>191</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38181,15 +38243,15 @@
         <v>192</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -38197,23 +38259,23 @@
         <v>193</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38221,7 +38283,7 @@
         <v>194</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38229,7 +38291,7 @@
         <v>195</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38237,7 +38299,7 @@
         <v>196</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38245,7 +38307,7 @@
         <v>331</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38253,15 +38315,15 @@
         <v>197</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38269,7 +38331,7 @@
         <v>198</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38277,7 +38339,7 @@
         <v>199</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38285,7 +38347,7 @@
         <v>200</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38293,7 +38355,7 @@
         <v>201</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38301,7 +38363,7 @@
         <v>202</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38309,47 +38371,47 @@
         <v>203</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38357,55 +38419,55 @@
         <v>204</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38413,55 +38475,55 @@
         <v>205</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38469,7 +38531,7 @@
         <v>206</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38477,7 +38539,7 @@
         <v>207</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38485,7 +38547,7 @@
         <v>208</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38493,55 +38555,55 @@
         <v>209</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38549,63 +38611,63 @@
         <v>210</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38613,7 +38675,7 @@
         <v>211</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38621,39 +38683,39 @@
         <v>212</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38661,7 +38723,7 @@
         <v>213</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38669,7 +38731,7 @@
         <v>214</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38677,7 +38739,7 @@
         <v>215</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38685,7 +38747,7 @@
         <v>216</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38693,7 +38755,7 @@
         <v>217</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38701,7 +38763,7 @@
         <v>218</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38709,7 +38771,7 @@
         <v>219</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38717,7 +38779,7 @@
         <v>220</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38725,7 +38787,7 @@
         <v>221</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38733,7 +38795,7 @@
         <v>222</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38741,7 +38803,7 @@
         <v>223</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38749,7 +38811,7 @@
         <v>224</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38757,15 +38819,15 @@
         <v>332</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38773,7 +38835,7 @@
         <v>225</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38781,7 +38843,7 @@
         <v>226</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38789,7 +38851,7 @@
         <v>227</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38797,7 +38859,7 @@
         <v>228</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38805,7 +38867,7 @@
         <v>229</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38813,7 +38875,7 @@
         <v>230</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38821,7 +38883,7 @@
         <v>231</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38829,47 +38891,47 @@
         <v>257</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B440" s="3" t="s">
         <v>592</v>
-      </c>
-      <c r="B440" s="3" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38877,7 +38939,7 @@
         <v>319</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38885,7 +38947,7 @@
         <v>320</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38893,7 +38955,7 @@
         <v>321</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38901,15 +38963,15 @@
         <v>318</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -38917,383 +38979,383 @@
         <v>322</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39301,7 +39363,7 @@
         <v>267</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39309,7 +39371,7 @@
         <v>268</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39317,7 +39379,7 @@
         <v>269</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39325,7 +39387,7 @@
         <v>270</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39333,7 +39395,7 @@
         <v>271</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39341,7 +39403,7 @@
         <v>272</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39349,7 +39411,7 @@
         <v>273</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39357,7 +39419,7 @@
         <v>274</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39365,7 +39427,7 @@
         <v>275</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39373,7 +39435,7 @@
         <v>276</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39381,7 +39443,7 @@
         <v>277</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39397,7 +39459,7 @@
         <v>279</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39418,10 +39480,10 @@
     </row>
     <row r="511" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B511" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -39429,31 +39491,31 @@
         <v>260</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39461,7 +39523,7 @@
         <v>280</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39469,7 +39531,7 @@
         <v>281</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39485,7 +39547,7 @@
         <v>283</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39493,7 +39555,7 @@
         <v>284</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39501,7 +39563,7 @@
         <v>285</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39509,7 +39571,7 @@
         <v>286</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39517,7 +39579,7 @@
         <v>287</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39525,7 +39587,7 @@
         <v>288</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39533,7 +39595,7 @@
         <v>289</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39541,7 +39603,7 @@
         <v>290</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -39557,7 +39619,7 @@
         <v>292</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39565,7 +39627,7 @@
         <v>293</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39573,7 +39635,7 @@
         <v>294</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39581,7 +39643,7 @@
         <v>295</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -39589,7 +39651,7 @@
         <v>296</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39597,31 +39659,31 @@
         <v>297</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B534" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B534" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39629,15 +39691,15 @@
         <v>298</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39645,23 +39707,23 @@
         <v>299</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39669,7 +39731,7 @@
         <v>300</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39677,7 +39739,7 @@
         <v>301</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39685,7 +39747,7 @@
         <v>302</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39693,15 +39755,15 @@
         <v>303</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39709,31 +39771,31 @@
         <v>304</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39741,39 +39803,39 @@
         <v>305</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39781,23 +39843,23 @@
         <v>306</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="405" x14ac:dyDescent="0.25">
@@ -39805,7 +39867,7 @@
         <v>307</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="375" x14ac:dyDescent="0.25">
@@ -39813,15 +39875,15 @@
         <v>311</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39834,18 +39896,18 @@
     </row>
     <row r="563" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39853,7 +39915,7 @@
         <v>329</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D3BC1FB-D863-48F9-809C-2A87CA8EB0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1C9DFEB-C5AC-42B2-BA6C-68972E7831A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -9370,9 +9371,6 @@
   </si>
   <si>
     <t>e050d</t>
-  </si>
-  <si>
-    <t>050a</t>
   </si>
   <si>
     <t>e050f</t>
@@ -34861,6 +34859,9 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 See &lt;InlineUIContainer&gt;&lt;Button Content='e026' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; when you arrive.</t>
     </r>
+  </si>
+  <si>
+    <t>e050a</t>
   </si>
 </sst>
 </file>
@@ -35326,8 +35327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35341,7 +35342,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35349,7 +35350,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35357,7 +35358,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35365,15 +35366,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35389,7 +35390,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35397,7 +35398,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35429,7 +35430,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35437,7 +35438,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35445,7 +35446,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35453,7 +35454,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35461,7 +35462,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35469,7 +35470,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35477,7 +35478,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35485,7 +35486,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35493,7 +35494,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35501,7 +35502,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35509,7 +35510,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35517,7 +35518,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35525,7 +35526,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35533,7 +35534,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35541,7 +35542,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35549,7 +35550,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35557,31 +35558,31 @@
         <v>261</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35589,7 +35590,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35597,7 +35598,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35605,23 +35606,23 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35629,23 +35630,23 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35653,7 +35654,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35677,7 +35678,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35693,7 +35694,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35701,7 +35702,7 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -35714,10 +35715,10 @@
     </row>
     <row r="48" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35725,7 +35726,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35733,7 +35734,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35741,7 +35742,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35797,7 +35798,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35805,7 +35806,7 @@
         <v>265</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35818,10 +35819,10 @@
     </row>
     <row r="61" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35829,7 +35830,7 @@
         <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -35861,7 +35862,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -35869,7 +35870,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35877,7 +35878,7 @@
         <v>43</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35885,23 +35886,23 @@
         <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>725</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35909,7 +35910,7 @@
         <v>39</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35941,7 +35942,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35949,7 +35950,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35973,7 +35974,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36013,7 +36014,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36021,7 +36022,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36029,7 +36030,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36037,7 +36038,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36045,31 +36046,31 @@
         <v>58</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>806</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36077,15 +36078,15 @@
         <v>59</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>922</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36093,15 +36094,15 @@
         <v>60</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36109,7 +36110,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36117,7 +36118,7 @@
         <v>62</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36149,7 +36150,7 @@
         <v>65</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36157,7 +36158,7 @@
         <v>66</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36237,7 +36238,7 @@
         <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -36269,7 +36270,7 @@
         <v>72</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36277,7 +36278,7 @@
         <v>73</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36325,7 +36326,7 @@
         <v>77</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36338,10 +36339,10 @@
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>974</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36349,7 +36350,7 @@
         <v>78</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36357,7 +36358,7 @@
         <v>377</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36397,7 +36398,7 @@
         <v>80</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36405,87 +36406,87 @@
         <v>81</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>990</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36493,7 +36494,7 @@
         <v>82</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36501,15 +36502,15 @@
         <v>83</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>560</v>
+        <v>1129</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36517,7 +36518,7 @@
         <v>84</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36525,7 +36526,7 @@
         <v>85</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36533,15 +36534,15 @@
         <v>559</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36549,7 +36550,7 @@
         <v>86</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36605,7 +36606,7 @@
         <v>346</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36613,7 +36614,7 @@
         <v>348</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36642,10 +36643,10 @@
     </row>
     <row r="164" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36661,7 +36662,7 @@
         <v>445</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36685,23 +36686,23 @@
         <v>90</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36733,7 +36734,7 @@
         <v>93</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -36741,7 +36742,7 @@
         <v>94</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36749,7 +36750,7 @@
         <v>95</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36757,55 +36758,55 @@
         <v>96</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>893</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36813,7 +36814,7 @@
         <v>97</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36821,7 +36822,7 @@
         <v>98</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36829,7 +36830,7 @@
         <v>99</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36845,7 +36846,7 @@
         <v>100</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36853,7 +36854,7 @@
         <v>102</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36861,7 +36862,7 @@
         <v>103</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36869,7 +36870,7 @@
         <v>104</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36877,23 +36878,23 @@
         <v>105</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>707</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36901,7 +36902,7 @@
         <v>106</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36909,7 +36910,7 @@
         <v>107</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36917,15 +36918,15 @@
         <v>165</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36933,7 +36934,7 @@
         <v>108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -36941,7 +36942,7 @@
         <v>109</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36949,7 +36950,7 @@
         <v>110</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36957,7 +36958,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36965,7 +36966,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36973,23 +36974,23 @@
         <v>168</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>908</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36997,39 +36998,39 @@
         <v>111</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B212" s="3" t="s">
         <v>742</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37037,7 +37038,7 @@
         <v>112</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37045,7 +37046,7 @@
         <v>169</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37053,7 +37054,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37061,7 +37062,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37069,7 +37070,7 @@
         <v>113</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37077,7 +37078,7 @@
         <v>114</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37085,15 +37086,15 @@
         <v>266</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37101,15 +37102,15 @@
         <v>115</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37117,15 +37118,15 @@
         <v>116</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37133,31 +37134,31 @@
         <v>117</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>766</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37165,23 +37166,23 @@
         <v>118</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37189,23 +37190,23 @@
         <v>119</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37213,7 +37214,7 @@
         <v>120</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37221,7 +37222,7 @@
         <v>172</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37229,7 +37230,7 @@
         <v>173</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37237,7 +37238,7 @@
         <v>174</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37253,15 +37254,15 @@
         <v>122</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37269,23 +37270,23 @@
         <v>123</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37293,7 +37294,7 @@
         <v>124</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37301,15 +37302,15 @@
         <v>125</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37317,7 +37318,7 @@
         <v>126</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37325,7 +37326,7 @@
         <v>127</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37333,7 +37334,7 @@
         <v>128</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37341,7 +37342,7 @@
         <v>129</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37349,7 +37350,7 @@
         <v>130</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37357,23 +37358,23 @@
         <v>131</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>964</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37381,7 +37382,7 @@
         <v>132</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37389,15 +37390,15 @@
         <v>133</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37405,23 +37406,23 @@
         <v>134</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>1019</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>1021</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37429,15 +37430,15 @@
         <v>135</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>1024</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37445,7 +37446,7 @@
         <v>136</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37469,7 +37470,7 @@
         <v>233</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37477,7 +37478,7 @@
         <v>138</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37485,7 +37486,7 @@
         <v>234</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37493,7 +37494,7 @@
         <v>235</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37501,7 +37502,7 @@
         <v>139</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37509,7 +37510,7 @@
         <v>239</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37517,7 +37518,7 @@
         <v>240</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37525,7 +37526,7 @@
         <v>241</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37533,7 +37534,7 @@
         <v>140</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37541,7 +37542,7 @@
         <v>236</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37549,7 +37550,7 @@
         <v>237</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37557,7 +37558,7 @@
         <v>238</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37565,7 +37566,7 @@
         <v>141</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37573,7 +37574,7 @@
         <v>142</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37581,7 +37582,7 @@
         <v>143</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37589,7 +37590,7 @@
         <v>144</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37597,7 +37598,7 @@
         <v>242</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37605,7 +37606,7 @@
         <v>145</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37613,7 +37614,7 @@
         <v>146</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37621,7 +37622,7 @@
         <v>147</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37629,7 +37630,7 @@
         <v>148</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37637,31 +37638,31 @@
         <v>149</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>1095</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37669,15 +37670,15 @@
         <v>150</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -37685,7 +37686,7 @@
         <v>151</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37693,7 +37694,7 @@
         <v>243</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37701,7 +37702,7 @@
         <v>244</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37709,7 +37710,7 @@
         <v>245</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37717,7 +37718,7 @@
         <v>152</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37725,7 +37726,7 @@
         <v>153</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37733,7 +37734,7 @@
         <v>154</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37741,7 +37742,7 @@
         <v>155</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37749,7 +37750,7 @@
         <v>156</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37757,7 +37758,7 @@
         <v>157</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37765,7 +37766,7 @@
         <v>246</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37773,7 +37774,7 @@
         <v>247</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37781,7 +37782,7 @@
         <v>248</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37789,7 +37790,7 @@
         <v>158</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37797,7 +37798,7 @@
         <v>159</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37805,7 +37806,7 @@
         <v>160</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37813,7 +37814,7 @@
         <v>161</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37821,31 +37822,31 @@
         <v>162</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37853,7 +37854,7 @@
         <v>163</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37861,7 +37862,7 @@
         <v>164</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37869,7 +37870,7 @@
         <v>175</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37877,7 +37878,7 @@
         <v>176</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37885,7 +37886,7 @@
         <v>177</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -37893,7 +37894,7 @@
         <v>527</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37901,7 +37902,7 @@
         <v>528</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37909,7 +37910,7 @@
         <v>529</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -37917,7 +37918,7 @@
         <v>530</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37925,7 +37926,7 @@
         <v>531</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37933,15 +37934,15 @@
         <v>532</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B326" s="3" t="s">
         <v>1117</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37949,7 +37950,7 @@
         <v>178</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -37957,7 +37958,7 @@
         <v>500</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37965,7 +37966,7 @@
         <v>557</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37973,7 +37974,7 @@
         <v>558</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -37981,7 +37982,7 @@
         <v>179</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37989,7 +37990,7 @@
         <v>249</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37997,7 +37998,7 @@
         <v>250</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38005,7 +38006,7 @@
         <v>251</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38013,7 +38014,7 @@
         <v>252</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38021,23 +38022,23 @@
         <v>253</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38045,7 +38046,7 @@
         <v>180</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38077,7 +38078,7 @@
         <v>183</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38149,7 +38150,7 @@
         <v>461</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38181,15 +38182,15 @@
         <v>192</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B357" s="3" t="s">
         <v>628</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -38197,7 +38198,7 @@
         <v>193</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38213,7 +38214,7 @@
         <v>341</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38221,7 +38222,7 @@
         <v>194</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38229,7 +38230,7 @@
         <v>195</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38237,7 +38238,7 @@
         <v>196</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38245,7 +38246,7 @@
         <v>331</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38253,15 +38254,15 @@
         <v>197</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B366" s="3" t="s">
         <v>672</v>
-      </c>
-      <c r="B366" s="3" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38269,7 +38270,7 @@
         <v>198</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38277,7 +38278,7 @@
         <v>199</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38285,7 +38286,7 @@
         <v>200</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38293,7 +38294,7 @@
         <v>201</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38301,7 +38302,7 @@
         <v>202</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38309,47 +38310,47 @@
         <v>203</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38357,55 +38358,55 @@
         <v>204</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38413,55 +38414,55 @@
         <v>205</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38469,7 +38470,7 @@
         <v>206</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38477,7 +38478,7 @@
         <v>207</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38485,7 +38486,7 @@
         <v>208</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38493,55 +38494,55 @@
         <v>209</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38549,63 +38550,63 @@
         <v>210</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B409" s="3" t="s">
         <v>650</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38613,7 +38614,7 @@
         <v>211</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38661,7 +38662,7 @@
         <v>213</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38669,7 +38670,7 @@
         <v>214</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38677,7 +38678,7 @@
         <v>215</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38709,7 +38710,7 @@
         <v>219</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38717,7 +38718,7 @@
         <v>220</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38725,7 +38726,7 @@
         <v>221</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38733,7 +38734,7 @@
         <v>222</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38741,7 +38742,7 @@
         <v>223</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38749,7 +38750,7 @@
         <v>224</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38757,7 +38758,7 @@
         <v>332</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38773,7 +38774,7 @@
         <v>225</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38837,7 +38838,7 @@
         <v>449</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38845,31 +38846,31 @@
         <v>451</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B442" s="3" t="s">
         <v>802</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38877,7 +38878,7 @@
         <v>319</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38885,7 +38886,7 @@
         <v>320</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38893,7 +38894,7 @@
         <v>321</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38901,15 +38902,15 @@
         <v>318</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B447" s="3" t="s">
         <v>1070</v>
-      </c>
-      <c r="B447" s="3" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -38917,7 +38918,7 @@
         <v>322</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38933,7 +38934,7 @@
         <v>491</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38965,7 +38966,7 @@
         <v>497</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38973,303 +38974,303 @@
         <v>498</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B457" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="B457" s="3" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B488" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B490" s="1" t="s">
         <v>1050</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39277,7 +39278,7 @@
         <v>552</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39285,7 +39286,7 @@
         <v>553</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39293,7 +39294,7 @@
         <v>554</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39365,7 +39366,7 @@
         <v>275</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39373,7 +39374,7 @@
         <v>276</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39381,7 +39382,7 @@
         <v>277</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39429,7 +39430,7 @@
         <v>260</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39437,7 +39438,7 @@
         <v>480</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39445,15 +39446,15 @@
         <v>481</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B515" s="3" t="s">
         <v>810</v>
-      </c>
-      <c r="B515" s="3" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39501,7 +39502,7 @@
         <v>285</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39509,7 +39510,7 @@
         <v>286</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39589,7 +39590,7 @@
         <v>296</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39597,7 +39598,7 @@
         <v>297</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -39621,7 +39622,7 @@
         <v>406</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39629,7 +39630,7 @@
         <v>298</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39645,7 +39646,7 @@
         <v>299</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -39669,7 +39670,7 @@
         <v>300</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39677,7 +39678,7 @@
         <v>301</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39717,7 +39718,7 @@
         <v>396</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39730,10 +39731,10 @@
     </row>
     <row r="550" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39741,7 +39742,7 @@
         <v>305</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39770,10 +39771,10 @@
     </row>
     <row r="555" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B555" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39781,7 +39782,7 @@
         <v>306</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39805,7 +39806,7 @@
         <v>307</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="375" x14ac:dyDescent="0.25">
@@ -39813,7 +39814,7 @@
         <v>311</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39837,15 +39838,15 @@
         <v>376</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B564" s="3" t="s">
         <v>754</v>
-      </c>
-      <c r="B564" s="3" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39853,7 +39854,7 @@
         <v>329</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1C9DFEB-C5AC-42B2-BA6C-68972E7831A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEB1568B-564D-4985-88BA-BDCADA757DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21545,55 +21544,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e130d High Lord on Travels Arrest You&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-You are arrested. You are jailed at the Lord's residence which is either the appropriate castle, nearest temple, or nearest town. Advance time by one day to represent the time spent reaching the jail. It may be by a magical means to travel in one day. Click image to continue.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                  &lt;InlineUIContainer&gt;&lt;Image Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JailTravels</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JailOvernight</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e130e Audience With High Lord on Travels&lt;/Bold&gt;
 &lt;LineBreak/&gt;
 &lt;LineBreak/&gt;If you gain an audence with Baron Huldra, see &lt;InlineUIContainer&gt;&lt;Button Content='e130f' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
@@ -34862,6 +34812,55 @@
   </si>
   <si>
     <t>e050a</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e130d High Lord on Travels Arrest You&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You are arrested. You are jailed at the Lord's residence which is either the appropriate castle, nearest temple, or nearest town. Advance time by one day to represent the time spent reaching the jail. It may be by a magical means to travel in one day. Click image to continue.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                         &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JailTravels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JailOvernight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -35327,8 +35326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView tabSelected="1" topLeftCell="A332" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35342,7 +35341,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35350,7 +35349,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35358,7 +35357,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35366,15 +35365,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35398,7 +35397,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35430,7 +35429,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35526,7 +35525,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35534,7 +35533,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35542,7 +35541,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35550,7 +35549,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35558,31 +35557,31 @@
         <v>261</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35590,7 +35589,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35598,7 +35597,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35606,23 +35605,23 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35630,23 +35629,23 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35654,7 +35653,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35678,7 +35677,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35694,7 +35693,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35718,7 +35717,7 @@
         <v>719</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35726,7 +35725,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35798,7 +35797,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35806,7 +35805,7 @@
         <v>265</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35942,7 +35941,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35950,7 +35949,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36078,15 +36077,15 @@
         <v>59</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>921</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36102,7 +36101,7 @@
         <v>795</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36158,7 +36157,7 @@
         <v>66</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36238,7 +36237,7 @@
         <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -36326,7 +36325,7 @@
         <v>77</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36339,10 +36338,10 @@
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>973</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36350,7 +36349,7 @@
         <v>78</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36358,7 +36357,7 @@
         <v>377</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36406,87 +36405,87 @@
         <v>81</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>989</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36494,7 +36493,7 @@
         <v>82</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36507,7 +36506,7 @@
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>561</v>
@@ -36662,7 +36661,7 @@
         <v>445</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36734,7 +36733,7 @@
         <v>93</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -36742,7 +36741,7 @@
         <v>94</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36750,7 +36749,7 @@
         <v>95</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36758,55 +36757,55 @@
         <v>96</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>892</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36814,7 +36813,7 @@
         <v>97</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36862,7 +36861,7 @@
         <v>103</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36870,7 +36869,7 @@
         <v>104</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36902,7 +36901,7 @@
         <v>106</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36934,7 +36933,7 @@
         <v>108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -36942,7 +36941,7 @@
         <v>109</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36958,7 +36957,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36966,7 +36965,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36974,23 +36973,23 @@
         <v>168</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>907</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37062,7 +37061,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37070,7 +37069,7 @@
         <v>113</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37078,7 +37077,7 @@
         <v>114</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37086,15 +37085,15 @@
         <v>266</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37102,7 +37101,7 @@
         <v>115</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37118,7 +37117,7 @@
         <v>116</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37158,7 +37157,7 @@
         <v>768</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37166,23 +37165,23 @@
         <v>118</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37190,23 +37189,23 @@
         <v>119</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37214,7 +37213,7 @@
         <v>120</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37222,7 +37221,7 @@
         <v>172</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37230,7 +37229,7 @@
         <v>173</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37238,7 +37237,7 @@
         <v>174</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37270,23 +37269,23 @@
         <v>123</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37302,15 +37301,15 @@
         <v>125</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37318,7 +37317,7 @@
         <v>126</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37326,7 +37325,7 @@
         <v>127</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37342,7 +37341,7 @@
         <v>129</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37350,7 +37349,7 @@
         <v>130</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37358,23 +37357,23 @@
         <v>131</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>963</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37382,7 +37381,7 @@
         <v>132</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37390,15 +37389,15 @@
         <v>133</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37406,23 +37405,23 @@
         <v>134</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>1018</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>1020</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37430,15 +37429,15 @@
         <v>135</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>1023</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37446,7 +37445,7 @@
         <v>136</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37470,7 +37469,7 @@
         <v>233</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37534,7 +37533,7 @@
         <v>140</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37542,7 +37541,7 @@
         <v>236</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37550,7 +37549,7 @@
         <v>237</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37558,7 +37557,7 @@
         <v>238</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37566,7 +37565,7 @@
         <v>141</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37574,7 +37573,7 @@
         <v>142</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37582,7 +37581,7 @@
         <v>143</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37590,7 +37589,7 @@
         <v>144</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37598,7 +37597,7 @@
         <v>242</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37606,7 +37605,7 @@
         <v>145</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37614,7 +37613,7 @@
         <v>146</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37622,7 +37621,7 @@
         <v>147</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37630,7 +37629,7 @@
         <v>148</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37638,31 +37637,31 @@
         <v>149</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>1094</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37670,15 +37669,15 @@
         <v>150</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -37726,7 +37725,7 @@
         <v>153</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37798,7 +37797,7 @@
         <v>159</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37806,7 +37805,7 @@
         <v>160</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37814,7 +37813,7 @@
         <v>161</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37822,31 +37821,31 @@
         <v>162</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37854,7 +37853,7 @@
         <v>163</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37862,7 +37861,7 @@
         <v>164</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37870,7 +37869,7 @@
         <v>175</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37878,7 +37877,7 @@
         <v>176</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37886,7 +37885,7 @@
         <v>177</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -37894,7 +37893,7 @@
         <v>527</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37902,7 +37901,7 @@
         <v>528</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37910,7 +37909,7 @@
         <v>529</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -37918,7 +37917,7 @@
         <v>530</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37926,7 +37925,7 @@
         <v>531</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37934,15 +37933,15 @@
         <v>532</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B326" s="3" t="s">
         <v>1116</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37950,7 +37949,7 @@
         <v>178</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -37958,7 +37957,7 @@
         <v>500</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37966,7 +37965,7 @@
         <v>557</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37974,7 +37973,7 @@
         <v>558</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -37998,7 +37997,7 @@
         <v>250</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38006,7 +38005,7 @@
         <v>251</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38014,7 +38013,7 @@
         <v>252</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>858</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38022,7 +38021,7 @@
         <v>253</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38030,7 +38029,7 @@
         <v>855</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38038,7 +38037,7 @@
         <v>856</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38046,7 +38045,7 @@
         <v>180</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38078,7 +38077,7 @@
         <v>183</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38238,7 +38237,7 @@
         <v>196</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38246,7 +38245,7 @@
         <v>331</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38302,7 +38301,7 @@
         <v>202</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38422,7 +38421,7 @@
         <v>598</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38430,7 +38429,7 @@
         <v>599</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38438,7 +38437,7 @@
         <v>600</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38446,7 +38445,7 @@
         <v>601</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38462,7 +38461,7 @@
         <v>603</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38478,7 +38477,7 @@
         <v>207</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38502,7 +38501,7 @@
         <v>653</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38662,7 +38661,7 @@
         <v>213</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38678,7 +38677,7 @@
         <v>215</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38726,7 +38725,7 @@
         <v>221</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38734,7 +38733,7 @@
         <v>222</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38742,7 +38741,7 @@
         <v>223</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38750,7 +38749,7 @@
         <v>224</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38758,7 +38757,7 @@
         <v>332</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38774,7 +38773,7 @@
         <v>225</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38838,7 +38837,7 @@
         <v>449</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38878,7 +38877,7 @@
         <v>319</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38886,7 +38885,7 @@
         <v>320</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38894,7 +38893,7 @@
         <v>321</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38902,15 +38901,15 @@
         <v>318</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B447" s="3" t="s">
         <v>1069</v>
-      </c>
-      <c r="B447" s="3" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -38918,7 +38917,7 @@
         <v>322</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38982,7 +38981,7 @@
         <v>566</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -39006,7 +39005,7 @@
         <v>575</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39030,7 +39029,7 @@
         <v>578</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39054,7 +39053,7 @@
         <v>581</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39086,7 +39085,7 @@
         <v>612</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -39094,7 +39093,7 @@
         <v>630</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -39110,15 +39109,15 @@
         <v>632</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -39174,7 +39173,7 @@
         <v>679</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39214,7 +39213,7 @@
         <v>684</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -39243,18 +39242,18 @@
     </row>
     <row r="489" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B490" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39262,7 +39261,7 @@
         <v>703</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39270,7 +39269,7 @@
         <v>739</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39366,7 +39365,7 @@
         <v>275</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39374,7 +39373,7 @@
         <v>276</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39382,7 +39381,7 @@
         <v>277</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39430,7 +39429,7 @@
         <v>260</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39502,7 +39501,7 @@
         <v>285</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39510,7 +39509,7 @@
         <v>286</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39630,7 +39629,7 @@
         <v>298</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39670,7 +39669,7 @@
         <v>300</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39678,7 +39677,7 @@
         <v>301</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39806,7 +39805,7 @@
         <v>307</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="375" x14ac:dyDescent="0.25">
@@ -39838,7 +39837,7 @@
         <v>376</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39854,7 +39853,7 @@
         <v>329</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEB1568B-564D-4985-88BA-BDCADA757DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6BEE11F-6870-4D6E-B047-8AB729932A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-25320" yWindow="15" windowWidth="25440" windowHeight="15390" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -10249,97 +10249,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>&lt;Bold&gt;e210e Local Guide Available&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Local guide available
- &lt;InlineUIContainer&gt;&lt;Button Content='r205' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-. Hires fro 2 gold per day. He has a combat skill of 2 and endurnace 3.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;InlineUIContainer&gt;&lt;Image Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EncounterEnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CoinsStackedDeny</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='100'  Width='100'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Click to allow him to join:
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;InlineUIContainer&gt;&lt;Image Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HireLocalGuide</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CoinsStacked</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.gif' Height='100'  Width='100'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
-    </r>
-  </si>
-  <si>
     <t>e210i</t>
   </si>
   <si>
@@ -34860,6 +34769,97 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e210e Local Guide Available&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Local guide available
+ &lt;InlineUIContainer&gt;&lt;Button Content='r205' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+. Hires for 2 gold per day. He has a combat skill of 2 and endurnace 3.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EncounterEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CoinsStackedDeny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='100'  Width='100'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Click to allow him to join:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HireLocalGuide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CoinsStacked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.gif' Height='100'  Width='100'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
     </r>
   </si>
 </sst>
@@ -35326,8 +35326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B335" sqref="B335"/>
+    <sheetView tabSelected="1" topLeftCell="B459" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B463" sqref="B463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35341,7 +35341,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35349,7 +35349,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35357,7 +35357,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35365,15 +35365,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35389,7 +35389,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35397,7 +35397,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35429,7 +35429,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35437,7 +35437,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35445,7 +35445,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35453,7 +35453,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35461,7 +35461,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35469,7 +35469,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35477,7 +35477,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35485,7 +35485,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35493,7 +35493,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35501,7 +35501,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35509,7 +35509,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35517,7 +35517,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35525,7 +35525,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35533,7 +35533,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35541,7 +35541,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35549,7 +35549,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35557,31 +35557,31 @@
         <v>261</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35589,7 +35589,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35597,7 +35597,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35605,23 +35605,23 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35629,23 +35629,23 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35653,7 +35653,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35677,7 +35677,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35693,7 +35693,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35701,7 +35701,7 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -35714,10 +35714,10 @@
     </row>
     <row r="48" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35725,7 +35725,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35733,7 +35733,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35741,7 +35741,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35797,7 +35797,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35805,7 +35805,7 @@
         <v>265</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35829,7 +35829,7 @@
         <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -35861,7 +35861,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -35869,7 +35869,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35877,7 +35877,7 @@
         <v>43</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35885,23 +35885,23 @@
         <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35909,7 +35909,7 @@
         <v>39</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35941,7 +35941,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35949,7 +35949,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35973,7 +35973,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36013,7 +36013,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36021,7 +36021,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36029,7 +36029,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36037,7 +36037,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36045,31 +36045,31 @@
         <v>58</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>805</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36077,15 +36077,15 @@
         <v>59</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>920</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36093,15 +36093,15 @@
         <v>60</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36109,7 +36109,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36117,7 +36117,7 @@
         <v>62</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36149,7 +36149,7 @@
         <v>65</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36157,7 +36157,7 @@
         <v>66</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36237,7 +36237,7 @@
         <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -36269,7 +36269,7 @@
         <v>72</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36277,7 +36277,7 @@
         <v>73</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36325,7 +36325,7 @@
         <v>77</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36338,10 +36338,10 @@
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>972</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36349,7 +36349,7 @@
         <v>78</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36357,7 +36357,7 @@
         <v>377</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36397,7 +36397,7 @@
         <v>80</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36405,87 +36405,87 @@
         <v>81</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>988</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36493,7 +36493,7 @@
         <v>82</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36501,12 +36501,12 @@
         <v>83</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>561</v>
@@ -36541,7 +36541,7 @@
         <v>560</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36549,7 +36549,7 @@
         <v>86</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36605,7 +36605,7 @@
         <v>346</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36613,7 +36613,7 @@
         <v>348</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36642,10 +36642,10 @@
     </row>
     <row r="164" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>733</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36661,7 +36661,7 @@
         <v>445</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36685,23 +36685,23 @@
         <v>90</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36733,7 +36733,7 @@
         <v>93</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -36741,7 +36741,7 @@
         <v>94</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36749,7 +36749,7 @@
         <v>95</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36757,55 +36757,55 @@
         <v>96</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>891</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36813,7 +36813,7 @@
         <v>97</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36821,7 +36821,7 @@
         <v>98</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36829,7 +36829,7 @@
         <v>99</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36845,7 +36845,7 @@
         <v>100</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36853,7 +36853,7 @@
         <v>102</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36861,7 +36861,7 @@
         <v>103</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36869,7 +36869,7 @@
         <v>104</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36877,23 +36877,23 @@
         <v>105</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36901,7 +36901,7 @@
         <v>106</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36909,7 +36909,7 @@
         <v>107</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36917,15 +36917,15 @@
         <v>165</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36933,7 +36933,7 @@
         <v>108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -36941,7 +36941,7 @@
         <v>109</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36949,7 +36949,7 @@
         <v>110</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36957,7 +36957,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36965,7 +36965,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36973,23 +36973,23 @@
         <v>168</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>906</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36997,39 +36997,39 @@
         <v>111</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B212" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37037,7 +37037,7 @@
         <v>112</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37045,7 +37045,7 @@
         <v>169</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37053,7 +37053,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37061,7 +37061,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37069,7 +37069,7 @@
         <v>113</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37077,7 +37077,7 @@
         <v>114</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37085,15 +37085,15 @@
         <v>266</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37101,15 +37101,15 @@
         <v>115</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37117,15 +37117,15 @@
         <v>116</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37133,31 +37133,31 @@
         <v>117</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>765</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37165,23 +37165,23 @@
         <v>118</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37189,23 +37189,23 @@
         <v>119</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37213,7 +37213,7 @@
         <v>120</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37221,7 +37221,7 @@
         <v>172</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37229,7 +37229,7 @@
         <v>173</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37237,7 +37237,7 @@
         <v>174</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37253,15 +37253,15 @@
         <v>122</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37269,23 +37269,23 @@
         <v>123</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37293,7 +37293,7 @@
         <v>124</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37301,15 +37301,15 @@
         <v>125</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37317,7 +37317,7 @@
         <v>126</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37325,7 +37325,7 @@
         <v>127</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37333,7 +37333,7 @@
         <v>128</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37341,7 +37341,7 @@
         <v>129</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37349,7 +37349,7 @@
         <v>130</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37357,23 +37357,23 @@
         <v>131</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>962</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37381,7 +37381,7 @@
         <v>132</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37389,15 +37389,15 @@
         <v>133</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37405,23 +37405,23 @@
         <v>134</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>1017</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>1019</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37429,15 +37429,15 @@
         <v>135</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>1022</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37445,7 +37445,7 @@
         <v>136</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37469,7 +37469,7 @@
         <v>233</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37477,7 +37477,7 @@
         <v>138</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37485,7 +37485,7 @@
         <v>234</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37493,7 +37493,7 @@
         <v>235</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37501,7 +37501,7 @@
         <v>139</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37509,7 +37509,7 @@
         <v>239</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37517,7 +37517,7 @@
         <v>240</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37525,7 +37525,7 @@
         <v>241</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37533,7 +37533,7 @@
         <v>140</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37541,7 +37541,7 @@
         <v>236</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37549,7 +37549,7 @@
         <v>237</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37557,7 +37557,7 @@
         <v>238</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37565,7 +37565,7 @@
         <v>141</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37573,7 +37573,7 @@
         <v>142</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37581,7 +37581,7 @@
         <v>143</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37589,7 +37589,7 @@
         <v>144</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37597,7 +37597,7 @@
         <v>242</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37605,7 +37605,7 @@
         <v>145</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37613,7 +37613,7 @@
         <v>146</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37621,7 +37621,7 @@
         <v>147</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37629,7 +37629,7 @@
         <v>148</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37637,31 +37637,31 @@
         <v>149</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>1093</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37669,15 +37669,15 @@
         <v>150</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -37685,7 +37685,7 @@
         <v>151</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37693,7 +37693,7 @@
         <v>243</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37701,7 +37701,7 @@
         <v>244</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37709,7 +37709,7 @@
         <v>245</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37717,7 +37717,7 @@
         <v>152</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37725,7 +37725,7 @@
         <v>153</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37733,7 +37733,7 @@
         <v>154</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37741,7 +37741,7 @@
         <v>155</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37749,7 +37749,7 @@
         <v>156</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37757,7 +37757,7 @@
         <v>157</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37765,7 +37765,7 @@
         <v>246</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37773,7 +37773,7 @@
         <v>247</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37781,7 +37781,7 @@
         <v>248</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37789,7 +37789,7 @@
         <v>158</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37797,7 +37797,7 @@
         <v>159</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37805,7 +37805,7 @@
         <v>160</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37813,7 +37813,7 @@
         <v>161</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37821,31 +37821,31 @@
         <v>162</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37853,7 +37853,7 @@
         <v>163</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37861,7 +37861,7 @@
         <v>164</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37869,7 +37869,7 @@
         <v>175</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37877,7 +37877,7 @@
         <v>176</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37885,7 +37885,7 @@
         <v>177</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -37893,7 +37893,7 @@
         <v>527</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37901,7 +37901,7 @@
         <v>528</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37909,7 +37909,7 @@
         <v>529</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -37917,7 +37917,7 @@
         <v>530</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37925,7 +37925,7 @@
         <v>531</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37933,15 +37933,15 @@
         <v>532</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B326" s="3" t="s">
         <v>1115</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37949,7 +37949,7 @@
         <v>178</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -37957,7 +37957,7 @@
         <v>500</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37965,7 +37965,7 @@
         <v>557</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37973,7 +37973,7 @@
         <v>558</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -37981,7 +37981,7 @@
         <v>179</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37989,7 +37989,7 @@
         <v>249</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37997,7 +37997,7 @@
         <v>250</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38005,7 +38005,7 @@
         <v>251</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38013,7 +38013,7 @@
         <v>252</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38021,23 +38021,23 @@
         <v>253</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38045,7 +38045,7 @@
         <v>180</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38077,7 +38077,7 @@
         <v>183</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38149,7 +38149,7 @@
         <v>461</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38181,15 +38181,15 @@
         <v>192</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B357" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -38197,7 +38197,7 @@
         <v>193</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38213,7 +38213,7 @@
         <v>341</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38221,7 +38221,7 @@
         <v>194</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38229,7 +38229,7 @@
         <v>195</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38237,7 +38237,7 @@
         <v>196</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38245,7 +38245,7 @@
         <v>331</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38253,15 +38253,15 @@
         <v>197</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B366" s="3" t="s">
         <v>671</v>
-      </c>
-      <c r="B366" s="3" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38269,7 +38269,7 @@
         <v>198</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38277,7 +38277,7 @@
         <v>199</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38285,7 +38285,7 @@
         <v>200</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38293,7 +38293,7 @@
         <v>201</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38301,7 +38301,7 @@
         <v>202</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38309,47 +38309,47 @@
         <v>203</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38357,55 +38357,55 @@
         <v>204</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38413,55 +38413,55 @@
         <v>205</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38469,7 +38469,7 @@
         <v>206</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38477,7 +38477,7 @@
         <v>207</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38485,7 +38485,7 @@
         <v>208</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38493,55 +38493,55 @@
         <v>209</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38549,63 +38549,63 @@
         <v>210</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B409" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38613,7 +38613,7 @@
         <v>211</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38661,7 +38661,7 @@
         <v>213</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38669,7 +38669,7 @@
         <v>214</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38677,7 +38677,7 @@
         <v>215</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38709,7 +38709,7 @@
         <v>219</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38717,7 +38717,7 @@
         <v>220</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38725,7 +38725,7 @@
         <v>221</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38733,7 +38733,7 @@
         <v>222</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38741,7 +38741,7 @@
         <v>223</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38749,7 +38749,7 @@
         <v>224</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38757,7 +38757,7 @@
         <v>332</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38773,7 +38773,7 @@
         <v>225</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38837,7 +38837,7 @@
         <v>449</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38845,31 +38845,31 @@
         <v>451</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B442" s="3" t="s">
         <v>801</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38877,7 +38877,7 @@
         <v>319</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38885,7 +38885,7 @@
         <v>320</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38893,7 +38893,7 @@
         <v>321</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38901,15 +38901,15 @@
         <v>318</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B447" s="3" t="s">
         <v>1068</v>
-      </c>
-      <c r="B447" s="3" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -38917,7 +38917,7 @@
         <v>322</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38981,7 +38981,7 @@
         <v>566</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38997,7 +38997,7 @@
         <v>574</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39005,7 +39005,7 @@
         <v>575</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39029,7 +39029,7 @@
         <v>578</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39037,7 +39037,7 @@
         <v>579</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>585</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39045,7 +39045,7 @@
         <v>580</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -39053,7 +39053,7 @@
         <v>581</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39061,215 +39061,215 @@
         <v>582</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B488" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B490" s="1" t="s">
         <v>1048</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39277,7 +39277,7 @@
         <v>552</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39285,7 +39285,7 @@
         <v>553</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39293,7 +39293,7 @@
         <v>554</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39365,7 +39365,7 @@
         <v>275</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39373,7 +39373,7 @@
         <v>276</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39381,7 +39381,7 @@
         <v>277</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39429,7 +39429,7 @@
         <v>260</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39437,7 +39437,7 @@
         <v>480</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39445,15 +39445,15 @@
         <v>481</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B515" s="3" t="s">
         <v>809</v>
-      </c>
-      <c r="B515" s="3" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39501,7 +39501,7 @@
         <v>285</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39509,7 +39509,7 @@
         <v>286</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39589,7 +39589,7 @@
         <v>296</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39597,7 +39597,7 @@
         <v>297</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -39629,7 +39629,7 @@
         <v>298</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39645,7 +39645,7 @@
         <v>299</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -39669,7 +39669,7 @@
         <v>300</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39677,7 +39677,7 @@
         <v>301</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39717,7 +39717,7 @@
         <v>396</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39730,10 +39730,10 @@
     </row>
     <row r="550" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39741,7 +39741,7 @@
         <v>305</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39770,10 +39770,10 @@
     </row>
     <row r="555" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B555" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39781,7 +39781,7 @@
         <v>306</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39805,7 +39805,7 @@
         <v>307</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="375" x14ac:dyDescent="0.25">
@@ -39813,7 +39813,7 @@
         <v>311</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39837,15 +39837,15 @@
         <v>376</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B564" s="3" t="s">
         <v>753</v>
-      </c>
-      <c r="B564" s="3" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39853,7 +39853,7 @@
         <v>329</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince2\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6BEE11F-6870-4D6E-B047-8AB729932A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B4D98F4-CE59-46A7-9B42-6CCD61243726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="15" windowWidth="25440" windowHeight="15390" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -6674,82 +6674,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>&lt;Bold&gt;e135 Broken Columns&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Along a pallisade of broken columns, you find an altar with an ancient inscription. Since your party includes a magician, wizard, witch, priest, or monk; the incription can be desciphered. Roll one die:
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e042' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e043' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e044' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e045' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e046' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e047' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6
-&lt;LineBreak/&gt;
-          &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BrokenColumns</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='250'  Width='500'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>e035a</t>
   </si>
   <si>
@@ -7239,98 +7163,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>ReaverEnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'  Height='300' Width='150'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Bold&gt;e014a Hostile Reaver Clan Friendly Approach&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die and add two for the number of clan members. Die Roll=
-&lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;The leader has combat skill 5, endurance 5, and wealth 10. Other clan members have combat skill 4, endurance 4, and wealth 4.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you outnumber the clan, see
- &lt;InlineUIContainer&gt;&lt;Button Content='e014b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;
-                                       &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reaver</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reaver</t>
     </r>
     <r>
       <rPr>
@@ -34860,6 +34692,194 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">.gif' Height='100'  Width='100'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e014a Hostile Reaver Clan Friendly Approach&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die and add two for the number of clan members. Die Roll=
+&lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The leader has combat skill 5, endurance 5, and wealth 10. Other clan members have combat skill 4, endurance 4, and wealth 4.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you outnumber the clan, see
+ &lt;InlineUIContainer&gt;&lt;Button Content='e014b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;
+                                              &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reaver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reaver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'  Height='300' Width='150'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e135 Broken Columns&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Along a pallisade of broken columns, you find an altar with an ancient inscription. Since your party includes a magician, wizard, witch, priest, or monk; the incription can be desciphered. Roll one die:
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e042' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e043' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e044' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e045' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e046' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e047' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6
+&lt;LineBreak/&gt;
+          &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BrokenColumns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BrokenColumns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='250'  Width='500'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
 </sst>
@@ -35326,8 +35346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B459" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B463" sqref="B463"/>
+    <sheetView tabSelected="1" topLeftCell="A341" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B343" sqref="B343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35341,7 +35361,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35349,7 +35369,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35357,7 +35377,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35365,15 +35385,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>1100</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35389,7 +35409,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35397,7 +35417,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35405,7 +35425,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35429,7 +35449,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35437,7 +35457,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35445,7 +35465,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35453,7 +35473,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35461,7 +35481,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35469,7 +35489,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35477,7 +35497,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35485,7 +35505,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35493,7 +35513,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35501,7 +35521,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35509,7 +35529,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35517,7 +35537,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35525,7 +35545,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35533,7 +35553,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35541,7 +35561,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35549,7 +35569,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35557,31 +35577,31 @@
         <v>261</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35589,7 +35609,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35597,7 +35617,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35605,23 +35625,23 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35629,23 +35649,23 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>925</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35653,7 +35673,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35661,7 +35681,7 @@
         <v>262</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35669,7 +35689,7 @@
         <v>263</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -35677,7 +35697,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35685,7 +35705,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -35693,7 +35713,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35701,23 +35721,23 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35725,7 +35745,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35733,7 +35753,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35741,7 +35761,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35749,47 +35769,47 @@
         <v>34</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>506</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35797,7 +35817,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35805,23 +35825,23 @@
         <v>265</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35829,7 +35849,7 @@
         <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -35837,23 +35857,23 @@
         <v>36</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35861,7 +35881,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -35869,7 +35889,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35877,7 +35897,7 @@
         <v>43</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35885,23 +35905,23 @@
         <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35909,7 +35929,7 @@
         <v>39</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35941,7 +35961,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35949,7 +35969,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35973,7 +35993,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36013,7 +36033,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36021,7 +36041,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36029,7 +36049,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36037,7 +36057,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36045,31 +36065,31 @@
         <v>58</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>797</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36077,15 +36097,15 @@
         <v>59</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36093,15 +36113,15 @@
         <v>60</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36109,7 +36129,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36117,7 +36137,7 @@
         <v>62</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36141,7 +36161,7 @@
         <v>64</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36149,7 +36169,7 @@
         <v>65</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36157,7 +36177,7 @@
         <v>66</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36213,23 +36233,23 @@
         <v>69</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36237,7 +36257,7 @@
         <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -36269,7 +36289,7 @@
         <v>72</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36277,7 +36297,7 @@
         <v>73</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36325,7 +36345,7 @@
         <v>77</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36338,10 +36358,10 @@
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36349,7 +36369,7 @@
         <v>78</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36357,7 +36377,7 @@
         <v>377</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36397,7 +36417,7 @@
         <v>80</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36405,87 +36425,87 @@
         <v>81</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>989</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36493,7 +36513,7 @@
         <v>82</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36501,15 +36521,15 @@
         <v>83</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36517,7 +36537,7 @@
         <v>84</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36525,23 +36545,23 @@
         <v>85</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36549,7 +36569,7 @@
         <v>86</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36605,7 +36625,7 @@
         <v>346</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36613,7 +36633,7 @@
         <v>348</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36642,10 +36662,10 @@
     </row>
     <row r="164" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36661,7 +36681,7 @@
         <v>445</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36685,23 +36705,23 @@
         <v>90</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36733,7 +36753,7 @@
         <v>93</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -36741,7 +36761,7 @@
         <v>94</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36749,7 +36769,7 @@
         <v>95</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36757,55 +36777,55 @@
         <v>96</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36813,7 +36833,7 @@
         <v>97</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36821,7 +36841,7 @@
         <v>98</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36829,7 +36849,7 @@
         <v>99</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36845,7 +36865,7 @@
         <v>100</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36853,7 +36873,7 @@
         <v>102</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36861,7 +36881,7 @@
         <v>103</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36869,7 +36889,7 @@
         <v>104</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36877,23 +36897,23 @@
         <v>105</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36901,7 +36921,7 @@
         <v>106</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36909,7 +36929,7 @@
         <v>107</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36917,15 +36937,15 @@
         <v>165</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36933,7 +36953,7 @@
         <v>108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -36941,7 +36961,7 @@
         <v>109</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36949,7 +36969,7 @@
         <v>110</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36957,7 +36977,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36965,7 +36985,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36973,23 +36993,23 @@
         <v>168</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36997,39 +37017,39 @@
         <v>111</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37037,7 +37057,7 @@
         <v>112</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37045,7 +37065,7 @@
         <v>169</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37053,7 +37073,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37061,7 +37081,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37069,7 +37089,7 @@
         <v>113</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37077,7 +37097,7 @@
         <v>114</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37085,15 +37105,15 @@
         <v>266</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37101,15 +37121,15 @@
         <v>115</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37117,15 +37137,15 @@
         <v>116</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37133,31 +37153,31 @@
         <v>117</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37165,23 +37185,23 @@
         <v>118</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B230" s="3" t="s">
         <v>943</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37189,23 +37209,23 @@
         <v>119</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B234" s="3" t="s">
         <v>915</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37213,7 +37233,7 @@
         <v>120</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37221,7 +37241,7 @@
         <v>172</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37229,7 +37249,7 @@
         <v>173</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37237,7 +37257,7 @@
         <v>174</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37253,15 +37273,15 @@
         <v>122</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B241" s="3" t="s">
         <v>758</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37269,23 +37289,23 @@
         <v>123</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B243" s="3" t="s">
         <v>937</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37293,7 +37313,7 @@
         <v>124</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37301,15 +37321,15 @@
         <v>125</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B247" s="3" t="s">
         <v>1005</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37317,7 +37337,7 @@
         <v>126</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37325,7 +37345,7 @@
         <v>127</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37333,7 +37353,7 @@
         <v>128</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37341,7 +37361,7 @@
         <v>129</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37349,7 +37369,7 @@
         <v>130</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37357,23 +37377,23 @@
         <v>131</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B255" s="3" t="s">
         <v>963</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37381,7 +37401,7 @@
         <v>132</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37389,15 +37409,15 @@
         <v>133</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37405,23 +37425,23 @@
         <v>134</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37429,15 +37449,15 @@
         <v>135</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37445,7 +37465,7 @@
         <v>136</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37469,7 +37489,7 @@
         <v>233</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37477,7 +37497,7 @@
         <v>138</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37485,7 +37505,7 @@
         <v>234</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37493,7 +37513,7 @@
         <v>235</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37501,7 +37521,7 @@
         <v>139</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37509,7 +37529,7 @@
         <v>239</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37517,7 +37537,7 @@
         <v>240</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37525,7 +37545,7 @@
         <v>241</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37533,7 +37553,7 @@
         <v>140</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37541,7 +37561,7 @@
         <v>236</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37549,7 +37569,7 @@
         <v>237</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37557,7 +37577,7 @@
         <v>238</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37565,7 +37585,7 @@
         <v>141</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37573,7 +37593,7 @@
         <v>142</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37581,7 +37601,7 @@
         <v>143</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37589,7 +37609,7 @@
         <v>144</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37597,7 +37617,7 @@
         <v>242</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37605,7 +37625,7 @@
         <v>145</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37613,7 +37633,7 @@
         <v>146</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37621,7 +37641,7 @@
         <v>147</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37629,7 +37649,7 @@
         <v>148</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37637,31 +37657,31 @@
         <v>149</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37669,15 +37689,15 @@
         <v>150</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B293" s="3" t="s">
         <v>1096</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -37685,7 +37705,7 @@
         <v>151</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37693,7 +37713,7 @@
         <v>243</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37701,7 +37721,7 @@
         <v>244</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37709,7 +37729,7 @@
         <v>245</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37717,7 +37737,7 @@
         <v>152</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37725,7 +37745,7 @@
         <v>153</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37733,7 +37753,7 @@
         <v>154</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37741,7 +37761,7 @@
         <v>155</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37749,7 +37769,7 @@
         <v>156</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37757,7 +37777,7 @@
         <v>157</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37765,7 +37785,7 @@
         <v>246</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37773,7 +37793,7 @@
         <v>247</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37781,7 +37801,7 @@
         <v>248</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37789,7 +37809,7 @@
         <v>158</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37797,7 +37817,7 @@
         <v>159</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37805,7 +37825,7 @@
         <v>160</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37813,7 +37833,7 @@
         <v>161</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37821,31 +37841,31 @@
         <v>162</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B314" s="3" t="s">
         <v>1062</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37853,7 +37873,7 @@
         <v>163</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37861,7 +37881,7 @@
         <v>164</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37869,7 +37889,7 @@
         <v>175</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37877,7 +37897,7 @@
         <v>176</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37885,63 +37905,63 @@
         <v>177</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37949,31 +37969,31 @@
         <v>178</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -37981,7 +38001,7 @@
         <v>179</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37989,7 +38009,7 @@
         <v>249</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37997,7 +38017,7 @@
         <v>250</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38005,7 +38025,7 @@
         <v>251</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38013,7 +38033,7 @@
         <v>252</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38021,23 +38041,23 @@
         <v>253</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38045,7 +38065,7 @@
         <v>180</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38061,7 +38081,7 @@
         <v>469</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38077,7 +38097,7 @@
         <v>183</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38085,7 +38105,7 @@
         <v>184</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>484</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38149,7 +38169,7 @@
         <v>461</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38181,15 +38201,15 @@
         <v>192</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -38197,7 +38217,7 @@
         <v>193</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38213,7 +38233,7 @@
         <v>341</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38221,7 +38241,7 @@
         <v>194</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38229,7 +38249,7 @@
         <v>195</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38237,7 +38257,7 @@
         <v>196</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38245,7 +38265,7 @@
         <v>331</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38253,15 +38273,15 @@
         <v>197</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38269,7 +38289,7 @@
         <v>198</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38277,7 +38297,7 @@
         <v>199</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38285,7 +38305,7 @@
         <v>200</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38293,7 +38313,7 @@
         <v>201</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38301,7 +38321,7 @@
         <v>202</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38309,47 +38329,47 @@
         <v>203</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38357,55 +38377,55 @@
         <v>204</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38413,55 +38433,55 @@
         <v>205</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38469,7 +38489,7 @@
         <v>206</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38477,7 +38497,7 @@
         <v>207</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38485,7 +38505,7 @@
         <v>208</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38493,55 +38513,55 @@
         <v>209</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38549,63 +38569,63 @@
         <v>210</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38613,7 +38633,7 @@
         <v>211</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38621,39 +38641,39 @@
         <v>212</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38661,7 +38681,7 @@
         <v>213</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38669,7 +38689,7 @@
         <v>214</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38677,7 +38697,7 @@
         <v>215</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38685,7 +38705,7 @@
         <v>216</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38693,7 +38713,7 @@
         <v>217</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38701,7 +38721,7 @@
         <v>218</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38709,7 +38729,7 @@
         <v>219</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38717,7 +38737,7 @@
         <v>220</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38725,7 +38745,7 @@
         <v>221</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38733,7 +38753,7 @@
         <v>222</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38741,7 +38761,7 @@
         <v>223</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38749,7 +38769,7 @@
         <v>224</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38757,7 +38777,7 @@
         <v>332</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38773,7 +38793,7 @@
         <v>225</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38781,7 +38801,7 @@
         <v>226</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38789,7 +38809,7 @@
         <v>227</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38797,7 +38817,7 @@
         <v>228</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38805,7 +38825,7 @@
         <v>229</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38813,7 +38833,7 @@
         <v>230</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38829,7 +38849,7 @@
         <v>257</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38837,7 +38857,7 @@
         <v>449</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38845,31 +38865,31 @@
         <v>451</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B440" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="B440" s="3" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38877,7 +38897,7 @@
         <v>319</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38885,7 +38905,7 @@
         <v>320</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38893,7 +38913,7 @@
         <v>321</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38901,15 +38921,15 @@
         <v>318</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -38917,383 +38937,383 @@
         <v>322</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B451" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="B451" s="3" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39365,7 +39385,7 @@
         <v>275</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39373,7 +39393,7 @@
         <v>276</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39381,7 +39401,7 @@
         <v>277</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39429,7 +39449,7 @@
         <v>260</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39437,7 +39457,7 @@
         <v>480</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39445,15 +39465,15 @@
         <v>481</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39501,7 +39521,7 @@
         <v>285</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39509,7 +39529,7 @@
         <v>286</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39589,7 +39609,7 @@
         <v>296</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39597,7 +39617,7 @@
         <v>297</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -39621,7 +39641,7 @@
         <v>406</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39629,7 +39649,7 @@
         <v>298</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39645,7 +39665,7 @@
         <v>299</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -39669,7 +39689,7 @@
         <v>300</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39677,7 +39697,7 @@
         <v>301</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39717,7 +39737,7 @@
         <v>396</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39730,10 +39750,10 @@
     </row>
     <row r="550" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39741,7 +39761,7 @@
         <v>305</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39765,15 +39785,15 @@
         <v>395</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39781,7 +39801,7 @@
         <v>306</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39805,7 +39825,7 @@
         <v>307</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="375" x14ac:dyDescent="0.25">
@@ -39813,7 +39833,7 @@
         <v>311</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39821,7 +39841,7 @@
         <v>390</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39837,15 +39857,15 @@
         <v>376</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39853,7 +39873,7 @@
         <v>329</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B4D98F4-CE59-46A7-9B42-6CCD61243726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93AB987B-673F-4C1D-96B8-0DAF39C11289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -9666,59 +9666,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e209h Buy Valuable Information&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you buy it, roll one die:  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21' Width='21'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt; 
-&lt;LineBreak/&gt;   1 - Bogus secrets prove worthless
-&lt;LineBreak/&gt;   2 - &lt;InlineUIContainer&gt;&lt;Button Content='e147' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;   3 - &lt;InlineUIContainer&gt;&lt;Button Content='e143' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;   4 - &lt;InlineUIContainer&gt;&lt;Button Content='e144' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;   5 - &lt;InlineUIContainer&gt;&lt;Button Content='e145' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;   6 - &lt;InlineUIContainer&gt;&lt;Button Content='e146' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e016 Magician's Home&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You spot a magician home. Choose the approach strategy.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
@@ -33923,56 +33870,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e134 Unstable Ruins&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;In the ruins are many unstable walls and rocks making your search very dangerous. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Image Name='ShakeyWallsEnd' Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Campfire2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='75'  Width='75'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;Click the campfire to abandon search.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Image Name='ShakeyWalls' Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ShakyWalls</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.gif' Height='75'  Width='75'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; Click the shaking walls to continue. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e208 Searching a Ruin&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r208' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Spend the day searching a ruins with your party. To see what happens during the search, roll two dice:
  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
@@ -34880,6 +34777,171 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Height='250'  Width='500'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e134 Unstable Ruins&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;In the ruins are many unstable walls and rocks making your search very dangerous. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Image Name='ShakeyWallsEnd' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Campfire2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='75'  Width='75'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;Click the campfire to abandon search.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ShakeyWalls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ShakyWalls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.gif' Height='75'  Width='75'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt; Click the shaking walls to continue. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e209h Buy Valuable Information&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you buy it, roll one die:  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21' Width='21'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt; 
+&lt;LineBreak/&gt;   1 - Bogus secrets prove worthless
+&lt;LineBreak/&gt;   2 - &lt;InlineUIContainer&gt;&lt;Button Content='e147' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;   3 - &lt;InlineUIContainer&gt;&lt;Button Content='e143' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;   4 - &lt;InlineUIContainer&gt;&lt;Button Content='e144' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;   5 - &lt;InlineUIContainer&gt;&lt;Button Content='e145' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;   6 - &lt;InlineUIContainer&gt;&lt;Button Content='e146' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;InlineUIContainer&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BuyInfoEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nothing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='150' Width='150'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
 </sst>
@@ -35346,8 +35408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B343" sqref="B343"/>
+    <sheetView tabSelected="1" topLeftCell="A456" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B457" sqref="B457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35361,7 +35423,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35369,7 +35431,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35377,7 +35439,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35385,15 +35447,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35409,7 +35471,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35417,7 +35479,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35449,7 +35511,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35457,7 +35519,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35465,7 +35527,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35473,7 +35535,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35481,7 +35543,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35489,7 +35551,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35497,7 +35559,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35505,7 +35567,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35513,7 +35575,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35521,7 +35583,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35529,7 +35591,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35537,7 +35599,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35545,7 +35607,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35553,7 +35615,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35561,7 +35623,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35569,7 +35631,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35577,31 +35639,31 @@
         <v>261</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35609,7 +35671,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35617,7 +35679,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35625,23 +35687,23 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35649,23 +35711,23 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35673,7 +35735,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35697,7 +35759,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35713,7 +35775,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35721,7 +35783,7 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -35734,10 +35796,10 @@
     </row>
     <row r="48" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35745,7 +35807,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35753,7 +35815,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35761,7 +35823,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35793,7 +35855,7 @@
         <v>501</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35817,7 +35879,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35825,7 +35887,7 @@
         <v>265</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35841,7 +35903,7 @@
         <v>563</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35849,7 +35911,7 @@
         <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -35881,7 +35943,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -35889,7 +35951,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35897,7 +35959,7 @@
         <v>43</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35905,23 +35967,23 @@
         <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35929,7 +35991,7 @@
         <v>39</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35961,7 +36023,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35969,7 +36031,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35993,7 +36055,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36033,7 +36095,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36041,7 +36103,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36049,7 +36111,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36057,7 +36119,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36065,31 +36127,31 @@
         <v>58</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>802</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36097,15 +36159,15 @@
         <v>59</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>917</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36113,15 +36175,15 @@
         <v>60</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36129,7 +36191,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36137,7 +36199,7 @@
         <v>62</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36169,7 +36231,7 @@
         <v>65</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36177,7 +36239,7 @@
         <v>66</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36257,7 +36319,7 @@
         <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -36289,7 +36351,7 @@
         <v>72</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36297,7 +36359,7 @@
         <v>73</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36345,7 +36407,7 @@
         <v>77</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36358,10 +36420,10 @@
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>969</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36369,7 +36431,7 @@
         <v>78</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36377,7 +36439,7 @@
         <v>377</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36417,7 +36479,7 @@
         <v>80</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36425,87 +36487,87 @@
         <v>81</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>985</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36513,7 +36575,7 @@
         <v>82</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36521,12 +36583,12 @@
         <v>83</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>559</v>
@@ -36561,7 +36623,7 @@
         <v>558</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36569,7 +36631,7 @@
         <v>86</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36625,7 +36687,7 @@
         <v>346</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36633,7 +36695,7 @@
         <v>348</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36662,10 +36724,10 @@
     </row>
     <row r="164" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36681,7 +36743,7 @@
         <v>445</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36705,23 +36767,23 @@
         <v>90</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36753,7 +36815,7 @@
         <v>93</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -36761,7 +36823,7 @@
         <v>94</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36769,7 +36831,7 @@
         <v>95</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36777,55 +36839,55 @@
         <v>96</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>888</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36833,7 +36895,7 @@
         <v>97</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36841,7 +36903,7 @@
         <v>98</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36849,7 +36911,7 @@
         <v>99</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36865,7 +36927,7 @@
         <v>100</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36873,7 +36935,7 @@
         <v>102</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36881,7 +36943,7 @@
         <v>103</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36889,7 +36951,7 @@
         <v>104</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36897,23 +36959,23 @@
         <v>105</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36921,7 +36983,7 @@
         <v>106</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36929,7 +36991,7 @@
         <v>107</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36937,15 +36999,15 @@
         <v>165</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36953,7 +37015,7 @@
         <v>108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -36961,7 +37023,7 @@
         <v>109</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36969,7 +37031,7 @@
         <v>110</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36977,7 +37039,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36985,7 +37047,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36993,23 +37055,23 @@
         <v>168</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>903</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37017,39 +37079,39 @@
         <v>111</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B212" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37057,7 +37119,7 @@
         <v>112</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37065,7 +37127,7 @@
         <v>169</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37073,7 +37135,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37081,7 +37143,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37089,7 +37151,7 @@
         <v>113</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37097,7 +37159,7 @@
         <v>114</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37105,15 +37167,15 @@
         <v>266</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37121,15 +37183,15 @@
         <v>115</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37137,15 +37199,15 @@
         <v>116</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37153,31 +37215,31 @@
         <v>117</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>762</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37185,23 +37247,23 @@
         <v>118</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37209,23 +37271,23 @@
         <v>119</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37233,7 +37295,7 @@
         <v>120</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37241,7 +37303,7 @@
         <v>172</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37249,7 +37311,7 @@
         <v>173</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37257,7 +37319,7 @@
         <v>174</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37273,15 +37335,15 @@
         <v>122</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37289,23 +37351,23 @@
         <v>123</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37313,7 +37375,7 @@
         <v>124</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37321,15 +37383,15 @@
         <v>125</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37337,7 +37399,7 @@
         <v>126</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37345,7 +37407,7 @@
         <v>127</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37353,7 +37415,7 @@
         <v>128</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37361,7 +37423,7 @@
         <v>129</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37369,7 +37431,7 @@
         <v>130</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37377,23 +37439,23 @@
         <v>131</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>959</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37401,7 +37463,7 @@
         <v>132</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37409,15 +37471,15 @@
         <v>133</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37425,23 +37487,23 @@
         <v>134</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>1014</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>1016</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37449,15 +37511,15 @@
         <v>135</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>1019</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37465,7 +37527,7 @@
         <v>136</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37489,7 +37551,7 @@
         <v>233</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37497,7 +37559,7 @@
         <v>138</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37505,7 +37567,7 @@
         <v>234</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37513,7 +37575,7 @@
         <v>235</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37521,7 +37583,7 @@
         <v>139</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37529,7 +37591,7 @@
         <v>239</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37537,7 +37599,7 @@
         <v>240</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37545,7 +37607,7 @@
         <v>241</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37553,7 +37615,7 @@
         <v>140</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37561,7 +37623,7 @@
         <v>236</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37569,7 +37631,7 @@
         <v>237</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37577,7 +37639,7 @@
         <v>238</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37585,7 +37647,7 @@
         <v>141</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37593,7 +37655,7 @@
         <v>142</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37601,7 +37663,7 @@
         <v>143</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37609,7 +37671,7 @@
         <v>144</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37617,7 +37679,7 @@
         <v>242</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37625,7 +37687,7 @@
         <v>145</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37633,7 +37695,7 @@
         <v>146</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37641,7 +37703,7 @@
         <v>147</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37649,7 +37711,7 @@
         <v>148</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37657,31 +37719,31 @@
         <v>149</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>1090</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37689,15 +37751,15 @@
         <v>150</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -37705,7 +37767,7 @@
         <v>151</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37713,7 +37775,7 @@
         <v>243</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37721,7 +37783,7 @@
         <v>244</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37729,7 +37791,7 @@
         <v>245</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37737,7 +37799,7 @@
         <v>152</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37745,7 +37807,7 @@
         <v>153</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37753,7 +37815,7 @@
         <v>154</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37761,7 +37823,7 @@
         <v>155</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37769,7 +37831,7 @@
         <v>156</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37777,7 +37839,7 @@
         <v>157</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37785,7 +37847,7 @@
         <v>246</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37793,7 +37855,7 @@
         <v>247</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37801,7 +37863,7 @@
         <v>248</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37809,7 +37871,7 @@
         <v>158</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37817,7 +37879,7 @@
         <v>159</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37825,7 +37887,7 @@
         <v>160</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37833,7 +37895,7 @@
         <v>161</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37841,31 +37903,31 @@
         <v>162</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37873,7 +37935,7 @@
         <v>163</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37881,7 +37943,7 @@
         <v>164</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37889,7 +37951,7 @@
         <v>175</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37897,7 +37959,7 @@
         <v>176</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37905,7 +37967,7 @@
         <v>177</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -37913,7 +37975,7 @@
         <v>525</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37921,7 +37983,7 @@
         <v>526</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37929,7 +37991,7 @@
         <v>527</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -37937,7 +37999,7 @@
         <v>528</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37945,7 +38007,7 @@
         <v>529</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37953,15 +38015,15 @@
         <v>530</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B326" s="3" t="s">
         <v>1112</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37969,7 +38031,7 @@
         <v>178</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -37977,7 +38039,7 @@
         <v>499</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37985,7 +38047,7 @@
         <v>555</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37993,7 +38055,7 @@
         <v>556</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -38001,7 +38063,7 @@
         <v>179</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38009,7 +38071,7 @@
         <v>249</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38017,7 +38079,7 @@
         <v>250</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38025,7 +38087,7 @@
         <v>251</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38033,7 +38095,7 @@
         <v>252</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38041,23 +38103,23 @@
         <v>253</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38065,7 +38127,7 @@
         <v>180</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38097,7 +38159,7 @@
         <v>183</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1115</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38105,7 +38167,7 @@
         <v>184</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38169,7 +38231,7 @@
         <v>461</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38201,15 +38263,15 @@
         <v>192</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B357" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -38217,7 +38279,7 @@
         <v>193</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38233,7 +38295,7 @@
         <v>341</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38241,7 +38303,7 @@
         <v>194</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38249,7 +38311,7 @@
         <v>195</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38257,7 +38319,7 @@
         <v>196</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38265,7 +38327,7 @@
         <v>331</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38273,15 +38335,15 @@
         <v>197</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B366" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="B366" s="3" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38289,7 +38351,7 @@
         <v>198</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38297,7 +38359,7 @@
         <v>199</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38305,7 +38367,7 @@
         <v>200</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38313,7 +38375,7 @@
         <v>201</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38321,7 +38383,7 @@
         <v>202</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38329,47 +38391,47 @@
         <v>203</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38377,55 +38439,55 @@
         <v>204</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38433,55 +38495,55 @@
         <v>205</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38489,7 +38551,7 @@
         <v>206</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38497,7 +38559,7 @@
         <v>207</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38505,7 +38567,7 @@
         <v>208</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38513,55 +38575,55 @@
         <v>209</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38569,63 +38631,63 @@
         <v>210</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B409" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38633,7 +38695,7 @@
         <v>211</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38681,7 +38743,7 @@
         <v>213</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38689,7 +38751,7 @@
         <v>214</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38697,7 +38759,7 @@
         <v>215</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38729,7 +38791,7 @@
         <v>219</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38737,7 +38799,7 @@
         <v>220</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38745,7 +38807,7 @@
         <v>221</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38753,7 +38815,7 @@
         <v>222</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38761,7 +38823,7 @@
         <v>223</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38769,7 +38831,7 @@
         <v>224</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38777,7 +38839,7 @@
         <v>332</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38793,7 +38855,7 @@
         <v>225</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38857,7 +38919,7 @@
         <v>449</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38865,31 +38927,31 @@
         <v>451</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B442" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38897,7 +38959,7 @@
         <v>319</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38905,7 +38967,7 @@
         <v>320</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38913,7 +38975,7 @@
         <v>321</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38921,15 +38983,15 @@
         <v>318</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B447" s="3" t="s">
         <v>1065</v>
-      </c>
-      <c r="B447" s="3" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -38937,7 +38999,7 @@
         <v>322</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38953,7 +39015,7 @@
         <v>490</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39001,295 +39063,295 @@
         <v>564</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>568</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>569</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B488" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B490" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39297,7 +39359,7 @@
         <v>550</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39305,7 +39367,7 @@
         <v>551</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39313,7 +39375,7 @@
         <v>552</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39385,7 +39447,7 @@
         <v>275</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39393,7 +39455,7 @@
         <v>276</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39401,7 +39463,7 @@
         <v>277</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39449,7 +39511,7 @@
         <v>260</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39457,7 +39519,7 @@
         <v>480</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39465,15 +39527,15 @@
         <v>481</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B515" s="3" t="s">
         <v>806</v>
-      </c>
-      <c r="B515" s="3" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39521,7 +39583,7 @@
         <v>285</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39529,7 +39591,7 @@
         <v>286</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39609,7 +39671,7 @@
         <v>296</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39617,7 +39679,7 @@
         <v>297</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -39649,7 +39711,7 @@
         <v>298</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39665,7 +39727,7 @@
         <v>299</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -39689,7 +39751,7 @@
         <v>300</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39697,7 +39759,7 @@
         <v>301</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39737,7 +39799,7 @@
         <v>396</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39750,10 +39812,10 @@
     </row>
     <row r="550" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39761,7 +39823,7 @@
         <v>305</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39790,10 +39852,10 @@
     </row>
     <row r="555" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B555" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39801,7 +39863,7 @@
         <v>306</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39825,7 +39887,7 @@
         <v>307</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="375" x14ac:dyDescent="0.25">
@@ -39833,7 +39895,7 @@
         <v>311</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39857,15 +39919,15 @@
         <v>376</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B564" s="3" t="s">
         <v>750</v>
-      </c>
-      <c r="B564" s="3" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39873,7 +39935,7 @@
         <v>329</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93AB987B-673F-4C1D-96B8-0DAF39C11289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{606C653B-432B-45CB-A649-B16508CC3093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -27786,63 +27786,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e086a High Pass Travels&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;When you travel the high pass,  roll for the effects of high winds, sub-freezing temperatures, snow, etc. Roll two die for the entire party: &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DiceRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21' Width='21' &gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;
-&lt;LineBreak/&gt;8 = Characters suffers wound
-&lt;LineBreak/&gt;9 = Characters suffer 2 wounds
-&lt;LineBreak/&gt;10 = Characters suffer 3 wounds
-&lt;LineBreak/&gt;11 = Characters suffer 4 wounds
-&lt;LineBreak/&gt;12 = Characters suffer 4 wounds plus poison wound
-&lt;LineBreak/&gt;Additionally, if greater than 8, all mounts die
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-No caches are allowed. Due to terrible conditions, if your transport ability
- &lt;InlineUIContainer&gt;&lt;Button Content='r206' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- is reduced due to loss of characters or mounts, you cannot cache spare wealth and possessions. They must be abandoned in the snows and lost entirely.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e210a Freeman Available&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;A freeman joins your party at no cost (except food and lodging). He has a combat skill 3 and endurance 4. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Click to not allow him to join:
@@ -34942,6 +34885,63 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Height='150' Width='150'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e086a High Pass Travels&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;When you travel the high pass, roll for the effects of high winds, sub-freezing temperatures, snow, etc. Roll two die for the entire party: &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DiceRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21' Width='21' &gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;
+&lt;LineBreak/&gt;8 = Characters suffers wound
+&lt;LineBreak/&gt;9 = Characters suffer 2 wounds
+&lt;LineBreak/&gt;10 = Characters suffer 3 wounds
+&lt;LineBreak/&gt;11 = Characters suffer 4 wounds
+&lt;LineBreak/&gt;12 = Characters suffer 4 wounds plus poison wound
+&lt;LineBreak/&gt;Additionally, if greater than 8, all mounts die
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+No caches are allowed. Due to terrible conditions, if your transport ability
+ &lt;InlineUIContainer&gt;&lt;Button Content='r206' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ is reduced due to loss of characters or mounts, you cannot cache spare wealth and possessions. They must be abandoned in the snows and lost entirely.</t>
     </r>
   </si>
 </sst>
@@ -35408,8 +35408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A456" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B457" sqref="B457"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35423,7 +35423,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35431,7 +35431,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35439,7 +35439,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35447,15 +35447,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35479,7 +35479,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35511,7 +35511,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35711,7 +35711,7 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35735,7 +35735,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35775,7 +35775,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35799,7 +35799,7 @@
         <v>715</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35807,7 +35807,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35855,7 +35855,7 @@
         <v>501</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35879,7 +35879,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35887,7 +35887,7 @@
         <v>265</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36023,7 +36023,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36031,7 +36031,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36183,7 +36183,7 @@
         <v>791</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36319,7 +36319,7 @@
         <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -36588,7 +36588,7 @@
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>559</v>
@@ -36943,7 +36943,7 @@
         <v>103</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37015,7 +37015,7 @@
         <v>108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -37039,7 +37039,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37047,7 +37047,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37143,7 +37143,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37151,7 +37151,7 @@
         <v>113</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37199,7 +37199,7 @@
         <v>116</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37263,7 +37263,7 @@
         <v>941</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37391,7 +37391,7 @@
         <v>1002</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1004</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37399,7 +37399,7 @@
         <v>126</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37423,7 +37423,7 @@
         <v>129</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37463,7 +37463,7 @@
         <v>132</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37471,7 +37471,7 @@
         <v>133</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37479,7 +37479,7 @@
         <v>954</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37487,23 +37487,23 @@
         <v>134</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>1013</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>1015</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37511,15 +37511,15 @@
         <v>135</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>1018</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37527,7 +37527,7 @@
         <v>136</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37615,7 +37615,7 @@
         <v>140</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37623,7 +37623,7 @@
         <v>236</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37631,7 +37631,7 @@
         <v>237</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37639,7 +37639,7 @@
         <v>238</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37647,7 +37647,7 @@
         <v>141</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37655,7 +37655,7 @@
         <v>142</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37663,7 +37663,7 @@
         <v>143</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37671,7 +37671,7 @@
         <v>144</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37679,7 +37679,7 @@
         <v>242</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37687,7 +37687,7 @@
         <v>145</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37695,7 +37695,7 @@
         <v>146</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37703,7 +37703,7 @@
         <v>147</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37711,7 +37711,7 @@
         <v>148</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37719,31 +37719,31 @@
         <v>149</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>1089</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37751,15 +37751,15 @@
         <v>150</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -37807,7 +37807,7 @@
         <v>153</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37887,7 +37887,7 @@
         <v>160</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37895,7 +37895,7 @@
         <v>161</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37903,31 +37903,31 @@
         <v>162</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37935,7 +37935,7 @@
         <v>163</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37943,7 +37943,7 @@
         <v>164</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37951,7 +37951,7 @@
         <v>175</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37959,7 +37959,7 @@
         <v>176</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37967,7 +37967,7 @@
         <v>177</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -37975,7 +37975,7 @@
         <v>525</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37983,7 +37983,7 @@
         <v>526</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37991,7 +37991,7 @@
         <v>527</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -37999,7 +37999,7 @@
         <v>528</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38007,7 +38007,7 @@
         <v>529</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38015,15 +38015,15 @@
         <v>530</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B326" s="3" t="s">
         <v>1111</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -38031,7 +38031,7 @@
         <v>178</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38039,7 +38039,7 @@
         <v>499</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38047,7 +38047,7 @@
         <v>555</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38055,7 +38055,7 @@
         <v>556</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -38095,7 +38095,7 @@
         <v>252</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38127,7 +38127,7 @@
         <v>180</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38159,7 +38159,7 @@
         <v>183</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38167,7 +38167,7 @@
         <v>184</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38759,7 +38759,7 @@
         <v>215</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38807,7 +38807,7 @@
         <v>221</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38815,7 +38815,7 @@
         <v>222</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38823,7 +38823,7 @@
         <v>223</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38831,7 +38831,7 @@
         <v>224</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38839,7 +38839,7 @@
         <v>332</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38919,7 +38919,7 @@
         <v>449</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38959,7 +38959,7 @@
         <v>319</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38967,7 +38967,7 @@
         <v>320</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38975,7 +38975,7 @@
         <v>321</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38983,15 +38983,15 @@
         <v>318</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B447" s="3" t="s">
         <v>1064</v>
-      </c>
-      <c r="B447" s="3" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -38999,7 +38999,7 @@
         <v>322</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39071,7 +39071,7 @@
         <v>568</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -39087,7 +39087,7 @@
         <v>572</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39119,7 +39119,7 @@
         <v>576</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39324,18 +39324,18 @@
     </row>
     <row r="489" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B490" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39351,7 +39351,7 @@
         <v>735</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39447,7 +39447,7 @@
         <v>275</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39455,7 +39455,7 @@
         <v>276</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39463,7 +39463,7 @@
         <v>277</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39511,7 +39511,7 @@
         <v>260</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39887,7 +39887,7 @@
         <v>307</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="375" x14ac:dyDescent="0.25">
@@ -39919,7 +39919,7 @@
         <v>376</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="60" x14ac:dyDescent="0.25">

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{420C7E61-F201-4F5F-BFBC-25516A08D876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0AC7F0B-7CD2-4C63-B5F7-EEAB4EDAA33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-25320" yWindow="15" windowWidth="25440" windowHeight="15390" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -3235,61 +3235,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e002c Evade Royal Guardsmen&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt; Roll one die: 
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e307' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1: Attacked&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e306' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2: Attack&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e304' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3: Attack&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e318' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4: Hide&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e312' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5: Escape&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e312' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6: Escape Mtd&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e312' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 7: Escape Mtd</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e002d Fight Mercenary Royal Guardsmen&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt; Roll one die: 
  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
@@ -31075,116 +31020,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;LineBreak/&gt;&lt;Bold&gt;Game Events Shown Here&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Active events show a green background. The game may only advance when a green background is displayed. However, the game lets you explore what may happen by showing inactive events. Inactive events have a gray background. To return to the current active event, select the active event button in the status bar per the image.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                     &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tutorial0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='70'  Width='370'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read_Rules</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Content='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read Rules</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' FontFamily='Courier New'  FontSize='12'&gt; &lt;/Button&gt;&lt;/InlineUIContainer&gt; or &lt;InlineUIContainer&gt;&lt;Button Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Begin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Content='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Begin Game</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' FontFamily='Courier New'  FontSize='12'&gt; &lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e218 Escape&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r218a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt; Managed to find an escape path. Click image to continue.
 &lt;LineBreak/&gt; &lt;LineBreak/&gt; 
@@ -34942,6 +34777,171 @@
         <scheme val="minor"/>
       </rPr>
       <t>' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e002c Evade Mercenary Royal Guardsmen&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt; Roll one die: 
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e307' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1: Attacked&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e306' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2: Attack&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e304' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3: Attack&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e318' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4: Hide&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e312' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5: Escape&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e312' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6: Escape Mtd&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e312' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 7: Escape Mtd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;LineBreak/&gt;&lt;Bold&gt;e000 Game Events Shown Here&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Active events show a green background. The game may only advance when a green background is displayed. However, the game lets you explore what may happen by showing inactive events. Inactive events have a gray background. To return to the current active event, select the active event button in the status bar per the image.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                     &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tutorial0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='70'  Width='370'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read_Rules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Content='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read Rules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' FontFamily='Courier New'  FontSize='12'&gt; &lt;/Button&gt;&lt;/InlineUIContainer&gt; or &lt;InlineUIContainer&gt;&lt;Button Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Begin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Content='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Begin Game</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' FontFamily='Courier New'  FontSize='12'&gt; &lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
 </sst>
@@ -35408,8 +35408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35423,7 +35423,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1065</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35431,7 +35431,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35439,7 +35439,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35447,15 +35447,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35471,7 +35471,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35479,7 +35479,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35487,7 +35487,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35495,7 +35495,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>402</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35503,7 +35503,7 @@
         <v>258</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35511,7 +35511,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35519,7 +35519,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35527,7 +35527,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35535,7 +35535,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35543,7 +35543,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35551,7 +35551,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35559,7 +35559,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35567,7 +35567,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35575,7 +35575,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35583,7 +35583,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35591,7 +35591,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35599,7 +35599,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35607,7 +35607,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35615,7 +35615,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35623,7 +35623,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35631,7 +35631,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35639,31 +35639,31 @@
         <v>261</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35671,7 +35671,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35679,7 +35679,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35687,23 +35687,23 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35711,23 +35711,23 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35735,7 +35735,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35743,7 +35743,7 @@
         <v>262</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35751,7 +35751,7 @@
         <v>263</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -35759,7 +35759,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35767,7 +35767,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -35775,7 +35775,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35783,23 +35783,23 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35807,7 +35807,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35815,7 +35815,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35823,7 +35823,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35831,47 +35831,47 @@
         <v>34</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35879,7 +35879,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35887,23 +35887,23 @@
         <v>265</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35911,7 +35911,7 @@
         <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -35919,23 +35919,23 @@
         <v>36</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35943,7 +35943,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -35951,7 +35951,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35959,7 +35959,7 @@
         <v>43</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35967,23 +35967,23 @@
         <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>711</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35991,7 +35991,7 @@
         <v>39</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35999,7 +35999,7 @@
         <v>40</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36007,7 +36007,7 @@
         <v>41</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36015,7 +36015,7 @@
         <v>45</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36023,7 +36023,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36031,7 +36031,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36039,7 +36039,7 @@
         <v>47</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36047,7 +36047,7 @@
         <v>48</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36055,7 +36055,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36063,7 +36063,7 @@
         <v>50</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36071,7 +36071,7 @@
         <v>51</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36079,7 +36079,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36095,7 +36095,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36103,7 +36103,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36111,7 +36111,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36119,7 +36119,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36127,31 +36127,31 @@
         <v>58</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36159,15 +36159,15 @@
         <v>59</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>892</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36175,15 +36175,15 @@
         <v>60</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36191,7 +36191,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36199,7 +36199,7 @@
         <v>62</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36223,7 +36223,7 @@
         <v>64</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36231,7 +36231,7 @@
         <v>65</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36239,7 +36239,7 @@
         <v>66</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36255,15 +36255,15 @@
         <v>67</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36279,15 +36279,15 @@
         <v>361</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36295,23 +36295,23 @@
         <v>69</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36319,7 +36319,7 @@
         <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -36351,7 +36351,7 @@
         <v>72</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36359,7 +36359,7 @@
         <v>73</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36407,7 +36407,7 @@
         <v>77</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36420,10 +36420,10 @@
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36431,7 +36431,7 @@
         <v>78</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36439,7 +36439,7 @@
         <v>376</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36479,7 +36479,7 @@
         <v>80</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36487,87 +36487,87 @@
         <v>81</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>954</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36575,7 +36575,7 @@
         <v>82</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36583,15 +36583,15 @@
         <v>83</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36599,7 +36599,7 @@
         <v>84</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36607,23 +36607,23 @@
         <v>85</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36631,7 +36631,7 @@
         <v>86</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36639,7 +36639,7 @@
         <v>87</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36647,15 +36647,15 @@
         <v>342</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="345" x14ac:dyDescent="0.25">
@@ -36671,7 +36671,7 @@
         <v>343</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36679,7 +36679,7 @@
         <v>344</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36687,7 +36687,7 @@
         <v>345</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36695,7 +36695,7 @@
         <v>347</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36724,10 +36724,10 @@
     </row>
     <row r="164" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36735,31 +36735,31 @@
         <v>89</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36767,23 +36767,23 @@
         <v>90</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36791,15 +36791,15 @@
         <v>91</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36807,7 +36807,7 @@
         <v>92</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36815,7 +36815,7 @@
         <v>93</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -36823,7 +36823,7 @@
         <v>94</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36831,7 +36831,7 @@
         <v>95</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36839,55 +36839,55 @@
         <v>96</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>868</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36895,7 +36895,7 @@
         <v>97</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36903,7 +36903,7 @@
         <v>98</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36911,7 +36911,7 @@
         <v>99</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36919,7 +36919,7 @@
         <v>101</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36927,7 +36927,7 @@
         <v>100</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36935,7 +36935,7 @@
         <v>102</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36943,7 +36943,7 @@
         <v>103</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36951,7 +36951,7 @@
         <v>104</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36959,23 +36959,23 @@
         <v>105</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>695</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36983,7 +36983,7 @@
         <v>106</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36991,7 +36991,7 @@
         <v>107</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36999,15 +36999,15 @@
         <v>165</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37015,7 +37015,7 @@
         <v>108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -37023,7 +37023,7 @@
         <v>109</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37031,7 +37031,7 @@
         <v>110</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37039,7 +37039,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37047,7 +37047,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37055,23 +37055,23 @@
         <v>168</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>883</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37079,39 +37079,39 @@
         <v>111</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B212" s="3" t="s">
         <v>726</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37119,7 +37119,7 @@
         <v>112</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37127,7 +37127,7 @@
         <v>169</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37135,7 +37135,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37143,7 +37143,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37151,7 +37151,7 @@
         <v>113</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37159,7 +37159,7 @@
         <v>114</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37167,15 +37167,15 @@
         <v>266</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37183,15 +37183,15 @@
         <v>115</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37199,15 +37199,15 @@
         <v>116</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37215,31 +37215,31 @@
         <v>117</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>750</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37247,23 +37247,23 @@
         <v>118</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37271,23 +37271,23 @@
         <v>119</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37295,7 +37295,7 @@
         <v>120</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37303,7 +37303,7 @@
         <v>172</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37311,7 +37311,7 @@
         <v>173</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37319,7 +37319,7 @@
         <v>174</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37327,7 +37327,7 @@
         <v>121</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37335,15 +37335,15 @@
         <v>122</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37351,23 +37351,23 @@
         <v>123</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37375,7 +37375,7 @@
         <v>124</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37383,15 +37383,15 @@
         <v>125</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37399,7 +37399,7 @@
         <v>126</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37407,7 +37407,7 @@
         <v>127</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37415,7 +37415,7 @@
         <v>128</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37423,7 +37423,7 @@
         <v>129</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37431,7 +37431,7 @@
         <v>130</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37439,23 +37439,23 @@
         <v>131</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>930</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37463,7 +37463,7 @@
         <v>132</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37471,15 +37471,15 @@
         <v>133</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37487,23 +37487,23 @@
         <v>134</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>982</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>984</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37511,15 +37511,15 @@
         <v>135</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>987</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37527,7 +37527,7 @@
         <v>136</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37535,7 +37535,7 @@
         <v>137</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37543,7 +37543,7 @@
         <v>232</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37551,7 +37551,7 @@
         <v>233</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37559,7 +37559,7 @@
         <v>138</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37567,7 +37567,7 @@
         <v>234</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37575,7 +37575,7 @@
         <v>235</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37583,7 +37583,7 @@
         <v>139</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37591,7 +37591,7 @@
         <v>239</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37599,7 +37599,7 @@
         <v>240</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37607,7 +37607,7 @@
         <v>241</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37615,7 +37615,7 @@
         <v>140</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37623,7 +37623,7 @@
         <v>236</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37631,7 +37631,7 @@
         <v>237</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37639,7 +37639,7 @@
         <v>238</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37647,7 +37647,7 @@
         <v>141</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37655,7 +37655,7 @@
         <v>142</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37663,7 +37663,7 @@
         <v>143</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37671,7 +37671,7 @@
         <v>144</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37679,7 +37679,7 @@
         <v>242</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37687,7 +37687,7 @@
         <v>145</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37695,7 +37695,7 @@
         <v>146</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37703,7 +37703,7 @@
         <v>147</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37711,7 +37711,7 @@
         <v>148</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37719,31 +37719,31 @@
         <v>149</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>1052</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37751,15 +37751,15 @@
         <v>150</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -37767,7 +37767,7 @@
         <v>151</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37775,7 +37775,7 @@
         <v>243</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37783,7 +37783,7 @@
         <v>244</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37791,7 +37791,7 @@
         <v>245</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37799,7 +37799,7 @@
         <v>152</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37807,7 +37807,7 @@
         <v>153</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37815,7 +37815,7 @@
         <v>154</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37823,7 +37823,7 @@
         <v>155</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37831,7 +37831,7 @@
         <v>156</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37839,7 +37839,7 @@
         <v>157</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37847,7 +37847,7 @@
         <v>246</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37855,7 +37855,7 @@
         <v>247</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37863,7 +37863,7 @@
         <v>248</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37871,7 +37871,7 @@
         <v>158</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37879,7 +37879,7 @@
         <v>159</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37887,7 +37887,7 @@
         <v>160</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37895,7 +37895,7 @@
         <v>161</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37903,31 +37903,31 @@
         <v>162</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37935,7 +37935,7 @@
         <v>163</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37943,7 +37943,7 @@
         <v>164</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37951,7 +37951,7 @@
         <v>175</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37959,7 +37959,7 @@
         <v>176</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37967,63 +37967,63 @@
         <v>177</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -38031,31 +38031,31 @@
         <v>178</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -38063,7 +38063,7 @@
         <v>179</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38071,7 +38071,7 @@
         <v>249</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38079,7 +38079,7 @@
         <v>250</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38087,7 +38087,7 @@
         <v>251</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38095,7 +38095,7 @@
         <v>252</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38103,23 +38103,23 @@
         <v>253</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38127,7 +38127,7 @@
         <v>180</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38135,15 +38135,15 @@
         <v>181</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38159,7 +38159,7 @@
         <v>183</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38167,7 +38167,7 @@
         <v>184</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38191,7 +38191,7 @@
         <v>186</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38199,15 +38199,15 @@
         <v>187</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38215,7 +38215,7 @@
         <v>188</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38223,23 +38223,23 @@
         <v>189</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B353" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38247,7 +38247,7 @@
         <v>190</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38255,7 +38255,7 @@
         <v>191</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38263,15 +38263,15 @@
         <v>192</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B357" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -38279,7 +38279,7 @@
         <v>193</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38287,7 +38287,7 @@
         <v>340</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38295,7 +38295,7 @@
         <v>341</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38303,7 +38303,7 @@
         <v>194</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38311,7 +38311,7 @@
         <v>195</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38319,7 +38319,7 @@
         <v>196</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38327,7 +38327,7 @@
         <v>331</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38335,15 +38335,15 @@
         <v>197</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38351,7 +38351,7 @@
         <v>198</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38359,7 +38359,7 @@
         <v>199</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38367,7 +38367,7 @@
         <v>200</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38375,7 +38375,7 @@
         <v>201</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38383,7 +38383,7 @@
         <v>202</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38391,47 +38391,47 @@
         <v>203</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38439,55 +38439,55 @@
         <v>204</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38495,55 +38495,55 @@
         <v>205</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38551,7 +38551,7 @@
         <v>206</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38559,7 +38559,7 @@
         <v>207</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38567,7 +38567,7 @@
         <v>208</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38575,55 +38575,55 @@
         <v>209</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38631,63 +38631,63 @@
         <v>210</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B409" s="3" t="s">
         <v>639</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38695,7 +38695,7 @@
         <v>211</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38703,39 +38703,39 @@
         <v>212</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38743,7 +38743,7 @@
         <v>213</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38751,7 +38751,7 @@
         <v>214</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38759,7 +38759,7 @@
         <v>215</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38767,7 +38767,7 @@
         <v>216</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38775,7 +38775,7 @@
         <v>217</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38783,7 +38783,7 @@
         <v>218</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38791,7 +38791,7 @@
         <v>219</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38799,7 +38799,7 @@
         <v>220</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38807,7 +38807,7 @@
         <v>221</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38815,7 +38815,7 @@
         <v>222</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38823,7 +38823,7 @@
         <v>223</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38831,7 +38831,7 @@
         <v>224</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38839,15 +38839,15 @@
         <v>332</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38855,7 +38855,7 @@
         <v>225</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38863,7 +38863,7 @@
         <v>226</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38871,7 +38871,7 @@
         <v>227</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38879,7 +38879,7 @@
         <v>228</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38887,7 +38887,7 @@
         <v>229</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38895,7 +38895,7 @@
         <v>230</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38903,7 +38903,7 @@
         <v>231</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38911,47 +38911,47 @@
         <v>257</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B442" s="3" t="s">
         <v>786</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38959,7 +38959,7 @@
         <v>319</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38967,7 +38967,7 @@
         <v>320</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38975,7 +38975,7 @@
         <v>321</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38983,15 +38983,15 @@
         <v>318</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B447" s="3" t="s">
         <v>1028</v>
-      </c>
-      <c r="B447" s="3" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -38999,383 +38999,383 @@
         <v>322</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B488" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B490" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39447,7 +39447,7 @@
         <v>275</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39455,7 +39455,7 @@
         <v>276</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39463,7 +39463,7 @@
         <v>277</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39479,7 +39479,7 @@
         <v>279</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39500,10 +39500,10 @@
     </row>
     <row r="511" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B511" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -39511,31 +39511,31 @@
         <v>260</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B515" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="B515" s="3" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39543,7 +39543,7 @@
         <v>280</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39551,7 +39551,7 @@
         <v>281</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39567,7 +39567,7 @@
         <v>283</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39575,7 +39575,7 @@
         <v>284</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39583,7 +39583,7 @@
         <v>285</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39591,7 +39591,7 @@
         <v>286</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39599,7 +39599,7 @@
         <v>287</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39607,7 +39607,7 @@
         <v>288</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39615,7 +39615,7 @@
         <v>289</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39623,7 +39623,7 @@
         <v>290</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -39639,7 +39639,7 @@
         <v>292</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39647,7 +39647,7 @@
         <v>293</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39655,7 +39655,7 @@
         <v>294</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39663,7 +39663,7 @@
         <v>295</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -39671,7 +39671,7 @@
         <v>296</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39679,7 +39679,7 @@
         <v>297</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -39692,18 +39692,18 @@
     </row>
     <row r="535" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39711,7 +39711,7 @@
         <v>298</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39719,7 +39719,7 @@
         <v>401</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39727,7 +39727,7 @@
         <v>299</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -39743,7 +39743,7 @@
         <v>391</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39751,7 +39751,7 @@
         <v>300</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39759,7 +39759,7 @@
         <v>301</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39767,7 +39767,7 @@
         <v>302</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39775,7 +39775,7 @@
         <v>303</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -39783,7 +39783,7 @@
         <v>400</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39799,7 +39799,7 @@
         <v>395</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39807,15 +39807,15 @@
         <v>396</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39823,7 +39823,7 @@
         <v>305</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39847,15 +39847,15 @@
         <v>394</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B555" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39863,7 +39863,7 @@
         <v>306</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39879,7 +39879,7 @@
         <v>388</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="405" x14ac:dyDescent="0.25">
@@ -39887,7 +39887,7 @@
         <v>307</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="375" x14ac:dyDescent="0.25">
@@ -39895,7 +39895,7 @@
         <v>311</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39903,7 +39903,7 @@
         <v>389</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39919,15 +39919,15 @@
         <v>375</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B564" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="B564" s="3" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39935,7 +39935,7 @@
         <v>329</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{420C7E61-F201-4F5F-BFBC-25516A08D876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77CCEDD2-C4BA-4D76-AFEC-68D2136BBF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -14642,63 +14642,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>&lt;Bold&gt;e005 Amazons&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You see a group of amazon warriors approaching all on foot. The number in the group is one die roll plus one.
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;All have a combat skill 6, endurance 5, and wealth 4. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;They are blood-sisters and will always hire out together and serve together. If any are abandoned or left behind, all will desert you. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your options are:
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12'  Content='Talk ' Name='e005a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e005a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Evade' Name='e005b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e005b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;*&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Fight' Name='e005c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
-&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e005c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>e338c</t>
   </si>
   <si>
@@ -31075,116 +31018,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;LineBreak/&gt;&lt;Bold&gt;Game Events Shown Here&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Active events show a green background. The game may only advance when a green background is displayed. However, the game lets you explore what may happen by showing inactive events. Inactive events have a gray background. To return to the current active event, select the active event button in the status bar per the image.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                     &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tutorial0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='70'  Width='370'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read_Rules</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Content='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read Rules</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' FontFamily='Courier New'  FontSize='12'&gt; &lt;/Button&gt;&lt;/InlineUIContainer&gt; or &lt;InlineUIContainer&gt;&lt;Button Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Begin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Content='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Begin Game</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' FontFamily='Courier New'  FontSize='12'&gt; &lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e218 Escape&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r218a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt; Managed to find an escape path. Click image to continue.
 &lt;LineBreak/&gt; &lt;LineBreak/&gt; 
@@ -32380,101 +32213,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e209h Buy Valuable Information&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you buy it, roll one die:  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21' Width='21'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt; 
-&lt;LineBreak/&gt;   1 - Bogus secrets prove worthless
-&lt;LineBreak/&gt;   2 - &lt;InlineUIContainer&gt;&lt;Button Content='e147' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;   3 - &lt;InlineUIContainer&gt;&lt;Button Content='e143' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;   4 - &lt;InlineUIContainer&gt;&lt;Button Content='e144' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;   5 - &lt;InlineUIContainer&gt;&lt;Button Content='e145' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;   6 - &lt;InlineUIContainer&gt;&lt;Button Content='e146' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;InlineUIContainer&gt;
-                                      &lt;InlineUIContainer&gt;&lt;Image Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BuyInfoEnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nothing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='150' Width='150'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e086a High Pass Travels&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;When you travel the high pass, roll for the effects of high winds, sub-freezing temperatures, snow, etc. Roll two die for the entire party: &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
     </r>
@@ -34942,6 +34680,268 @@
         <scheme val="minor"/>
       </rPr>
       <t>' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e005 Amazons&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You see a group of amazon warriors approaching all on foot. The number in the group is one die roll plus one. Die Roll=
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;All have a combat skill 6, endurance 5, and wealth 4. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;They are blood-sisters and will always hire out together and serve together. If any are abandoned or left behind, all will desert you. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Your options are:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12'  Content='Talk ' Name='e005a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e005a'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Evade' Name='e005b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e005b'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;*&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='Fight' Name='e005c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;   -&gt;  
+&lt;InlineUIContainer&gt;&lt;Button FontFamily='Courier New'  FontSize='12' Content='e005c'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;LineBreak/&gt;&lt;Bold&gt;e000 Game Events Shown Here&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Active events show a green background. The game may only advance when a green background is displayed. However, the game lets you explore what may happen by showing inactive events. Inactive events have a gray background. To return to the current active event, select the active event button in the status bar per the image.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                     &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tutorial0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='70'  Width='370'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read_Rules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Content='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read Rules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' FontFamily='Courier New'  FontSize='12'&gt; &lt;/Button&gt;&lt;/InlineUIContainer&gt; or &lt;InlineUIContainer&gt;&lt;Button Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Begin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Content='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Begin Game</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' FontFamily='Courier New'  FontSize='12'&gt; &lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e209h Buy Valuable Information&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If you buy it, roll one die:  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21' Width='21'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt; 
+&lt;LineBreak/&gt;   1 - Bogus secrets prove worthless
+&lt;LineBreak/&gt;   2 - &lt;InlineUIContainer&gt;&lt;Button Content='e147' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;   3 - &lt;InlineUIContainer&gt;&lt;Button Content='e143' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;   4 - &lt;InlineUIContainer&gt;&lt;Button Content='e144' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;   5 - &lt;InlineUIContainer&gt;&lt;Button Content='e145' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;   6 - &lt;InlineUIContainer&gt;&lt;Button Content='e146' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BuyInfoEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nothing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='150' Width='150'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
 </sst>
@@ -35408,8 +35408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A454" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B455" sqref="B455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35423,7 +35423,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1065</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35431,7 +35431,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35439,7 +35439,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35447,15 +35447,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35471,7 +35471,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35479,7 +35479,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35511,7 +35511,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35519,7 +35519,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35543,7 +35543,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35551,7 +35551,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35559,7 +35559,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35567,7 +35567,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35575,7 +35575,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>732</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35583,7 +35583,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35591,7 +35591,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35599,7 +35599,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35607,7 +35607,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35615,7 +35615,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35623,7 +35623,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35631,7 +35631,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35639,31 +35639,31 @@
         <v>261</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35671,7 +35671,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35679,7 +35679,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35687,23 +35687,23 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35711,23 +35711,23 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35735,7 +35735,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35759,7 +35759,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35767,7 +35767,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -35775,7 +35775,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35783,7 +35783,7 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -35799,7 +35799,7 @@
         <v>707</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35807,7 +35807,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35815,7 +35815,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35823,7 +35823,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35855,7 +35855,7 @@
         <v>497</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35879,7 +35879,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35887,7 +35887,7 @@
         <v>265</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35911,7 +35911,7 @@
         <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -35943,7 +35943,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -35951,7 +35951,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35967,7 +35967,7 @@
         <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35975,7 +35975,7 @@
         <v>710</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36023,7 +36023,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36031,7 +36031,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36055,7 +36055,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36095,7 +36095,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36103,7 +36103,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36111,7 +36111,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36119,7 +36119,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36127,31 +36127,31 @@
         <v>58</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36159,15 +36159,15 @@
         <v>59</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>892</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36175,15 +36175,15 @@
         <v>60</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36191,7 +36191,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36199,7 +36199,7 @@
         <v>62</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36231,7 +36231,7 @@
         <v>65</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36239,7 +36239,7 @@
         <v>66</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36287,7 +36287,7 @@
         <v>475</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36319,7 +36319,7 @@
         <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -36407,7 +36407,7 @@
         <v>77</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36420,10 +36420,10 @@
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36431,7 +36431,7 @@
         <v>78</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36439,7 +36439,7 @@
         <v>376</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36479,7 +36479,7 @@
         <v>80</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36487,87 +36487,87 @@
         <v>81</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>954</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36575,7 +36575,7 @@
         <v>82</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36583,12 +36583,12 @@
         <v>83</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>553</v>
@@ -36623,7 +36623,7 @@
         <v>552</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36631,7 +36631,7 @@
         <v>86</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36743,7 +36743,7 @@
         <v>444</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36767,23 +36767,23 @@
         <v>90</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36815,7 +36815,7 @@
         <v>93</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -36823,7 +36823,7 @@
         <v>94</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36831,7 +36831,7 @@
         <v>95</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36839,55 +36839,55 @@
         <v>96</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>868</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36895,7 +36895,7 @@
         <v>97</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36927,7 +36927,7 @@
         <v>100</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36943,7 +36943,7 @@
         <v>103</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36951,7 +36951,7 @@
         <v>104</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36967,7 +36967,7 @@
         <v>694</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36983,7 +36983,7 @@
         <v>106</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36991,7 +36991,7 @@
         <v>107</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36999,15 +36999,15 @@
         <v>165</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37015,7 +37015,7 @@
         <v>108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -37023,7 +37023,7 @@
         <v>109</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37031,7 +37031,7 @@
         <v>110</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37039,7 +37039,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37047,7 +37047,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37055,23 +37055,23 @@
         <v>168</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>883</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37119,7 +37119,7 @@
         <v>112</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37127,7 +37127,7 @@
         <v>169</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37135,7 +37135,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37143,7 +37143,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37151,7 +37151,7 @@
         <v>113</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37159,7 +37159,7 @@
         <v>114</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37167,15 +37167,15 @@
         <v>266</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37183,15 +37183,15 @@
         <v>115</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37199,15 +37199,15 @@
         <v>116</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37215,31 +37215,31 @@
         <v>117</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>750</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37247,23 +37247,23 @@
         <v>118</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37271,23 +37271,23 @@
         <v>119</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37295,7 +37295,7 @@
         <v>120</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37303,7 +37303,7 @@
         <v>172</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37311,7 +37311,7 @@
         <v>173</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37319,7 +37319,7 @@
         <v>174</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37335,15 +37335,15 @@
         <v>122</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37351,23 +37351,23 @@
         <v>123</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37375,7 +37375,7 @@
         <v>124</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37383,15 +37383,15 @@
         <v>125</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37399,7 +37399,7 @@
         <v>126</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37407,7 +37407,7 @@
         <v>127</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37415,7 +37415,7 @@
         <v>128</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37423,7 +37423,7 @@
         <v>129</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37431,7 +37431,7 @@
         <v>130</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37439,23 +37439,23 @@
         <v>131</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>930</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37463,7 +37463,7 @@
         <v>132</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37471,15 +37471,15 @@
         <v>133</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37487,23 +37487,23 @@
         <v>134</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>982</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>984</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37511,15 +37511,15 @@
         <v>135</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>987</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37527,7 +37527,7 @@
         <v>136</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37551,7 +37551,7 @@
         <v>233</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37567,7 +37567,7 @@
         <v>234</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37575,7 +37575,7 @@
         <v>235</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37583,7 +37583,7 @@
         <v>139</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37591,7 +37591,7 @@
         <v>239</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37599,7 +37599,7 @@
         <v>240</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37607,7 +37607,7 @@
         <v>241</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37615,7 +37615,7 @@
         <v>140</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37623,7 +37623,7 @@
         <v>236</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37631,7 +37631,7 @@
         <v>237</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37639,7 +37639,7 @@
         <v>238</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37647,7 +37647,7 @@
         <v>141</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37655,7 +37655,7 @@
         <v>142</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37663,7 +37663,7 @@
         <v>143</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37671,7 +37671,7 @@
         <v>144</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37679,7 +37679,7 @@
         <v>242</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37687,7 +37687,7 @@
         <v>145</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37695,7 +37695,7 @@
         <v>146</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37703,7 +37703,7 @@
         <v>147</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37711,7 +37711,7 @@
         <v>148</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37719,31 +37719,31 @@
         <v>149</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>1052</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37751,15 +37751,15 @@
         <v>150</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -37767,7 +37767,7 @@
         <v>151</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37775,7 +37775,7 @@
         <v>243</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37783,7 +37783,7 @@
         <v>244</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37791,7 +37791,7 @@
         <v>245</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37799,7 +37799,7 @@
         <v>152</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37807,7 +37807,7 @@
         <v>153</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37815,7 +37815,7 @@
         <v>154</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37823,7 +37823,7 @@
         <v>155</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37831,7 +37831,7 @@
         <v>156</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37839,7 +37839,7 @@
         <v>157</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37847,7 +37847,7 @@
         <v>246</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37855,7 +37855,7 @@
         <v>247</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37863,7 +37863,7 @@
         <v>248</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37871,7 +37871,7 @@
         <v>158</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37879,7 +37879,7 @@
         <v>159</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37887,7 +37887,7 @@
         <v>160</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37895,7 +37895,7 @@
         <v>161</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37903,31 +37903,31 @@
         <v>162</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37935,7 +37935,7 @@
         <v>163</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37943,7 +37943,7 @@
         <v>164</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37951,7 +37951,7 @@
         <v>175</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37959,7 +37959,7 @@
         <v>176</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37967,7 +37967,7 @@
         <v>177</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -37975,7 +37975,7 @@
         <v>520</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37983,7 +37983,7 @@
         <v>521</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37991,7 +37991,7 @@
         <v>522</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -37999,7 +37999,7 @@
         <v>523</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38007,7 +38007,7 @@
         <v>524</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38015,15 +38015,15 @@
         <v>525</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -38031,7 +38031,7 @@
         <v>178</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38039,7 +38039,7 @@
         <v>495</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38047,7 +38047,7 @@
         <v>549</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38055,7 +38055,7 @@
         <v>550</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -38063,7 +38063,7 @@
         <v>179</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38071,7 +38071,7 @@
         <v>249</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38079,7 +38079,7 @@
         <v>250</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38087,7 +38087,7 @@
         <v>251</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38095,7 +38095,7 @@
         <v>252</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38103,23 +38103,23 @@
         <v>253</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38127,7 +38127,7 @@
         <v>180</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38159,7 +38159,7 @@
         <v>183</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38167,7 +38167,7 @@
         <v>184</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38207,7 +38207,7 @@
         <v>470</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38231,7 +38231,7 @@
         <v>460</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38287,7 +38287,7 @@
         <v>340</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38295,7 +38295,7 @@
         <v>341</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38319,7 +38319,7 @@
         <v>196</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38327,7 +38327,7 @@
         <v>331</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38343,7 +38343,7 @@
         <v>661</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38383,7 +38383,7 @@
         <v>202</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38503,7 +38503,7 @@
         <v>588</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38511,7 +38511,7 @@
         <v>589</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38519,7 +38519,7 @@
         <v>590</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38527,7 +38527,7 @@
         <v>591</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38543,7 +38543,7 @@
         <v>593</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38559,7 +38559,7 @@
         <v>207</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38583,7 +38583,7 @@
         <v>643</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38711,7 +38711,7 @@
         <v>538</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38743,7 +38743,7 @@
         <v>213</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38759,7 +38759,7 @@
         <v>215</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38799,7 +38799,7 @@
         <v>220</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38807,7 +38807,7 @@
         <v>221</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38815,7 +38815,7 @@
         <v>222</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38823,7 +38823,7 @@
         <v>223</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38831,7 +38831,7 @@
         <v>224</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38839,7 +38839,7 @@
         <v>332</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38855,7 +38855,7 @@
         <v>225</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38919,7 +38919,7 @@
         <v>448</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38943,15 +38943,15 @@
         <v>582</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B442" s="3" t="s">
         <v>786</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38959,7 +38959,7 @@
         <v>319</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38967,7 +38967,7 @@
         <v>320</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38975,7 +38975,7 @@
         <v>321</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38983,15 +38983,15 @@
         <v>318</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B447" s="3" t="s">
         <v>1028</v>
-      </c>
-      <c r="B447" s="3" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -38999,7 +38999,7 @@
         <v>322</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39023,7 +39023,7 @@
         <v>489</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39063,7 +39063,7 @@
         <v>558</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -39071,7 +39071,7 @@
         <v>562</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>1090</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -39087,7 +39087,7 @@
         <v>566</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39111,7 +39111,7 @@
         <v>569</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39119,7 +39119,7 @@
         <v>570</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39135,7 +39135,7 @@
         <v>572</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39159,7 +39159,7 @@
         <v>580</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -39167,7 +39167,7 @@
         <v>602</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -39175,7 +39175,7 @@
         <v>620</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -39183,7 +39183,7 @@
         <v>621</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -39191,15 +39191,15 @@
         <v>622</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -39207,7 +39207,7 @@
         <v>662</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39255,7 +39255,7 @@
         <v>668</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39295,7 +39295,7 @@
         <v>673</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -39324,18 +39324,18 @@
     </row>
     <row r="489" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B490" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39343,7 +39343,7 @@
         <v>692</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39351,7 +39351,7 @@
         <v>724</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39367,7 +39367,7 @@
         <v>545</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39375,7 +39375,7 @@
         <v>546</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39447,7 +39447,7 @@
         <v>275</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39455,7 +39455,7 @@
         <v>276</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39463,7 +39463,7 @@
         <v>277</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39511,7 +39511,7 @@
         <v>260</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39519,7 +39519,7 @@
         <v>477</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39527,15 +39527,15 @@
         <v>478</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B515" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="B515" s="3" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39583,7 +39583,7 @@
         <v>285</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39591,7 +39591,7 @@
         <v>286</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39671,7 +39671,7 @@
         <v>296</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39711,7 +39711,7 @@
         <v>298</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39751,7 +39751,7 @@
         <v>300</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39759,7 +39759,7 @@
         <v>301</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39799,7 +39799,7 @@
         <v>395</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39812,10 +39812,10 @@
     </row>
     <row r="550" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39852,10 +39852,10 @@
     </row>
     <row r="555" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B555" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39887,7 +39887,7 @@
         <v>307</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="375" x14ac:dyDescent="0.25">
@@ -39919,15 +39919,15 @@
         <v>375</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B564" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="B564" s="3" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39935,7 +39935,7 @@
         <v>329</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77CCEDD2-C4BA-4D76-AFEC-68D2136BBF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF696134-D518-401F-905E-9C31888E5607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -3235,61 +3235,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e002c Evade Royal Guardsmen&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt; Roll one die: 
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e307' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1: Attacked&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e306' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2: Attack&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e304' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3: Attack&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e318' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4: Hide&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e312' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5: Escape&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e312' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6: Escape Mtd&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e312' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 7: Escape Mtd</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e002d Fight Mercenary Royal Guardsmen&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt; Roll one die: 
  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
@@ -34942,6 +34887,61 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Height='150' Width='150'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e002c Evade Mercenary Royal Guardsmen&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt; Roll one die: 
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e307' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1: Attacked&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e306' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2: Attack&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e304' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3: Attack&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e318' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4: Hide&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e312' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5: Escape&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e312' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6: Escape Mtd&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e312' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 7: Escape Mtd</t>
     </r>
   </si>
 </sst>
@@ -35408,8 +35408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A454" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B455" sqref="B455"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35423,7 +35423,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35431,7 +35431,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35439,7 +35439,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35447,15 +35447,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35471,7 +35471,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35479,7 +35479,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35487,7 +35487,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35495,7 +35495,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>402</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35503,7 +35503,7 @@
         <v>258</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35511,7 +35511,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35519,7 +35519,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35527,7 +35527,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35535,7 +35535,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35543,7 +35543,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35551,7 +35551,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35559,7 +35559,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35567,7 +35567,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35575,7 +35575,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35583,7 +35583,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35591,7 +35591,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35599,7 +35599,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35607,7 +35607,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35615,7 +35615,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35623,7 +35623,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35631,7 +35631,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35639,31 +35639,31 @@
         <v>261</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35671,7 +35671,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35679,7 +35679,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35687,23 +35687,23 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35711,23 +35711,23 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35735,7 +35735,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35743,7 +35743,7 @@
         <v>262</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35751,7 +35751,7 @@
         <v>263</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -35759,7 +35759,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35767,7 +35767,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -35775,7 +35775,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35783,23 +35783,23 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35807,7 +35807,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35815,7 +35815,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35823,7 +35823,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35831,47 +35831,47 @@
         <v>34</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35879,7 +35879,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35887,23 +35887,23 @@
         <v>265</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35911,7 +35911,7 @@
         <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -35919,23 +35919,23 @@
         <v>36</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35943,7 +35943,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -35951,7 +35951,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35959,7 +35959,7 @@
         <v>43</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35967,23 +35967,23 @@
         <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>711</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35991,7 +35991,7 @@
         <v>39</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35999,7 +35999,7 @@
         <v>40</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36007,7 +36007,7 @@
         <v>41</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36015,7 +36015,7 @@
         <v>45</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36023,7 +36023,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36031,7 +36031,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36039,7 +36039,7 @@
         <v>47</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36047,7 +36047,7 @@
         <v>48</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36055,7 +36055,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36063,7 +36063,7 @@
         <v>50</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36071,7 +36071,7 @@
         <v>51</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36079,7 +36079,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36095,7 +36095,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36103,7 +36103,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36111,7 +36111,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36119,7 +36119,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36127,31 +36127,31 @@
         <v>58</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36159,15 +36159,15 @@
         <v>59</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>891</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36175,15 +36175,15 @@
         <v>60</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36191,7 +36191,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36199,7 +36199,7 @@
         <v>62</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36223,7 +36223,7 @@
         <v>64</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36231,7 +36231,7 @@
         <v>65</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36239,7 +36239,7 @@
         <v>66</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36255,15 +36255,15 @@
         <v>67</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36279,15 +36279,15 @@
         <v>361</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36295,23 +36295,23 @@
         <v>69</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36319,7 +36319,7 @@
         <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -36351,7 +36351,7 @@
         <v>72</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36359,7 +36359,7 @@
         <v>73</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36407,7 +36407,7 @@
         <v>77</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36420,10 +36420,10 @@
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36431,7 +36431,7 @@
         <v>78</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36439,7 +36439,7 @@
         <v>376</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36479,7 +36479,7 @@
         <v>80</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36487,87 +36487,87 @@
         <v>81</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>953</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36575,7 +36575,7 @@
         <v>82</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36583,15 +36583,15 @@
         <v>83</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36599,7 +36599,7 @@
         <v>84</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36607,23 +36607,23 @@
         <v>85</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36631,7 +36631,7 @@
         <v>86</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36639,7 +36639,7 @@
         <v>87</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36647,15 +36647,15 @@
         <v>342</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="345" x14ac:dyDescent="0.25">
@@ -36671,7 +36671,7 @@
         <v>343</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36679,7 +36679,7 @@
         <v>344</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36687,7 +36687,7 @@
         <v>345</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36695,7 +36695,7 @@
         <v>347</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36724,10 +36724,10 @@
     </row>
     <row r="164" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36735,31 +36735,31 @@
         <v>89</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36767,23 +36767,23 @@
         <v>90</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36791,15 +36791,15 @@
         <v>91</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36807,7 +36807,7 @@
         <v>92</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36815,7 +36815,7 @@
         <v>93</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -36823,7 +36823,7 @@
         <v>94</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36831,7 +36831,7 @@
         <v>95</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36839,55 +36839,55 @@
         <v>96</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>867</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36895,7 +36895,7 @@
         <v>97</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36903,7 +36903,7 @@
         <v>98</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36911,7 +36911,7 @@
         <v>99</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36919,7 +36919,7 @@
         <v>101</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36927,7 +36927,7 @@
         <v>100</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36935,7 +36935,7 @@
         <v>102</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36943,7 +36943,7 @@
         <v>103</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36951,7 +36951,7 @@
         <v>104</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36959,23 +36959,23 @@
         <v>105</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>695</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36983,7 +36983,7 @@
         <v>106</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36991,7 +36991,7 @@
         <v>107</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36999,15 +36999,15 @@
         <v>165</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37015,7 +37015,7 @@
         <v>108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -37023,7 +37023,7 @@
         <v>109</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37031,7 +37031,7 @@
         <v>110</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37039,7 +37039,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37047,7 +37047,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37055,23 +37055,23 @@
         <v>168</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>882</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37079,39 +37079,39 @@
         <v>111</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B212" s="3" t="s">
         <v>726</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37119,7 +37119,7 @@
         <v>112</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37127,7 +37127,7 @@
         <v>169</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37135,7 +37135,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37143,7 +37143,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37151,7 +37151,7 @@
         <v>113</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37159,7 +37159,7 @@
         <v>114</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37167,15 +37167,15 @@
         <v>266</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37183,15 +37183,15 @@
         <v>115</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37199,15 +37199,15 @@
         <v>116</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37215,31 +37215,31 @@
         <v>117</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>749</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37247,23 +37247,23 @@
         <v>118</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37271,23 +37271,23 @@
         <v>119</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37295,7 +37295,7 @@
         <v>120</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37303,7 +37303,7 @@
         <v>172</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37311,7 +37311,7 @@
         <v>173</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37319,7 +37319,7 @@
         <v>174</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37327,7 +37327,7 @@
         <v>121</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37335,15 +37335,15 @@
         <v>122</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37351,23 +37351,23 @@
         <v>123</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37375,7 +37375,7 @@
         <v>124</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37383,15 +37383,15 @@
         <v>125</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37399,7 +37399,7 @@
         <v>126</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37407,7 +37407,7 @@
         <v>127</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37415,7 +37415,7 @@
         <v>128</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37423,7 +37423,7 @@
         <v>129</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37431,7 +37431,7 @@
         <v>130</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37439,23 +37439,23 @@
         <v>131</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>929</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37463,7 +37463,7 @@
         <v>132</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37471,15 +37471,15 @@
         <v>133</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37487,23 +37487,23 @@
         <v>134</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>981</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>983</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37511,15 +37511,15 @@
         <v>135</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>986</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37527,7 +37527,7 @@
         <v>136</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37535,7 +37535,7 @@
         <v>137</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37543,7 +37543,7 @@
         <v>232</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37551,7 +37551,7 @@
         <v>233</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37559,7 +37559,7 @@
         <v>138</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37567,7 +37567,7 @@
         <v>234</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37575,7 +37575,7 @@
         <v>235</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37583,7 +37583,7 @@
         <v>139</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37591,7 +37591,7 @@
         <v>239</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37599,7 +37599,7 @@
         <v>240</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37607,7 +37607,7 @@
         <v>241</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37615,7 +37615,7 @@
         <v>140</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37623,7 +37623,7 @@
         <v>236</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37631,7 +37631,7 @@
         <v>237</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37639,7 +37639,7 @@
         <v>238</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37647,7 +37647,7 @@
         <v>141</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37655,7 +37655,7 @@
         <v>142</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37663,7 +37663,7 @@
         <v>143</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37671,7 +37671,7 @@
         <v>144</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37679,7 +37679,7 @@
         <v>242</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37687,7 +37687,7 @@
         <v>145</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37695,7 +37695,7 @@
         <v>146</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37703,7 +37703,7 @@
         <v>147</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37711,7 +37711,7 @@
         <v>148</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37719,31 +37719,31 @@
         <v>149</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>1051</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37751,15 +37751,15 @@
         <v>150</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -37767,7 +37767,7 @@
         <v>151</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37775,7 +37775,7 @@
         <v>243</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37783,7 +37783,7 @@
         <v>244</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37791,7 +37791,7 @@
         <v>245</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37799,7 +37799,7 @@
         <v>152</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37807,7 +37807,7 @@
         <v>153</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37815,7 +37815,7 @@
         <v>154</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37823,7 +37823,7 @@
         <v>155</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37831,7 +37831,7 @@
         <v>156</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37839,7 +37839,7 @@
         <v>157</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37847,7 +37847,7 @@
         <v>246</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37855,7 +37855,7 @@
         <v>247</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37863,7 +37863,7 @@
         <v>248</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37871,7 +37871,7 @@
         <v>158</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37879,7 +37879,7 @@
         <v>159</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37887,7 +37887,7 @@
         <v>160</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37895,7 +37895,7 @@
         <v>161</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37903,31 +37903,31 @@
         <v>162</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37935,7 +37935,7 @@
         <v>163</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37943,7 +37943,7 @@
         <v>164</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37951,7 +37951,7 @@
         <v>175</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37959,7 +37959,7 @@
         <v>176</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -37967,63 +37967,63 @@
         <v>177</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -38031,31 +38031,31 @@
         <v>178</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -38063,7 +38063,7 @@
         <v>179</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38071,7 +38071,7 @@
         <v>249</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38079,7 +38079,7 @@
         <v>250</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38087,7 +38087,7 @@
         <v>251</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38095,7 +38095,7 @@
         <v>252</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38103,23 +38103,23 @@
         <v>253</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38127,7 +38127,7 @@
         <v>180</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38135,15 +38135,15 @@
         <v>181</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38159,7 +38159,7 @@
         <v>183</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38167,7 +38167,7 @@
         <v>184</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38191,7 +38191,7 @@
         <v>186</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38199,15 +38199,15 @@
         <v>187</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38215,7 +38215,7 @@
         <v>188</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38223,23 +38223,23 @@
         <v>189</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B353" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38247,7 +38247,7 @@
         <v>190</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38255,7 +38255,7 @@
         <v>191</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38263,15 +38263,15 @@
         <v>192</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B357" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -38279,7 +38279,7 @@
         <v>193</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38287,7 +38287,7 @@
         <v>340</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38295,7 +38295,7 @@
         <v>341</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38303,7 +38303,7 @@
         <v>194</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38311,7 +38311,7 @@
         <v>195</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38319,7 +38319,7 @@
         <v>196</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38327,7 +38327,7 @@
         <v>331</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38335,15 +38335,15 @@
         <v>197</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38351,7 +38351,7 @@
         <v>198</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38359,7 +38359,7 @@
         <v>199</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38367,7 +38367,7 @@
         <v>200</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38375,7 +38375,7 @@
         <v>201</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38383,7 +38383,7 @@
         <v>202</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38391,47 +38391,47 @@
         <v>203</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38439,55 +38439,55 @@
         <v>204</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38495,55 +38495,55 @@
         <v>205</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38551,7 +38551,7 @@
         <v>206</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38559,7 +38559,7 @@
         <v>207</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38567,7 +38567,7 @@
         <v>208</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38575,55 +38575,55 @@
         <v>209</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38631,63 +38631,63 @@
         <v>210</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B409" s="3" t="s">
         <v>639</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38695,7 +38695,7 @@
         <v>211</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38703,39 +38703,39 @@
         <v>212</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38743,7 +38743,7 @@
         <v>213</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38751,7 +38751,7 @@
         <v>214</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38759,7 +38759,7 @@
         <v>215</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38767,7 +38767,7 @@
         <v>216</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38775,7 +38775,7 @@
         <v>217</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38783,7 +38783,7 @@
         <v>218</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38791,7 +38791,7 @@
         <v>219</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38799,7 +38799,7 @@
         <v>220</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38807,7 +38807,7 @@
         <v>221</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38815,7 +38815,7 @@
         <v>222</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38823,7 +38823,7 @@
         <v>223</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38831,7 +38831,7 @@
         <v>224</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38839,15 +38839,15 @@
         <v>332</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38855,7 +38855,7 @@
         <v>225</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38863,7 +38863,7 @@
         <v>226</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38871,7 +38871,7 @@
         <v>227</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38879,7 +38879,7 @@
         <v>228</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38887,7 +38887,7 @@
         <v>229</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38895,7 +38895,7 @@
         <v>230</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38903,7 +38903,7 @@
         <v>231</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38911,47 +38911,47 @@
         <v>257</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B442" s="3" t="s">
         <v>785</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38959,7 +38959,7 @@
         <v>319</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38967,7 +38967,7 @@
         <v>320</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38975,7 +38975,7 @@
         <v>321</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38983,15 +38983,15 @@
         <v>318</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B447" s="3" t="s">
         <v>1027</v>
-      </c>
-      <c r="B447" s="3" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -38999,383 +38999,383 @@
         <v>322</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B488" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B490" s="1" t="s">
         <v>1009</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39447,7 +39447,7 @@
         <v>275</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39455,7 +39455,7 @@
         <v>276</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39463,7 +39463,7 @@
         <v>277</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39479,7 +39479,7 @@
         <v>279</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39500,10 +39500,10 @@
     </row>
     <row r="511" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B511" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -39511,31 +39511,31 @@
         <v>260</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B515" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="B515" s="3" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39543,7 +39543,7 @@
         <v>280</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39551,7 +39551,7 @@
         <v>281</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39567,7 +39567,7 @@
         <v>283</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39575,7 +39575,7 @@
         <v>284</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39583,7 +39583,7 @@
         <v>285</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39591,7 +39591,7 @@
         <v>286</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39599,7 +39599,7 @@
         <v>287</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39607,7 +39607,7 @@
         <v>288</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39615,7 +39615,7 @@
         <v>289</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39623,7 +39623,7 @@
         <v>290</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -39639,7 +39639,7 @@
         <v>292</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39647,7 +39647,7 @@
         <v>293</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39655,7 +39655,7 @@
         <v>294</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39663,7 +39663,7 @@
         <v>295</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -39671,7 +39671,7 @@
         <v>296</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39679,7 +39679,7 @@
         <v>297</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -39692,18 +39692,18 @@
     </row>
     <row r="535" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39711,7 +39711,7 @@
         <v>298</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39719,7 +39719,7 @@
         <v>401</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39727,7 +39727,7 @@
         <v>299</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -39743,7 +39743,7 @@
         <v>391</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39751,7 +39751,7 @@
         <v>300</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39759,7 +39759,7 @@
         <v>301</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39767,7 +39767,7 @@
         <v>302</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39775,7 +39775,7 @@
         <v>303</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -39783,7 +39783,7 @@
         <v>400</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39799,7 +39799,7 @@
         <v>395</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39807,15 +39807,15 @@
         <v>396</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39823,7 +39823,7 @@
         <v>305</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39847,15 +39847,15 @@
         <v>394</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B555" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39863,7 +39863,7 @@
         <v>306</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39879,7 +39879,7 @@
         <v>388</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="405" x14ac:dyDescent="0.25">
@@ -39887,7 +39887,7 @@
         <v>307</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="375" x14ac:dyDescent="0.25">
@@ -39895,7 +39895,7 @@
         <v>311</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39903,7 +39903,7 @@
         <v>389</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39919,15 +39919,15 @@
         <v>375</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B564" s="3" t="s">
         <v>737</v>
-      </c>
-      <c r="B564" s="3" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39935,7 +39935,7 @@
         <v>329</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF696134-D518-401F-905E-9C31888E5607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6F9579C-6DCF-400C-9381-ED0D04FD6C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1132">
   <si>
     <t>e001</t>
   </si>
@@ -23210,82 +23210,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>&lt;Bold&gt;e098b Fight Dragon&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die and determine outcome below:
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e302' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1 Surprise&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e303' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 Surprise&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e305' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 Attack&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e306' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 Attacked&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e308' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 Surprised&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e309' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 Surpised
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-           &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DragonFight</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='280' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>e075b</t>
   </si>
   <si>
@@ -31404,98 +31328,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e110a Air Spirit Recognized&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you have a magician, wizard, witch, or monk in your party, you recognize it. You can attempt to if you wish.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;To talk to the air spirit, roll one die: &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll is greater or equal to your wit and wiles, communication fails. See &lt;InlineUIContainer&gt;&lt;Button Content='e110b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;Roll is less than wit and wiles, communication succeeds. See &lt;InlineUIContainer&gt;&lt;Button Content='e110c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;To continue without communicating with air sprint, click image.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                              &lt;InlineUIContainer&gt;&lt;Image Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EncounterEnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AirSpirit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e188 Pegasus Mount&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 You have acquired a Pegaus - a winged horse that allows you to travel airborne. 
@@ -34942,6 +34774,225 @@
  &lt;InlineUIContainer&gt;&lt;Button Content='e312' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5: Escape&lt;LineBreak/&gt;
  &lt;InlineUIContainer&gt;&lt;Button Content='e312' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6: Escape Mtd&lt;LineBreak/&gt;
  &lt;InlineUIContainer&gt;&lt;Button Content='e312' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 7: Escape Mtd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e110a Air Spirit Recognized&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Since you have a magician, wizard, witch, or monk in your party, you recognize it. You can attempt to talk to it if you wish.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;To talk to the air spirit, roll one die: &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll is greater or equal to your wit and wiles, communication fails. See &lt;InlineUIContainer&gt;&lt;Button Content='e110b' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;Roll is less than wit and wiles, communication succeeds. See &lt;InlineUIContainer&gt;&lt;Button Content='e110c' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;To continue without communicating with air sprint, click image.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                              &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EncounterEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AirSpirit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e098b Fight Dragon&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die and determine outcome below:
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e302' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1 Surprise&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e303' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 Surprise&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e305' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 Attack&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e306' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 Attacked&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e308' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 Surprised&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e309' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 Surprised
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+           &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DragonFight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='280' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>e085a</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e085a Narrow Ledges In Distance Mountains&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You look up from your cozy inn to see very treacherous cliffs in the distance. Click image to continue.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+              &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EncounterEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NarrowLedge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='250'  Width='500'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
 </sst>
@@ -35406,10 +35457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B565"/>
+  <dimension ref="A1:B566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35423,7 +35474,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35431,7 +35482,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35439,7 +35490,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35447,15 +35498,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35479,7 +35530,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35495,7 +35546,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35511,7 +35562,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35575,7 +35626,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35687,7 +35738,7 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35695,7 +35746,7 @@
         <v>878</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35703,7 +35754,7 @@
         <v>879</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35711,7 +35762,7 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35735,7 +35786,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35759,7 +35810,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35767,7 +35818,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -35775,7 +35826,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35783,7 +35834,7 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -35799,7 +35850,7 @@
         <v>706</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35807,7 +35858,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35815,7 +35866,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35823,7 +35874,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35855,7 +35906,7 @@
         <v>496</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35879,7 +35930,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35887,7 +35938,7 @@
         <v>265</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36023,7 +36074,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36031,7 +36082,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36151,7 +36202,7 @@
         <v>788</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36183,7 +36234,7 @@
         <v>778</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36239,7 +36290,7 @@
         <v>66</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36287,7 +36338,7 @@
         <v>474</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36319,7 +36370,7 @@
         <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -36407,7 +36458,7 @@
         <v>77</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36420,10 +36471,10 @@
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36487,87 +36538,87 @@
         <v>81</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>952</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36575,7 +36626,7 @@
         <v>82</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36588,7 +36639,7 @@
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>552</v>
@@ -36855,7 +36906,7 @@
         <v>843</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36863,7 +36914,7 @@
         <v>844</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36871,7 +36922,7 @@
         <v>847</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36943,7 +36994,7 @@
         <v>103</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36951,7 +37002,7 @@
         <v>104</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36967,7 +37018,7 @@
         <v>693</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36983,7 +37034,7 @@
         <v>106</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37015,7 +37066,7 @@
         <v>108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -37023,7 +37074,7 @@
         <v>109</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37039,7 +37090,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37047,7 +37098,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37063,7 +37114,7 @@
         <v>880</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37143,7 +37194,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37151,7 +37202,7 @@
         <v>113</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37159,7 +37210,7 @@
         <v>114</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37167,15 +37218,15 @@
         <v>266</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37183,7 +37234,7 @@
         <v>115</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37199,7 +37250,7 @@
         <v>116</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37239,7 +37290,7 @@
         <v>751</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37247,23 +37298,23 @@
         <v>118</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37287,7 +37338,7 @@
         <v>887</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37295,7 +37346,7 @@
         <v>120</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37303,7 +37354,7 @@
         <v>172</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37311,7 +37362,7 @@
         <v>173</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37319,7 +37370,7 @@
         <v>174</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37351,23 +37402,23 @@
         <v>123</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37378,2569 +37429,2577 @@
         <v>760</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B246" s="3" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
+      <c r="B247" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="B247" s="3" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B248" s="3" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A249" s="2" t="s">
+      <c r="B249" s="3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B250" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B253" s="3" t="s">
+      <c r="B255" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B256" s="3" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A254" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A255" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
+    <row r="257" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B256" s="3" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A257" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="B257" s="3" t="s">
-        <v>1100</v>
+        <v>983</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>924</v>
+        <v>133</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B259" s="3" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A260" s="2" t="s">
-        <v>980</v>
-      </c>
       <c r="B260" s="3" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B262" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="B261" s="3" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
+    </row>
+    <row r="263" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A263" s="2" t="s">
-        <v>985</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B264" s="3" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
+      <c r="B265" s="3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B266" s="3" t="s">
         <v>479</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B267" s="3" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A268" s="2" t="s">
+      <c r="B268" s="3" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B269" s="3" t="s">
         <v>712</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A269" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B270" s="3" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
+      <c r="B271" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B272" s="3" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
+    <row r="273" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B273" s="3" t="s">
         <v>772</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A273" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B275" s="3" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A276" s="2" t="s">
+      <c r="B276" s="3" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B276" s="3" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A277" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="B277" s="3" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B278" s="3" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A279" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="B279" s="3" t="s">
-        <v>1028</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B281" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B282" s="3" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A281" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A282" s="2" t="s">
+    <row r="283" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B282" s="3" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A283" s="2" t="s">
+      <c r="B283" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B284" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B286" s="3" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A284" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A285" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B285" s="3" t="s">
+    <row r="287" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B288" s="3" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A286" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A288" s="2" t="s">
+    <row r="289" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B288" s="3" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A289" s="2" t="s">
-        <v>1049</v>
-      </c>
       <c r="B289" s="3" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>1048</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B292" s="3" t="s">
         <v>1050</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A292" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B293" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="B293" s="3" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B295" s="3" t="s">
         <v>761</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A295" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B298" s="3" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
+    <row r="299" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B299" s="3" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A299" s="2" t="s">
+    <row r="300" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B299" s="3" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
+      <c r="B300" s="3" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B301" s="3" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A301" s="2" t="s">
+    <row r="302" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B302" s="3" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="s">
+    <row r="303" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B303" s="3" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
+    <row r="304" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B304" s="3" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A304" s="2" t="s">
+    <row r="305" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B305" s="3" t="s">
         <v>755</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A305" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B307" s="3" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A307" s="2" t="s">
+    <row r="308" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B308" s="3" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A308" s="2" t="s">
+    <row r="309" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B309" s="3" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="s">
+    <row r="310" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B309" s="3" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
+      <c r="B310" s="3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B310" s="3" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A311" s="2" t="s">
+      <c r="B311" s="3" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B312" s="3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B313" s="3" t="s">
         <v>1019</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A312" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A313" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B313" s="3" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B314" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="B314" s="3" t="s">
+    </row>
+    <row r="315" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B316" s="3" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A315" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A316" s="2" t="s">
+    <row r="317" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A317" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B320" s="3" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B326" s="3" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A320" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B320" s="3" t="s">
+    <row r="327" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B329" s="3" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A321" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A323" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A325" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A327" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B327" s="3" t="s">
+    <row r="330" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B331" s="3" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B328" s="3" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A329" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A330" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B330" s="3" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" ht="315" x14ac:dyDescent="0.25">
-      <c r="A331" s="2" t="s">
+    <row r="332" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B332" s="3" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A332" s="2" t="s">
+    <row r="333" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B333" s="3" t="s">
         <v>835</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A333" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B333" s="3" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B335" s="3" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A335" s="2" t="s">
+    <row r="336" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B335" s="3" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
+      <c r="B336" s="3" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B337" s="3" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A337" s="2" t="s">
+    <row r="338" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B338" s="3" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A338" s="2" t="s">
+    <row r="339" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="B338" s="3" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A339" s="2" t="s">
+      <c r="B339" s="3" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B339" s="3" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A340" s="2" t="s">
+      <c r="B340" s="3" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B341" s="3" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A341" s="2" t="s">
+    <row r="342" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="B342" s="3" t="s">
         <v>525</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A342" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B342" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B343" s="3" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A344" s="2" t="s">
+      <c r="B344" s="3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B344" s="3" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A345" s="2" t="s">
+      <c r="B345" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B346" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
+    <row r="347" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="B347" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A347" s="2" t="s">
+    <row r="348" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B347" s="3" t="s">
+      <c r="B348" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A348" s="2" t="s">
+    <row r="349" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="B349" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A349" s="2" t="s">
+    <row r="350" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="B350" s="3" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B361" s="3" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A352" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A353" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B354" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A355" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B355" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B356" s="3" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" ht="270" x14ac:dyDescent="0.25">
-      <c r="A358" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B358" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B359" s="3" t="s">
+    <row r="362" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B367" s="3" t="s">
         <v>1107</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B361" s="3" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A362" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B362" s="3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B363" s="3" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A364" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B364" s="3" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A365" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B365" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="B366" s="3" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A367" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B367" s="3" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B368" s="3" t="s">
+      <c r="B369" s="3" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A369" s="2" t="s">
+    <row r="370" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B369" s="3" t="s">
+      <c r="B370" s="3" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A370" s="2" t="s">
+    <row r="371" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B370" s="3" t="s">
+      <c r="B371" s="3" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A371" s="2" t="s">
+    <row r="372" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B371" s="3" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A372" s="2" t="s">
+      <c r="B372" s="3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B372" s="3" t="s">
+      <c r="B373" s="3" t="s">
         <v>626</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A373" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B373" s="3" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B375" s="3" t="s">
+      <c r="B376" s="3" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A376" s="2" t="s">
+    <row r="377" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="B377" s="3" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A377" s="2" t="s">
+    <row r="378" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B377" s="3" t="s">
+      <c r="B378" s="3" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
+    <row r="379" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B378" s="3" t="s">
+      <c r="B379" s="3" t="s">
         <v>615</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A379" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B380" s="3" t="s">
+      <c r="B381" s="3" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
+    <row r="382" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B381" s="3" t="s">
+      <c r="B382" s="3" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
+    <row r="383" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B382" s="3" t="s">
+      <c r="B383" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A383" s="2" t="s">
+    <row r="384" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B384" s="3" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A384" s="2" t="s">
+    <row r="385" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="B385" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A385" s="2" t="s">
+    <row r="386" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B385" s="3" t="s">
+      <c r="B386" s="3" t="s">
         <v>593</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A386" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="B386" s="3" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B387" s="3" t="s">
+      <c r="B388" s="3" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A388" s="2" t="s">
+    <row r="389" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B388" s="3" t="s">
+      <c r="B389" s="3" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A389" s="2" t="s">
+    <row r="390" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B389" s="3" t="s">
+      <c r="B390" s="3" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A390" s="2" t="s">
+    <row r="391" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B390" s="3" t="s">
+      <c r="B391" s="3" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A391" s="2" t="s">
+    <row r="392" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B391" s="3" t="s">
+      <c r="B392" s="3" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A392" s="2" t="s">
+    <row r="393" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B392" s="3" t="s">
+      <c r="B393" s="3" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A393" s="2" t="s">
+    <row r="394" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B393" s="3" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A394" s="2" t="s">
+      <c r="B394" s="3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B394" s="3" t="s">
+      <c r="B395" s="3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A395" s="2" t="s">
+    <row r="396" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B395" s="3" t="s">
+      <c r="B396" s="3" t="s">
         <v>648</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A396" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="B396" s="3" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>650</v>
+        <v>838</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B398" s="3" t="s">
+      <c r="B399" s="3" t="s">
         <v>649</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A399" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B399" s="3" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="B400" s="4" t="s">
+      <c r="B401" s="4" t="s">
         <v>652</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A401" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="B401" s="3" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B402" s="3" t="s">
+      <c r="B403" s="3" t="s">
         <v>633</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A403" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="B403" s="3" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B404" s="3" t="s">
+      <c r="B405" s="3" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A405" s="2" t="s">
+    <row r="406" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B405" s="3" t="s">
+      <c r="B406" s="3" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A406" s="2" t="s">
+    <row r="407" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B406" s="3" t="s">
+      <c r="B407" s="3" t="s">
         <v>637</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A407" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="B407" s="3" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B408" s="3" t="s">
+      <c r="B409" s="3" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A409" s="2" t="s">
+    <row r="410" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B409" s="3" t="s">
+      <c r="B410" s="3" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A410" s="2" t="s">
+    <row r="411" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B410" s="3" t="s">
+      <c r="B411" s="3" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A411" s="2" t="s">
+    <row r="412" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B411" s="3" t="s">
+      <c r="B412" s="3" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A412" s="2" t="s">
+    <row r="413" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B412" s="3" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A413" s="2" t="s">
+      <c r="B413" s="3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B413" s="3" t="s">
+      <c r="B414" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A414" s="2" t="s">
+    <row r="415" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B414" s="3" t="s">
+      <c r="B415" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A415" s="2" t="s">
+    <row r="416" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B415" s="3" t="s">
+      <c r="B416" s="3" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A416" s="2" t="s">
+    <row r="417" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B416" s="3" t="s">
+      <c r="B417" s="3" t="s">
         <v>855</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A417" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B417" s="3" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B418" s="3" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A419" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="B419" s="3" t="s">
-        <v>529</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B422" s="3" t="s">
+      <c r="B423" s="3" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A423" s="5" t="s">
+    <row r="424" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A424" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B423" s="3" t="s">
+      <c r="B424" s="3" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A424" s="2" t="s">
+    <row r="425" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B424" s="3" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A425" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="B425" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B426" s="3" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A427" s="2" t="s">
+      <c r="B427" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B427" s="3" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A428" s="2" t="s">
+      <c r="B428" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B428" s="3" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A429" s="2" t="s">
+      <c r="B429" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B429" s="3" t="s">
+      <c r="B430" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A430" s="2" t="s">
+    <row r="431" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B430" s="3" t="s">
+      <c r="B431" s="3" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A431" s="2" t="s">
+    <row r="432" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B431" s="3" t="s">
+      <c r="B432" s="3" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A432" s="2" t="s">
+    <row r="433" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B432" s="3" t="s">
+      <c r="B433" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A433" s="2" t="s">
+    <row r="434" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B433" s="3" t="s">
+      <c r="B434" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A434" s="2" t="s">
+    <row r="435" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B434" s="3" t="s">
+      <c r="B435" s="3" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A435" s="2" t="s">
+    <row r="436" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B435" s="3" t="s">
+      <c r="B436" s="3" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A436" s="2" t="s">
+    <row r="437" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B436" s="3" t="s">
+      <c r="B437" s="3" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A437" s="2" t="s">
+    <row r="438" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B437" s="3" t="s">
+      <c r="B438" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A438" s="2" t="s">
+    <row r="439" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B438" s="3" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A439" s="2" t="s">
+      <c r="B439" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B439" s="3" t="s">
+      <c r="B440" s="3" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A440" s="2" t="s">
+    <row r="441" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B440" s="3" t="s">
+      <c r="B441" s="3" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A441" s="2" t="s">
+    <row r="442" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B441" s="3" t="s">
+      <c r="B442" s="3" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A442" s="2" t="s">
+    <row r="443" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="B442" s="3" t="s">
+      <c r="B443" s="3" t="s">
         <v>785</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A443" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B443" s="3" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B445" s="3" t="s">
+      <c r="B446" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B447" s="3" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A446" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B446" s="3" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A447" s="2" t="s">
+    <row r="448" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B448" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="B447" s="3" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A448" s="2" t="s">
+    </row>
+    <row r="449" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B448" s="3" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A449" s="2" t="s">
+      <c r="B449" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B449" s="3" t="s">
+      <c r="B450" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A450" s="2" t="s">
+    <row r="451" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B450" s="3" t="s">
+      <c r="B451" s="3" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A451" s="2" t="s">
+    <row r="452" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B451" s="3" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A452" s="2" t="s">
+      <c r="B452" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B452" s="3" t="s">
+      <c r="B453" s="3" t="s">
         <v>526</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A453" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B453" s="3" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B454" s="3" t="s">
+      <c r="B455" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A455" s="2" t="s">
+    <row r="456" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B455" s="3" t="s">
+      <c r="B456" s="3" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A456" s="2" t="s">
+    <row r="457" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B456" s="3" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A457" s="2" t="s">
+      <c r="B457" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B457" s="3" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A458" s="2" t="s">
+      <c r="B458" s="3" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A459" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B458" s="3" t="s">
+      <c r="B459" s="3" t="s">
         <v>730</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A459" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="B459" s="3" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A461" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B460" s="3" t="s">
+      <c r="B461" s="3" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A461" s="2" t="s">
+    <row r="462" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B461" s="3" t="s">
+      <c r="B462" s="3" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A462" s="2" t="s">
+    <row r="463" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B462" s="3" t="s">
+      <c r="B463" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B466" s="3" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A463" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="B463" s="3" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A464" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B464" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A465" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="B465" s="3" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A466" s="2" t="s">
+    <row r="467" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A467" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B466" s="3" t="s">
+      <c r="B467" s="3" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A467" s="2" t="s">
+    <row r="468" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B467" s="3" t="s">
+      <c r="B468" s="3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A468" s="2" t="s">
+    <row r="469" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A469" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B468" s="3" t="s">
+      <c r="B469" s="3" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A469" s="2" t="s">
+    <row r="470" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A470" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B469" s="3" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A470" s="2" t="s">
-        <v>619</v>
-      </c>
       <c r="B470" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A472" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B471" s="3" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A472" s="2" t="s">
+      <c r="B472" s="3" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A473" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B472" s="3" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A473" s="2" t="s">
+      <c r="B473" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="B473" s="3" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A474" s="2" t="s">
+      <c r="B474" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B474" s="1" t="s">
+      <c r="B475" s="1" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A475" s="2" t="s">
+    <row r="476" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A476" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B475" s="1" t="s">
+      <c r="B476" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A476" s="2" t="s">
+    <row r="477" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A477" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B476" s="1" t="s">
+      <c r="B477" s="1" t="s">
         <v>678</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A477" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A479" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B478" s="1" t="s">
+      <c r="B479" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A479" s="2" t="s">
+    <row r="480" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A480" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="B479" s="1" t="s">
+      <c r="B480" s="1" t="s">
         <v>675</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A480" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B481" s="1" t="s">
+      <c r="B482" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A482" s="2" t="s">
+    <row r="483" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B482" s="1" t="s">
+      <c r="B483" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A483" s="2" t="s">
+    <row r="484" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B483" s="1" t="s">
+      <c r="B484" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A484" s="2" t="s">
+    <row r="485" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B484" s="1" t="s">
+      <c r="B485" s="1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A485" s="2" t="s">
+    <row r="486" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B485" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A486" s="2" t="s">
+      <c r="B486" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A487" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="B486" s="1" t="s">
+      <c r="B487" s="1" t="s">
         <v>684</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A487" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B487" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="B488" s="1" t="s">
+      <c r="B489" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="489" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A489" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
+      <c r="A491" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B491" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="B490" s="1" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A491" s="2" t="s">
+    </row>
+    <row r="492" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A492" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B491" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A492" s="2" t="s">
+      <c r="B492" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A493" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="B492" s="3" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A493" s="2" t="s">
+      <c r="B493" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A494" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B493" s="3" t="s">
+      <c r="B494" s="3" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="494" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A494" s="2" t="s">
+    <row r="495" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A495" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B494" s="3" t="s">
+      <c r="B495" s="3" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="495" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A495" s="2" t="s">
+    <row r="496" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A496" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B495" s="3" t="s">
+      <c r="B496" s="3" t="s">
         <v>804</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A496" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1042</v>
+        <v>358</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A507" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B506" s="1" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A507" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="B507" s="1" t="s">
-        <v>312</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A509" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B508" s="1" t="s">
+      <c r="B509" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A509" s="2" t="s">
+    <row r="510" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A510" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B509" s="1" t="s">
+      <c r="B510" s="1" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A510" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B510" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A512" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B511" s="1" t="s">
+      <c r="B512" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A512" s="2" t="s">
+    <row r="513" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A513" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B512" s="3" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A513" s="2" t="s">
+      <c r="B513" s="3" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A514" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B513" s="3" t="s">
+      <c r="B514" s="3" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="514" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A514" s="2" t="s">
+    <row r="515" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A515" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B514" s="1" t="s">
+      <c r="B515" s="1" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="515" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A515" s="2" t="s">
+    <row r="516" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A516" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="B515" s="3" t="s">
+      <c r="B516" s="3" t="s">
         <v>792</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A516" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A518" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B517" s="1" t="s">
+      <c r="B518" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="518" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A518" s="2" t="s">
+    <row r="519" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A519" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B518" s="1" t="s">
+      <c r="B519" s="1" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A519" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A521" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B520" s="1" t="s">
+      <c r="B521" s="1" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A521" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B521" s="1" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A523" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B522" s="1" t="s">
+      <c r="B523" s="1" t="s">
         <v>853</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A523" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B523" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A527" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B526" s="1" t="s">
+      <c r="B527" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A527" s="2" t="s">
+    <row r="528" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A528" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B527" s="1" t="s">
+      <c r="B528" s="1" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A528" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A530" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B529" s="1" t="s">
+      <c r="B530" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A530" s="2" t="s">
+    <row r="531" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A531" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B530" s="1" t="s">
+      <c r="B531" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="531" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A531" s="2" t="s">
+    <row r="532" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A532" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B531" s="1" t="s">
+      <c r="B532" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A532" s="2" t="s">
+    <row r="533" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A533" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B532" s="1" t="s">
+      <c r="B533" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="533" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A533" s="2" t="s">
+    <row r="534" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A534" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B533" s="1" t="s">
+      <c r="B534" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="534" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A534" s="2" t="s">
+    <row r="535" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A535" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B534" s="1" t="s">
+      <c r="B535" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="535" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A535" s="2" t="s">
+    <row r="536" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A536" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B535" s="3" t="s">
+      <c r="B536" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="536" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A536" s="2" t="s">
+    <row r="537" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A537" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B536" s="1" t="s">
+      <c r="B537" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A537" s="2" t="s">
+    <row r="538" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A538" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B537" s="1" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A538" s="2" t="s">
+      <c r="B538" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A539" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B538" s="1" t="s">
+      <c r="B539" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="539" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A539" s="2" t="s">
+    <row r="540" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A540" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B539" s="1" t="s">
+      <c r="B540" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="540" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A540" s="2" t="s">
+    <row r="541" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A541" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B540" s="1" t="s">
+      <c r="B541" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="541" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A541" s="2" t="s">
+    <row r="542" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A542" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B541" s="1" t="s">
+      <c r="B542" s="1" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A542" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B542" s="1" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A544" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B543" s="1" t="s">
+      <c r="B544" s="1" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="544" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A544" s="2" t="s">
+    <row r="545" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A545" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B544" s="1" t="s">
+      <c r="B545" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A545" s="2" t="s">
+    <row r="546" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A546" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B545" s="1" t="s">
+      <c r="B546" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="546" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A546" s="2" t="s">
+    <row r="547" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A547" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B546" s="1" t="s">
+      <c r="B547" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="547" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A547" s="2" t="s">
+    <row r="548" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A548" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B547" s="1" t="s">
+      <c r="B548" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="548" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A548" s="2" t="s">
+    <row r="549" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A549" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B548" s="1" t="s">
+      <c r="B549" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A549" s="2" t="s">
+    <row r="550" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A550" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B549" s="1" t="s">
+      <c r="B550" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A550" s="2" t="s">
+    <row r="551" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A551" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="B550" s="1" t="s">
+      <c r="B551" s="1" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="551" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A551" s="2" t="s">
+    <row r="552" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A552" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B551" s="1" t="s">
+      <c r="B552" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="552" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A552" s="2" t="s">
+    <row r="553" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A553" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B552" s="1" t="s">
+      <c r="B553" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A553" s="2" t="s">
+    <row r="554" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A554" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B553" s="1" t="s">
+      <c r="B554" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="554" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A554" s="2" t="s">
+    <row r="555" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A555" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B554" s="1" t="s">
+      <c r="B555" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="555" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A555" s="2" t="s">
+    <row r="556" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A556" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="B555" s="1" t="s">
+      <c r="B556" s="1" t="s">
         <v>733</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A556" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B556" s="1" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
-        <v>383</v>
+        <v>306</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>387</v>
+        <v>703</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A559" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B558" s="3" t="s">
+      <c r="B559" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="405" x14ac:dyDescent="0.25">
-      <c r="A559" s="2" t="s">
+    <row r="560" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+      <c r="A560" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B559" s="1" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" ht="375" x14ac:dyDescent="0.25">
-      <c r="A560" s="2" t="s">
+      <c r="B560" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A561" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B560" s="1" t="s">
+      <c r="B561" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="561" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A561" s="2" t="s">
+    <row r="562" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A562" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B561" s="1" t="s">
+      <c r="B562" s="1" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A562" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B562" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B563" s="3" t="s">
-        <v>990</v>
+        <v>308</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A565" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="B564" s="3" t="s">
+      <c r="B565" s="3" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A565" s="2" t="s">
+    <row r="566" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A566" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B565" s="3" t="s">
-        <v>1114</v>
+      <c r="B566" s="3" t="s">
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B562">
-    <sortCondition ref="A1:A562"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B563">
+    <sortCondition ref="A1:A563"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6F9579C-6DCF-400C-9381-ED0D04FD6C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{780BC9CE-139D-452B-AF16-248A83713217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -15975,82 +15975,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e112b Evade to Eagle Clan&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt; Roll one die: 
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e325' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1 Pass&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e325' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 Pass&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e326' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 Pass&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e326' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 Pass&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e341' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 Conversation&lt;LineBreak/&gt;
- &lt;InlineUIContainer&gt;&lt;Button Content='e342' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 Inquiry
-&lt;LineBreak/&gt; &lt;LineBreak/&gt;
-                &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eagle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Height='210' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e112c Fight Eagle Clan&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt; Roll one die: 
  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
@@ -34993,6 +34917,82 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Height='250'  Width='500'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e112b Evade Eagle Clan&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt; Roll one die: 
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21'  Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e325' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1 Pass&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e325' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 Pass&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e326' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 Pass&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e326' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 Pass&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e341' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 Conversation&lt;LineBreak/&gt;
+ &lt;InlineUIContainer&gt;&lt;Button Content='e342' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 Inquiry
+&lt;LineBreak/&gt; &lt;LineBreak/&gt;
+                &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eagle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='210' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
 </sst>
@@ -35459,8 +35459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B246" sqref="B246"/>
+    <sheetView tabSelected="1" topLeftCell="A296" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B297" sqref="B297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35474,7 +35474,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35482,7 +35482,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35490,7 +35490,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35498,15 +35498,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35522,7 +35522,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35530,7 +35530,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35546,7 +35546,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35562,7 +35562,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35570,7 +35570,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35594,7 +35594,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35602,7 +35602,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35610,7 +35610,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35618,7 +35618,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35626,7 +35626,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35658,7 +35658,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35666,7 +35666,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35674,7 +35674,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35682,7 +35682,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35690,31 +35690,31 @@
         <v>261</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35722,7 +35722,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35730,7 +35730,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35738,23 +35738,23 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35762,23 +35762,23 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35786,7 +35786,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35810,7 +35810,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35818,7 +35818,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -35826,7 +35826,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35834,7 +35834,7 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -35850,7 +35850,7 @@
         <v>706</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35858,7 +35858,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35866,7 +35866,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35874,7 +35874,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35906,7 +35906,7 @@
         <v>496</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35930,7 +35930,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35938,7 +35938,7 @@
         <v>265</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35962,7 +35962,7 @@
         <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36002,7 +36002,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36026,7 +36026,7 @@
         <v>709</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36074,7 +36074,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36082,7 +36082,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36106,7 +36106,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36146,7 +36146,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36154,7 +36154,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36162,7 +36162,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36170,7 +36170,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36178,31 +36178,31 @@
         <v>58</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36210,15 +36210,15 @@
         <v>59</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>890</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36226,15 +36226,15 @@
         <v>60</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36242,7 +36242,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36250,7 +36250,7 @@
         <v>62</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36282,7 +36282,7 @@
         <v>65</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36290,7 +36290,7 @@
         <v>66</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36338,7 +36338,7 @@
         <v>474</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36370,7 +36370,7 @@
         <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -36458,7 +36458,7 @@
         <v>77</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36471,10 +36471,10 @@
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36482,7 +36482,7 @@
         <v>78</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36490,7 +36490,7 @@
         <v>376</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36530,7 +36530,7 @@
         <v>80</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36538,87 +36538,87 @@
         <v>81</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>951</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36626,7 +36626,7 @@
         <v>82</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36634,12 +36634,12 @@
         <v>83</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>552</v>
@@ -36674,7 +36674,7 @@
         <v>551</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36682,7 +36682,7 @@
         <v>86</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36794,7 +36794,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36818,23 +36818,23 @@
         <v>90</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36866,7 +36866,7 @@
         <v>93</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -36874,7 +36874,7 @@
         <v>94</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36882,7 +36882,7 @@
         <v>95</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36890,55 +36890,55 @@
         <v>96</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>866</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36946,7 +36946,7 @@
         <v>97</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36978,7 +36978,7 @@
         <v>100</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36994,7 +36994,7 @@
         <v>103</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37002,7 +37002,7 @@
         <v>104</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37018,7 +37018,7 @@
         <v>693</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37034,7 +37034,7 @@
         <v>106</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37042,7 +37042,7 @@
         <v>107</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37050,15 +37050,15 @@
         <v>165</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37066,7 +37066,7 @@
         <v>108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -37074,7 +37074,7 @@
         <v>109</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37082,7 +37082,7 @@
         <v>110</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37090,7 +37090,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37098,7 +37098,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37106,23 +37106,23 @@
         <v>168</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>881</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37170,7 +37170,7 @@
         <v>112</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37178,7 +37178,7 @@
         <v>169</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37186,7 +37186,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37194,7 +37194,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37202,7 +37202,7 @@
         <v>113</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37210,7 +37210,7 @@
         <v>114</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37218,15 +37218,15 @@
         <v>266</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37234,7 +37234,7 @@
         <v>115</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37250,7 +37250,7 @@
         <v>116</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37266,7 +37266,7 @@
         <v>117</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37290,7 +37290,7 @@
         <v>751</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37298,23 +37298,23 @@
         <v>118</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37322,23 +37322,23 @@
         <v>119</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37346,7 +37346,7 @@
         <v>120</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37354,7 +37354,7 @@
         <v>172</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37362,7 +37362,7 @@
         <v>173</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37370,7 +37370,7 @@
         <v>174</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37402,23 +37402,23 @@
         <v>123</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37431,10 +37431,10 @@
     </row>
     <row r="246" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B246" s="3" t="s">
         <v>1130</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37442,15 +37442,15 @@
         <v>125</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37458,7 +37458,7 @@
         <v>126</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37466,7 +37466,7 @@
         <v>127</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37482,7 +37482,7 @@
         <v>129</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37490,7 +37490,7 @@
         <v>130</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37498,23 +37498,23 @@
         <v>131</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B255" s="3" t="s">
         <v>927</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37522,7 +37522,7 @@
         <v>132</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37530,15 +37530,15 @@
         <v>133</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37546,23 +37546,23 @@
         <v>134</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>979</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="B262" s="3" t="s">
         <v>981</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37570,15 +37570,15 @@
         <v>135</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B264" s="3" t="s">
         <v>984</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37586,7 +37586,7 @@
         <v>136</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37610,7 +37610,7 @@
         <v>233</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37626,7 +37626,7 @@
         <v>234</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37634,7 +37634,7 @@
         <v>235</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37642,7 +37642,7 @@
         <v>139</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37650,7 +37650,7 @@
         <v>239</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37658,7 +37658,7 @@
         <v>240</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37666,7 +37666,7 @@
         <v>241</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37674,7 +37674,7 @@
         <v>140</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37682,7 +37682,7 @@
         <v>236</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37690,7 +37690,7 @@
         <v>237</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37698,7 +37698,7 @@
         <v>238</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37706,7 +37706,7 @@
         <v>141</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37714,7 +37714,7 @@
         <v>142</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37722,7 +37722,7 @@
         <v>143</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37730,7 +37730,7 @@
         <v>144</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37738,7 +37738,7 @@
         <v>242</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37746,7 +37746,7 @@
         <v>145</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37754,7 +37754,7 @@
         <v>146</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37762,7 +37762,7 @@
         <v>147</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37770,7 +37770,7 @@
         <v>148</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37778,31 +37778,31 @@
         <v>149</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B292" s="3" t="s">
         <v>1049</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37810,15 +37810,15 @@
         <v>150</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -37834,7 +37834,7 @@
         <v>243</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37842,7 +37842,7 @@
         <v>244</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>762</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37850,7 +37850,7 @@
         <v>245</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37858,7 +37858,7 @@
         <v>152</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37866,7 +37866,7 @@
         <v>153</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37874,7 +37874,7 @@
         <v>154</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37882,7 +37882,7 @@
         <v>155</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37890,7 +37890,7 @@
         <v>156</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37930,7 +37930,7 @@
         <v>158</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37938,7 +37938,7 @@
         <v>159</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37946,7 +37946,7 @@
         <v>160</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37954,7 +37954,7 @@
         <v>161</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37962,31 +37962,31 @@
         <v>162</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37994,7 +37994,7 @@
         <v>163</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38002,7 +38002,7 @@
         <v>164</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38010,7 +38010,7 @@
         <v>175</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38018,7 +38018,7 @@
         <v>176</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -38026,7 +38026,7 @@
         <v>177</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38034,7 +38034,7 @@
         <v>519</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38042,7 +38042,7 @@
         <v>520</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38050,7 +38050,7 @@
         <v>521</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38058,7 +38058,7 @@
         <v>522</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38066,7 +38066,7 @@
         <v>523</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38074,15 +38074,15 @@
         <v>524</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -38090,7 +38090,7 @@
         <v>178</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38098,7 +38098,7 @@
         <v>494</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38106,7 +38106,7 @@
         <v>548</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38114,7 +38114,7 @@
         <v>549</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -38122,7 +38122,7 @@
         <v>179</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38130,7 +38130,7 @@
         <v>249</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38138,7 +38138,7 @@
         <v>250</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38146,7 +38146,7 @@
         <v>251</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38154,7 +38154,7 @@
         <v>252</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38162,23 +38162,23 @@
         <v>253</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38186,7 +38186,7 @@
         <v>180</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38218,7 +38218,7 @@
         <v>183</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38226,7 +38226,7 @@
         <v>184</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38266,7 +38266,7 @@
         <v>469</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38290,7 +38290,7 @@
         <v>459</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38346,7 +38346,7 @@
         <v>340</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38354,7 +38354,7 @@
         <v>341</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38378,7 +38378,7 @@
         <v>196</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38386,7 +38386,7 @@
         <v>331</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38402,7 +38402,7 @@
         <v>660</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38442,7 +38442,7 @@
         <v>202</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38562,7 +38562,7 @@
         <v>587</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38570,7 +38570,7 @@
         <v>588</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38578,7 +38578,7 @@
         <v>589</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38586,7 +38586,7 @@
         <v>590</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38602,7 +38602,7 @@
         <v>592</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38618,7 +38618,7 @@
         <v>207</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38642,7 +38642,7 @@
         <v>642</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38770,7 +38770,7 @@
         <v>537</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38802,7 +38802,7 @@
         <v>213</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38818,7 +38818,7 @@
         <v>215</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38858,7 +38858,7 @@
         <v>220</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38866,7 +38866,7 @@
         <v>221</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38874,7 +38874,7 @@
         <v>222</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38882,7 +38882,7 @@
         <v>223</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38890,7 +38890,7 @@
         <v>224</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38898,7 +38898,7 @@
         <v>332</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38914,7 +38914,7 @@
         <v>225</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38978,7 +38978,7 @@
         <v>447</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39002,15 +39002,15 @@
         <v>581</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B443" s="3" t="s">
         <v>784</v>
-      </c>
-      <c r="B443" s="3" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39018,7 +39018,7 @@
         <v>319</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39026,7 +39026,7 @@
         <v>320</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39034,7 +39034,7 @@
         <v>321</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39042,15 +39042,15 @@
         <v>318</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B448" s="3" t="s">
         <v>1025</v>
-      </c>
-      <c r="B448" s="3" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -39058,7 +39058,7 @@
         <v>322</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39082,7 +39082,7 @@
         <v>488</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39122,7 +39122,7 @@
         <v>557</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -39130,7 +39130,7 @@
         <v>561</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -39146,7 +39146,7 @@
         <v>565</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39170,7 +39170,7 @@
         <v>568</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39178,7 +39178,7 @@
         <v>569</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39194,7 +39194,7 @@
         <v>571</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39218,7 +39218,7 @@
         <v>579</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -39226,7 +39226,7 @@
         <v>601</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -39234,7 +39234,7 @@
         <v>619</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -39242,7 +39242,7 @@
         <v>620</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -39250,15 +39250,15 @@
         <v>621</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -39266,7 +39266,7 @@
         <v>661</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39314,7 +39314,7 @@
         <v>667</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39354,7 +39354,7 @@
         <v>672</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -39383,18 +39383,18 @@
     </row>
     <row r="490" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B491" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39402,7 +39402,7 @@
         <v>691</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39410,7 +39410,7 @@
         <v>723</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39426,7 +39426,7 @@
         <v>544</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39434,7 +39434,7 @@
         <v>545</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39506,7 +39506,7 @@
         <v>275</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39514,7 +39514,7 @@
         <v>276</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39522,7 +39522,7 @@
         <v>277</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39570,7 +39570,7 @@
         <v>260</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39578,7 +39578,7 @@
         <v>476</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39586,15 +39586,15 @@
         <v>477</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B516" s="3" t="s">
         <v>791</v>
-      </c>
-      <c r="B516" s="3" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39642,7 +39642,7 @@
         <v>285</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39650,7 +39650,7 @@
         <v>286</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39730,7 +39730,7 @@
         <v>296</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39770,7 +39770,7 @@
         <v>298</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39810,7 +39810,7 @@
         <v>300</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39818,7 +39818,7 @@
         <v>301</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39946,7 +39946,7 @@
         <v>307</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="375" x14ac:dyDescent="0.25">
@@ -39978,7 +39978,7 @@
         <v>375</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39994,7 +39994,7 @@
         <v>329</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{780BC9CE-139D-452B-AF16-248A83713217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C80C65A-0484-4D2B-9692-F03B6C07A64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -11542,60 +11542,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e160 Audience with Lady Aeravir&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-You are allowed a semi-private interview with the rule of Aeravir Castle. Roll one die for the results:  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e160a' FontFamily='Courier New' FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1 - Shows No Interest&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e160b' FontFamily='Courier New' FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 -Distracted &lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e160c' FontFamily='Courier New' FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 - Shows Pity&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e160d' FontFamily='Courier New' FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 - Finds Virtue &lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e160e' FontFamily='Courier New' FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 - Seduction&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='e160f' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 - Shows Support</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e160c Lady Aeravir Pity&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 She takes pity on you and gives you a gift of wealth 60 to help in your quest but decrees that you cannot seek another audience with her. Click image to continue.
@@ -34107,78 +34053,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e012a Farmer with Protector Friendly Approach&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;Italic&gt;Friendly Approach:&lt;/Italic&gt;The farmer warns you off his land, but he will sell you food in any quantity you desire. 
-Regardless of whether you buy or not, the event will end and you continue on your way.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt; 
-                                                     &lt;InlineUIContainer&gt;&lt;Button Content='  -  ' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-&lt;InlineUIContainer&gt;&lt;Image Source='../../Images/Food.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Food</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'  Height='50' Width='50'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt; 
-&lt;InlineUIContainer&gt;&lt;Button Content='  +  ' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;         &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Farmland</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FarmlandEnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'  Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e013a Rich Peasant Family Friendly Approach&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;Italic&gt;Friendly Approach:&lt;/Italic&gt;The family provides food
  &lt;InlineUIContainer&gt;&lt;Button Content='r215' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; and lodging
@@ -34993,6 +34867,132 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Height='210' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e012a Farmer with Protector Friendly Approach&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;&lt;Italic&gt;Friendly Approach:&lt;/Italic&gt; The farmer warns you off his land, but he will sell you food in any quantity you desire. 
+Regardless of whether you buy or not, the event will end and you continue on your way.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt; 
+                                                     &lt;InlineUIContainer&gt;&lt;Button Content='  -  ' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+&lt;InlineUIContainer&gt;&lt;Image Source='../../Images/Food.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Food</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'  Height='50' Width='50'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt; 
+&lt;InlineUIContainer&gt;&lt;Button Content='  +  ' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;         &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Farmland</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FarmlandEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'  Height='250' Width='500'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e160 Audience with Lady Aeravir&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You are allowed a semi-private interview with the ruler of Aeravir Castle. Roll one die for the results:  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e160a' FontFamily='Courier New' FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 1 - Shows No Interest&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e160b' FontFamily='Courier New' FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 2 -Distracted &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e160c' FontFamily='Courier New' FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 3 - Shows Pity&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e160d' FontFamily='Courier New' FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 - Finds Virtue &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e160e' FontFamily='Courier New' FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 - Seduction&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='e160f' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 - Shows Support</t>
     </r>
   </si>
 </sst>
@@ -35459,8 +35459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B297" sqref="B297"/>
+    <sheetView tabSelected="1" topLeftCell="A395" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B395" sqref="B395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35474,7 +35474,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35482,7 +35482,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35490,7 +35490,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35498,15 +35498,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35522,7 +35522,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35530,7 +35530,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35546,7 +35546,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35562,7 +35562,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35570,7 +35570,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35578,7 +35578,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35586,7 +35586,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35594,7 +35594,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35602,7 +35602,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35610,7 +35610,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35618,7 +35618,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35626,7 +35626,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35634,7 +35634,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35642,7 +35642,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35650,7 +35650,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35658,7 +35658,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35666,7 +35666,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35674,7 +35674,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35682,7 +35682,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35690,31 +35690,31 @@
         <v>261</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35722,7 +35722,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35730,7 +35730,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35738,23 +35738,23 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35762,23 +35762,23 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35786,7 +35786,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35810,7 +35810,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35818,7 +35818,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -35826,7 +35826,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35834,7 +35834,7 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -35847,10 +35847,10 @@
     </row>
     <row r="48" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35858,7 +35858,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1118</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35866,7 +35866,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35874,7 +35874,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35906,7 +35906,7 @@
         <v>496</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35930,7 +35930,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35938,7 +35938,7 @@
         <v>265</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35962,7 +35962,7 @@
         <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -35994,7 +35994,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -36002,7 +36002,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36010,7 +36010,7 @@
         <v>43</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36018,23 +36018,23 @@
         <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>710</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36042,7 +36042,7 @@
         <v>39</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36074,7 +36074,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36082,7 +36082,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36106,7 +36106,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36146,7 +36146,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36154,7 +36154,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36162,7 +36162,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36170,7 +36170,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36178,31 +36178,31 @@
         <v>58</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36210,15 +36210,15 @@
         <v>59</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>889</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36226,15 +36226,15 @@
         <v>60</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36242,7 +36242,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36250,7 +36250,7 @@
         <v>62</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36282,7 +36282,7 @@
         <v>65</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36290,7 +36290,7 @@
         <v>66</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36338,7 +36338,7 @@
         <v>474</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36370,7 +36370,7 @@
         <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -36402,7 +36402,7 @@
         <v>72</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36410,7 +36410,7 @@
         <v>73</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36458,7 +36458,7 @@
         <v>77</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36471,10 +36471,10 @@
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36482,7 +36482,7 @@
         <v>78</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36490,7 +36490,7 @@
         <v>376</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36530,7 +36530,7 @@
         <v>80</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36538,87 +36538,87 @@
         <v>81</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>950</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36626,7 +36626,7 @@
         <v>82</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36634,12 +36634,12 @@
         <v>83</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>552</v>
@@ -36674,7 +36674,7 @@
         <v>551</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36682,7 +36682,7 @@
         <v>86</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36738,7 +36738,7 @@
         <v>345</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36746,7 +36746,7 @@
         <v>347</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36775,10 +36775,10 @@
     </row>
     <row r="164" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>717</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36794,7 +36794,7 @@
         <v>443</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36818,23 +36818,23 @@
         <v>90</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36866,7 +36866,7 @@
         <v>93</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -36874,7 +36874,7 @@
         <v>94</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36882,7 +36882,7 @@
         <v>95</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36890,55 +36890,55 @@
         <v>96</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>865</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36946,7 +36946,7 @@
         <v>97</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36978,7 +36978,7 @@
         <v>100</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36994,7 +36994,7 @@
         <v>103</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37002,7 +37002,7 @@
         <v>104</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37010,23 +37010,23 @@
         <v>105</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>694</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37034,7 +37034,7 @@
         <v>106</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37042,7 +37042,7 @@
         <v>107</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37050,15 +37050,15 @@
         <v>165</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37066,7 +37066,7 @@
         <v>108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -37074,7 +37074,7 @@
         <v>109</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37082,7 +37082,7 @@
         <v>110</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37090,7 +37090,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37098,7 +37098,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37106,23 +37106,23 @@
         <v>168</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>880</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37130,39 +37130,39 @@
         <v>111</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B212" s="3" t="s">
         <v>725</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37170,7 +37170,7 @@
         <v>112</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37178,7 +37178,7 @@
         <v>169</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37186,7 +37186,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37194,7 +37194,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37202,7 +37202,7 @@
         <v>113</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37210,7 +37210,7 @@
         <v>114</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37218,15 +37218,15 @@
         <v>266</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37234,15 +37234,15 @@
         <v>115</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37250,15 +37250,15 @@
         <v>116</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37266,31 +37266,31 @@
         <v>117</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>748</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37298,23 +37298,23 @@
         <v>118</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37322,23 +37322,23 @@
         <v>119</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37346,7 +37346,7 @@
         <v>120</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37354,7 +37354,7 @@
         <v>172</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37362,7 +37362,7 @@
         <v>173</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37370,7 +37370,7 @@
         <v>174</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37386,15 +37386,15 @@
         <v>122</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37402,23 +37402,23 @@
         <v>123</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37426,15 +37426,15 @@
         <v>124</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37442,15 +37442,15 @@
         <v>125</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37458,7 +37458,7 @@
         <v>126</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37466,7 +37466,7 @@
         <v>127</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37474,7 +37474,7 @@
         <v>128</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37482,7 +37482,7 @@
         <v>129</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37490,7 +37490,7 @@
         <v>130</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37498,23 +37498,23 @@
         <v>131</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B255" s="3" t="s">
         <v>926</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37522,7 +37522,7 @@
         <v>132</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37530,15 +37530,15 @@
         <v>133</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37546,23 +37546,23 @@
         <v>134</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>978</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B262" s="3" t="s">
         <v>980</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37570,15 +37570,15 @@
         <v>135</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B264" s="3" t="s">
         <v>983</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37586,7 +37586,7 @@
         <v>136</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37610,7 +37610,7 @@
         <v>233</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37618,7 +37618,7 @@
         <v>138</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37626,7 +37626,7 @@
         <v>234</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37634,7 +37634,7 @@
         <v>235</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37642,7 +37642,7 @@
         <v>139</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37650,7 +37650,7 @@
         <v>239</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37658,7 +37658,7 @@
         <v>240</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37666,7 +37666,7 @@
         <v>241</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37674,7 +37674,7 @@
         <v>140</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37682,7 +37682,7 @@
         <v>236</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37690,7 +37690,7 @@
         <v>237</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37698,7 +37698,7 @@
         <v>238</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37706,7 +37706,7 @@
         <v>141</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37714,7 +37714,7 @@
         <v>142</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37722,7 +37722,7 @@
         <v>143</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37730,7 +37730,7 @@
         <v>144</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37738,7 +37738,7 @@
         <v>242</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37746,7 +37746,7 @@
         <v>145</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37754,7 +37754,7 @@
         <v>146</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37762,7 +37762,7 @@
         <v>147</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37770,7 +37770,7 @@
         <v>148</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37778,31 +37778,31 @@
         <v>149</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B292" s="3" t="s">
         <v>1048</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37810,15 +37810,15 @@
         <v>150</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -37826,7 +37826,7 @@
         <v>151</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37834,7 +37834,7 @@
         <v>243</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37842,7 +37842,7 @@
         <v>244</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37850,7 +37850,7 @@
         <v>245</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37858,7 +37858,7 @@
         <v>152</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37866,7 +37866,7 @@
         <v>153</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37874,7 +37874,7 @@
         <v>154</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37882,7 +37882,7 @@
         <v>155</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37890,7 +37890,7 @@
         <v>156</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37898,7 +37898,7 @@
         <v>157</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37906,7 +37906,7 @@
         <v>246</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37914,7 +37914,7 @@
         <v>247</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37922,7 +37922,7 @@
         <v>248</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37930,7 +37930,7 @@
         <v>158</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37938,7 +37938,7 @@
         <v>159</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37946,7 +37946,7 @@
         <v>160</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37954,7 +37954,7 @@
         <v>161</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37962,31 +37962,31 @@
         <v>162</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37994,7 +37994,7 @@
         <v>163</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38002,7 +38002,7 @@
         <v>164</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38010,7 +38010,7 @@
         <v>175</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38018,7 +38018,7 @@
         <v>176</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -38026,7 +38026,7 @@
         <v>177</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -38034,7 +38034,7 @@
         <v>519</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38042,7 +38042,7 @@
         <v>520</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38050,7 +38050,7 @@
         <v>521</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38058,7 +38058,7 @@
         <v>522</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38066,7 +38066,7 @@
         <v>523</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38074,15 +38074,15 @@
         <v>524</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -38090,7 +38090,7 @@
         <v>178</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38098,7 +38098,7 @@
         <v>494</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38106,7 +38106,7 @@
         <v>548</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38114,7 +38114,7 @@
         <v>549</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -38122,7 +38122,7 @@
         <v>179</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38130,7 +38130,7 @@
         <v>249</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38138,7 +38138,7 @@
         <v>250</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38146,7 +38146,7 @@
         <v>251</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38154,7 +38154,7 @@
         <v>252</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38162,23 +38162,23 @@
         <v>253</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38186,7 +38186,7 @@
         <v>180</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38218,7 +38218,7 @@
         <v>183</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38226,7 +38226,7 @@
         <v>184</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38266,7 +38266,7 @@
         <v>469</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38290,7 +38290,7 @@
         <v>459</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38338,7 +38338,7 @@
         <v>193</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38346,7 +38346,7 @@
         <v>340</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38354,7 +38354,7 @@
         <v>341</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38362,7 +38362,7 @@
         <v>194</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38370,7 +38370,7 @@
         <v>195</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38378,7 +38378,7 @@
         <v>196</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38386,7 +38386,7 @@
         <v>331</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38394,15 +38394,15 @@
         <v>197</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38442,7 +38442,7 @@
         <v>202</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38458,7 +38458,7 @@
         <v>596</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38466,7 +38466,7 @@
         <v>597</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38474,7 +38474,7 @@
         <v>598</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38482,7 +38482,7 @@
         <v>599</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38490,7 +38490,7 @@
         <v>600</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38562,7 +38562,7 @@
         <v>587</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38570,7 +38570,7 @@
         <v>588</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38578,7 +38578,7 @@
         <v>589</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38586,7 +38586,7 @@
         <v>590</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38602,7 +38602,7 @@
         <v>592</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38618,7 +38618,7 @@
         <v>207</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38634,7 +38634,7 @@
         <v>209</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>648</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38642,7 +38642,7 @@
         <v>642</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38650,7 +38650,7 @@
         <v>643</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38658,7 +38658,7 @@
         <v>644</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38666,7 +38666,7 @@
         <v>645</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38674,7 +38674,7 @@
         <v>646</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38682,7 +38682,7 @@
         <v>647</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38754,7 +38754,7 @@
         <v>211</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38770,7 +38770,7 @@
         <v>537</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38802,7 +38802,7 @@
         <v>213</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38810,7 +38810,7 @@
         <v>214</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38818,7 +38818,7 @@
         <v>215</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38850,7 +38850,7 @@
         <v>219</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38858,7 +38858,7 @@
         <v>220</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38866,7 +38866,7 @@
         <v>221</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38874,7 +38874,7 @@
         <v>222</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38882,7 +38882,7 @@
         <v>223</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38890,7 +38890,7 @@
         <v>224</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38898,7 +38898,7 @@
         <v>332</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38914,7 +38914,7 @@
         <v>225</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38978,7 +38978,7 @@
         <v>447</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39002,15 +39002,15 @@
         <v>581</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B443" s="3" t="s">
         <v>783</v>
-      </c>
-      <c r="B443" s="3" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39018,7 +39018,7 @@
         <v>319</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39026,7 +39026,7 @@
         <v>320</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39034,7 +39034,7 @@
         <v>321</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39042,15 +39042,15 @@
         <v>318</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B448" s="3" t="s">
         <v>1024</v>
-      </c>
-      <c r="B448" s="3" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -39058,7 +39058,7 @@
         <v>322</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39082,7 +39082,7 @@
         <v>488</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39122,7 +39122,7 @@
         <v>557</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -39130,7 +39130,7 @@
         <v>561</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -39138,7 +39138,7 @@
         <v>564</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39146,7 +39146,7 @@
         <v>565</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39170,7 +39170,7 @@
         <v>568</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39178,7 +39178,7 @@
         <v>569</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -39194,7 +39194,7 @@
         <v>571</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39218,7 +39218,7 @@
         <v>579</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -39226,7 +39226,7 @@
         <v>601</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -39234,7 +39234,7 @@
         <v>619</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -39242,7 +39242,7 @@
         <v>620</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -39250,167 +39250,167 @@
         <v>621</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B489" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B491" s="1" t="s">
         <v>1006</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39418,7 +39418,7 @@
         <v>543</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39426,7 +39426,7 @@
         <v>544</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39434,7 +39434,7 @@
         <v>545</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39506,7 +39506,7 @@
         <v>275</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39514,7 +39514,7 @@
         <v>276</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39522,7 +39522,7 @@
         <v>277</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39570,7 +39570,7 @@
         <v>260</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39578,7 +39578,7 @@
         <v>476</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39586,15 +39586,15 @@
         <v>477</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B516" s="3" t="s">
         <v>790</v>
-      </c>
-      <c r="B516" s="3" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39642,7 +39642,7 @@
         <v>285</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39650,7 +39650,7 @@
         <v>286</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39730,7 +39730,7 @@
         <v>296</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39738,7 +39738,7 @@
         <v>297</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -39770,7 +39770,7 @@
         <v>298</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -39786,7 +39786,7 @@
         <v>299</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -39810,7 +39810,7 @@
         <v>300</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -39818,7 +39818,7 @@
         <v>301</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39858,7 +39858,7 @@
         <v>395</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39871,10 +39871,10 @@
     </row>
     <row r="551" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39882,7 +39882,7 @@
         <v>305</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39911,10 +39911,10 @@
     </row>
     <row r="556" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B556" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="B556" s="1" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39922,7 +39922,7 @@
         <v>306</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -39946,7 +39946,7 @@
         <v>307</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="375" x14ac:dyDescent="0.25">
@@ -39954,7 +39954,7 @@
         <v>311</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -39978,15 +39978,15 @@
         <v>375</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B565" s="3" t="s">
         <v>736</v>
-      </c>
-      <c r="B565" s="3" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39994,7 +39994,7 @@
         <v>329</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Events.xlsx
+++ b/Documentation/Events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C80C65A-0484-4D2B-9692-F03B6C07A64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9978455D-A1E1-490A-B5F6-D5C9AE7DE9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="1" r:id="rId1"/>
@@ -1166,60 +1166,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;Bold&gt;e136 Hidden Treasures&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;You uncover the remains of a palace treasure room. Roll one die for the contents:
- &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gif' Name='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DieRoll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-1 - &lt;InlineUIContainer&gt;&lt;Button Content='e037' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
-2 - &lt;InlineUIContainer&gt;&lt;Button Content='e038' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
-3 - &lt;InlineUIContainer&gt;&lt;Button Content='e039' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
-4 - &lt;InlineUIContainer&gt;&lt;Button Content='e044' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
-5 - 500 gold pieces&lt;LineBreak/&gt;
-6 - Nothing</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>&lt;Bold&gt;e038 Cache under Stone&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;By chance, you overturn a stone slab, As you jump back, it crashes to the ground. You see that it uncovers an old cache of rotting food  and other items. Roll one die:
  &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
@@ -34993,6 +34939,102 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='e160d' FontFamily='Courier New' FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 4 - Finds Virtue &lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='e160e' FontFamily='Courier New' FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 5 - Seduction&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='e160f' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; - 6 - Shows Support</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;e136 Hidden Treasures&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You uncover the remains of a palace treasure room. Roll one die for the contents:
+ &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DieRoll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='21' Width='21' &gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+1 - &lt;InlineUIContainer&gt;&lt;Button Content='e037' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+2 - &lt;InlineUIContainer&gt;&lt;Button Content='e038' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+3 - &lt;InlineUIContainer&gt;&lt;Button Content='e039' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+4 - &lt;InlineUIContainer&gt;&lt;Button Content='e044' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+5 - 500 gold pieces&lt;LineBreak/&gt;
+6 - Nothing&lt;LineBreak/&gt;
+&lt;LineBreak/&gt;
+          &lt;InlineUIContainer&gt;&lt;Image Name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TreasureRoomDoor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TreasureRoomDoor.gif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Height='220'  Width='300'&gt; &lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
 </sst>
@@ -35459,8 +35501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B395" sqref="B395"/>
+    <sheetView tabSelected="1" topLeftCell="A345" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B347" sqref="B347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35474,7 +35516,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35482,7 +35524,7 @@
         <v>254</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35490,7 +35532,7 @@
         <v>255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35498,15 +35540,15 @@
         <v>256</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -35522,7 +35564,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35530,7 +35572,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35538,7 +35580,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35546,7 +35588,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35554,7 +35596,7 @@
         <v>258</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35562,7 +35604,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35570,7 +35612,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35578,7 +35620,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35586,7 +35628,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35594,7 +35636,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35602,7 +35644,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35610,7 +35652,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35618,7 +35660,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35626,7 +35668,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35634,7 +35676,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35642,7 +35684,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35650,7 +35692,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35658,7 +35700,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35666,7 +35708,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35674,7 +35716,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35682,7 +35724,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -35690,31 +35732,31 @@
         <v>261</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35722,7 +35764,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35730,7 +35772,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -35738,23 +35780,23 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -35762,23 +35804,23 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -35786,7 +35828,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35794,7 +35836,7 @@
         <v>262</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -35802,7 +35844,7 @@
         <v>263</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -35810,7 +35852,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -35818,7 +35860,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -35826,7 +35868,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35834,23 +35876,23 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35858,7 +35900,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35866,7 +35908,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -35874,7 +35916,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35882,47 +35924,47 @@
         <v>34</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35930,7 +35972,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -35938,23 +35980,23 @@
         <v>265</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -35962,7 +36004,7 @@
         <v>35</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -35970,23 +36012,23 @@
         <v>36</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -35994,7 +36036,7 @@
         <v>37</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -36002,7 +36044,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36010,7 +36052,7 @@
         <v>43</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36018,23 +36060,23 @@
         <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>709</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36042,7 +36084,7 @@
         <v>39</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36050,7 +36092,7 @@
         <v>40</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36058,7 +36100,7 @@
         <v>41</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36066,7 +36108,7 @@
         <v>45</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36074,7 +36116,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36082,7 +36124,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36090,7 +36132,7 @@
         <v>47</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36098,7 +36140,7 @@
         <v>48</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36106,7 +36148,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36114,7 +36156,7 @@
         <v>50</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36122,7 +36164,7 @@
         <v>51</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36130,7 +36172,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36138,7 +36180,7 @@
         <v>53</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -36146,7 +36188,7 @@
         <v>54</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36154,7 +36196,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36162,7 +36204,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36170,7 +36212,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36178,31 +36220,31 @@
         <v>58</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36210,15 +36252,15 @@
         <v>59</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>888</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36226,15 +36268,15 @@
         <v>60</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36242,7 +36284,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36250,15 +36292,15 @@
         <v>62</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36266,7 +36308,7 @@
         <v>63</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -36274,7 +36316,7 @@
         <v>64</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36282,7 +36324,7 @@
         <v>65</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -36290,15 +36332,15 @@
         <v>66</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36306,15 +36348,15 @@
         <v>67</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -36322,23 +36364,23 @@
         <v>68</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36346,23 +36388,23 @@
         <v>69</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36370,15 +36412,15 @@
         <v>70</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36386,7 +36428,7 @@
         <v>259</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36394,7 +36436,7 @@
         <v>71</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36402,7 +36444,7 @@
         <v>72</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36410,15 +36452,15 @@
         <v>73</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36426,7 +36468,7 @@
         <v>74</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -36450,7 +36492,7 @@
         <v>76</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36458,7 +36500,7 @@
         <v>77</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -36466,15 +36508,15 @@
         <v>330</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36482,23 +36524,23 @@
         <v>78</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36506,23 +36548,23 @@
         <v>79</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36530,7 +36572,7 @@
         <v>80</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36538,87 +36580,87 @@
         <v>81</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>949</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36626,7 +36668,7 @@
         <v>82</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36634,15 +36676,15 @@
         <v>83</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36650,7 +36692,7 @@
         <v>84</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -36658,23 +36700,23 @@
         <v>85</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -36682,7 +36724,7 @@
         <v>86</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36690,23 +36732,23 @@
         <v>87</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="345" x14ac:dyDescent="0.25">
@@ -36714,71 +36756,71 @@
         <v>88</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -36786,31 +36828,31 @@
         <v>89</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -36818,23 +36860,23 @@
         <v>90</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36842,15 +36884,15 @@
         <v>91</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36858,7 +36900,7 @@
         <v>92</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36866,7 +36908,7 @@
         <v>93</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -36874,7 +36916,7 @@
         <v>94</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36882,7 +36924,7 @@
         <v>95</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -36890,55 +36932,55 @@
         <v>96</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>864</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -36946,7 +36988,7 @@
         <v>97</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -36954,7 +36996,7 @@
         <v>98</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36962,7 +37004,7 @@
         <v>99</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -36970,7 +37012,7 @@
         <v>101</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36978,7 +37020,7 @@
         <v>100</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -36986,7 +37028,7 @@
         <v>102</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -36994,7 +37036,7 @@
         <v>103</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37002,7 +37044,7 @@
         <v>104</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37010,23 +37052,23 @@
         <v>105</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>693</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37034,7 +37076,7 @@
         <v>106</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37042,7 +37084,7 @@
         <v>107</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37050,15 +37092,15 @@
         <v>165</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37066,7 +37108,7 @@
         <v>108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -37074,7 +37116,7 @@
         <v>109</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37082,7 +37124,7 @@
         <v>110</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37090,7 +37132,7 @@
         <v>166</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37098,7 +37140,7 @@
         <v>167</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37106,23 +37148,23 @@
         <v>168</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>879</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37130,39 +37172,39 @@
         <v>111</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B212" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37170,7 +37212,7 @@
         <v>112</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37178,7 +37220,7 @@
         <v>169</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37186,7 +37228,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37194,7 +37236,7 @@
         <v>171</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37202,7 +37244,7 @@
         <v>113</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37210,7 +37252,7 @@
         <v>114</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37218,15 +37260,15 @@
         <v>266</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37234,15 +37276,15 @@
         <v>115</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37250,15 +37292,15 @@
         <v>116</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37266,31 +37308,31 @@
         <v>117</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>747</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37298,23 +37340,23 @@
         <v>118</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37322,23 +37364,23 @@
         <v>119</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37346,7 +37388,7 @@
         <v>120</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37354,7 +37396,7 @@
         <v>172</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37362,7 +37404,7 @@
         <v>173</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37370,7 +37412,7 @@
         <v>174</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37378,7 +37420,7 @@
         <v>121</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37386,15 +37428,15 @@
         <v>122</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -37402,23 +37444,23 @@
         <v>123</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37426,15 +37468,15 @@
         <v>124</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B246" s="3" t="s">
         <v>1127</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37442,15 +37484,15 @@
         <v>125</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37458,7 +37500,7 @@
         <v>126</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37466,7 +37508,7 @@
         <v>127</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37474,7 +37516,7 @@
         <v>128</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37482,7 +37524,7 @@
         <v>129</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37490,7 +37532,7 @@
         <v>130</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37498,23 +37540,23 @@
         <v>131</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B255" s="3" t="s">
         <v>925</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37522,7 +37564,7 @@
         <v>132</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37530,15 +37572,15 @@
         <v>133</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37546,23 +37588,23 @@
         <v>134</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>977</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B262" s="3" t="s">
         <v>979</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37570,15 +37612,15 @@
         <v>135</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B264" s="3" t="s">
         <v>982</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37586,7 +37628,7 @@
         <v>136</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37594,7 +37636,7 @@
         <v>137</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37602,7 +37644,7 @@
         <v>232</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37610,7 +37652,7 @@
         <v>233</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37618,7 +37660,7 @@
         <v>138</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37626,7 +37668,7 @@
         <v>234</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37634,7 +37676,7 @@
         <v>235</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37642,7 +37684,7 @@
         <v>139</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37650,7 +37692,7 @@
         <v>239</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37658,7 +37700,7 @@
         <v>240</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37666,7 +37708,7 @@
         <v>241</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37674,7 +37716,7 @@
         <v>140</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37682,7 +37724,7 @@
         <v>236</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37690,7 +37732,7 @@
         <v>237</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37698,7 +37740,7 @@
         <v>238</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37706,7 +37748,7 @@
         <v>141</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37714,7 +37756,7 @@
         <v>142</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37722,7 +37764,7 @@
         <v>143</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -37730,7 +37772,7 @@
         <v>144</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37738,7 +37780,7 @@
         <v>242</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37746,7 +37788,7 @@
         <v>145</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37754,7 +37796,7 @@
         <v>146</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37762,7 +37804,7 @@
         <v>147</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -37770,7 +37812,7 @@
         <v>148</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -37778,31 +37820,31 @@
         <v>149</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B292" s="3" t="s">
         <v>1047</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37810,15 +37852,15 @@
         <v>150</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -37826,7 +37868,7 @@
         <v>151</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37834,7 +37876,7 @@
         <v>243</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37842,7 +37884,7 @@
         <v>244</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37850,7 +37892,7 @@
         <v>245</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37858,7 +37900,7 @@
         <v>152</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37866,7 +37908,7 @@
         <v>153</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37874,7 +37916,7 @@
         <v>154</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37882,7 +37924,7 @@
         <v>155</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -37890,7 +37932,7 @@
         <v>156</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -37898,7 +37940,7 @@
         <v>157</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -37906,7 +37948,7 @@
         <v>246</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37914,7 +37956,7 @@
         <v>247</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37922,7 +37964,7 @@
         <v>248</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37930,7 +37972,7 @@
         <v>158</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -37938,7 +37980,7 @@
         <v>159</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -37946,7 +37988,7 @@
         <v>160</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -37954,7 +37996,7 @@
         <v>161</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -37962,31 +38004,31 @@
         <v>162</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -37994,7 +38036,7 @@
         <v>163</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -38002,7 +38044,7 @@
         <v>164</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38010,7 +38052,7 @@
         <v>175</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38018,7 +38060,7 @@
         <v>176</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -38026,63 +38068,63 @@
         <v>177</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="390" x14ac:dyDescent="0.25">
@@ -38090,31 +38132,31 @@
         <v>178</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -38122,7 +38164,7 @@
         <v>179</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38130,7 +38172,7 @@
         <v>249</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38138,7 +38180,7 @@
         <v>250</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38146,7 +38188,7 @@
         <v>251</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38154,7 +38196,7 @@
         <v>252</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38162,23 +38204,23 @@
         <v>253</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38186,7 +38228,7 @@
         <v>180</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38194,15 +38236,15 @@
         <v>181</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38218,7 +38260,7 @@
         <v>183</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38226,7 +38268,7 @@
         <v>184</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -38237,12 +38279,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>334</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38250,7 +38292,7 @@
         <v>186</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38258,15 +38300,15 @@
         <v>187</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38274,7 +38316,7 @@
         <v>188</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38282,23 +38324,23 @@
         <v>189</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B354" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="B354" s="3" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38306,7 +38348,7 @@
         <v>190</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38314,7 +38356,7 @@
         <v>191</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38322,15 +38364,15 @@
         <v>192</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B358" s="3" t="s">
         <v>616</v>
-      </c>
-      <c r="B358" s="3" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="270" x14ac:dyDescent="0.25">
@@ -38338,23 +38380,23 @@
         <v>193</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -38362,7 +38404,7 @@
         <v>194</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38370,7 +38412,7 @@
         <v>195</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38378,7 +38420,7 @@
         <v>196</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38386,7 +38428,7 @@
         <v>331</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38394,15 +38436,15 @@
         <v>197</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38410,7 +38452,7 @@
         <v>198</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38418,7 +38460,7 @@
         <v>199</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38426,7 +38468,7 @@
         <v>200</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38434,7 +38476,7 @@
         <v>201</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38442,7 +38484,7 @@
         <v>202</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38450,47 +38492,47 @@
         <v>203</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38498,55 +38540,55 @@
         <v>204</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38554,55 +38596,55 @@
         <v>205</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38610,7 +38652,7 @@
         <v>206</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38618,7 +38660,7 @@
         <v>207</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38626,7 +38668,7 @@
         <v>208</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38634,55 +38676,55 @@
         <v>209</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38690,63 +38732,63 @@
         <v>210</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B410" s="3" t="s">
         <v>638</v>
-      </c>
-      <c r="B410" s="3" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -38754,7 +38796,7 @@
         <v>211</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38762,39 +38804,39 @@
         <v>212</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38802,7 +38844,7 @@
         <v>213</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38810,7 +38852,7 @@
         <v>214</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38818,7 +38860,7 @@
         <v>215</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38826,7 +38868,7 @@
         <v>216</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38834,7 +38876,7 @@
         <v>217</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38842,7 +38884,7 @@
         <v>218</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38850,7 +38892,7 @@
         <v>219</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38858,7 +38900,7 @@
         <v>220</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -38866,7 +38908,7 @@
         <v>221</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38874,7 +38916,7 @@
         <v>222</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38882,7 +38924,7 @@
         <v>223</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38890,7 +38932,7 @@
         <v>224</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -38898,15 +38940,15 @@
         <v>332</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -38914,7 +38956,7 @@
         <v>225</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -38922,7 +38964,7 @@
         <v>226</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -38930,7 +38972,7 @@
         <v>227</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -38938,7 +38980,7 @@
         <v>228</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -38946,7 +38988,7 @@
         <v>229</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -38954,7 +38996,7 @@
         <v>230</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -38962,7 +39004,7 @@
         <v>231</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -38970,47 +39012,47 @@
         <v>257</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B443" s="3" t="s">
         <v>782</v>
-      </c>
-      <c r="B443" s="3" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39018,7 +39060,7 @@
         <v>319</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39026,7 +39068,7 @@
         <v>320</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -39034,7 +39076,7 @@
         <v>321</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -39042,15 +39084,15 @@
         <v>318</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B448" s="3" t="s">
         <v>1023</v>
-      </c>
-      <c r="B448" s="3" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -39058,383 +39100,383 @@
         <v>322</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c 